--- a/docs/comp_student_numbers_2022.xlsx
+++ b/docs/comp_student_numbers_2022.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25809"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssu-my.sharepoint.com/personal/martin_reid_solent_ac_uk/Documents/solent_store/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{2550F169-BEF9-40D9-8733-B8C7482F9540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B27FCC92-595A-425D-A90F-0EA0EEEBD8CD}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{2550F169-BEF9-40D9-8733-B8C7482F9540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B3198F2-29A4-A145-9A7A-21EA72707CF2}"/>
   <bookViews>
-    <workbookView xWindow="-42585" yWindow="-1350" windowWidth="29130" windowHeight="18090" xr2:uid="{145B23FD-6B6F-4D33-A52C-2CE972592F2A}"/>
+    <workbookView xWindow="1380" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{145B23FD-6B6F-4D33-A52C-2CE972592F2A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Under Grad" sheetId="6" r:id="rId1"/>
+    <sheet name="Comp_student Numbers_Oct 2022" sheetId="6" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -147,7 +147,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -722,10 +722,13 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
@@ -734,6 +737,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -752,27 +773,6 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -788,6 +788,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -795,12 +801,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1126,26 +1126,25 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="11" max="11" width="40.28515625" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="36.1640625" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" customWidth="1"/>
+    <col min="13" max="13" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="32.25" customHeight="1">
+    <row r="1" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1180,11 +1179,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1">
+    <row r="2" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:13" ht="29.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>6</v>
       </c>
@@ -1195,7 +1194,7 @@
         <f>SUM(B3)</f>
         <v>26</v>
       </c>
-      <c r="D3" s="53">
+      <c r="D3" s="55">
         <f>SUM(C3+C6+C13+C20)</f>
         <v>219</v>
       </c>
@@ -1209,7 +1208,7 @@
         <f>SUM(G3)</f>
         <v>9</v>
       </c>
-      <c r="I3" s="44">
+      <c r="I3" s="31">
         <f>SUM(H3+H6+H14+H22+H29)</f>
         <v>67</v>
       </c>
@@ -1219,46 +1218,46 @@
       <c r="L3" s="5">
         <v>11</v>
       </c>
-      <c r="M3" s="44">
+      <c r="M3" s="31">
         <f>SUM(L3+L5+L7+L10+L12+L15+L17)</f>
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="54"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="45"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="45"/>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="56"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="32"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="32"/>
+    </row>
+    <row r="5" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="51"/>
       <c r="C5" s="52"/>
-      <c r="D5" s="54"/>
+      <c r="D5" s="56"/>
       <c r="F5" s="50" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="51"/>
       <c r="H5" s="52"/>
-      <c r="I5" s="45"/>
-      <c r="K5" s="47" t="s">
+      <c r="I5" s="32"/>
+      <c r="K5" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="42">
+      <c r="L5" s="38">
         <v>16</v>
       </c>
-      <c r="M5" s="45"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" thickBot="1">
+      <c r="M5" s="32"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>12</v>
       </c>
@@ -1269,7 +1268,7 @@
         <f>SUM(B6:B10)</f>
         <v>76</v>
       </c>
-      <c r="D6" s="54"/>
+      <c r="D6" s="56"/>
       <c r="F6" s="20" t="s">
         <v>13</v>
       </c>
@@ -1280,12 +1279,12 @@
         <f>SUM(G6:G11)</f>
         <v>11</v>
       </c>
-      <c r="I6" s="45"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="45"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1">
+      <c r="I6" s="32"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="32"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
@@ -1293,7 +1292,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="59"/>
-      <c r="D7" s="54"/>
+      <c r="D7" s="56"/>
       <c r="F7" s="8" t="s">
         <v>15</v>
       </c>
@@ -1301,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="H7" s="48"/>
-      <c r="I7" s="45"/>
-      <c r="K7" s="35" t="s">
+      <c r="I7" s="32"/>
+      <c r="K7" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="37">
+      <c r="L7" s="44">
         <v>0</v>
       </c>
-      <c r="M7" s="45"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" thickBot="1">
+      <c r="M7" s="32"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
@@ -1318,7 +1317,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="59"/>
-      <c r="D8" s="54"/>
+      <c r="D8" s="56"/>
       <c r="F8" s="7" t="s">
         <v>18</v>
       </c>
@@ -1326,12 +1325,12 @@
         <v>1</v>
       </c>
       <c r="H8" s="48"/>
-      <c r="I8" s="45"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="45"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" thickBot="1">
+      <c r="I8" s="32"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="32"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
@@ -1339,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="59"/>
-      <c r="D9" s="54"/>
+      <c r="D9" s="56"/>
       <c r="F9" s="8" t="s">
         <v>20</v>
       </c>
@@ -1347,20 +1346,20 @@
         <v>0</v>
       </c>
       <c r="H9" s="48"/>
-      <c r="I9" s="45"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="45"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
+      <c r="I9" s="32"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="32"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="10">
         <v>14</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="54"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="56"/>
       <c r="F10" s="7" t="s">
         <v>22</v>
       </c>
@@ -1368,20 +1367,20 @@
         <v>3</v>
       </c>
       <c r="H10" s="48"/>
-      <c r="I10" s="45"/>
-      <c r="K10" s="39" t="s">
+      <c r="I10" s="32"/>
+      <c r="K10" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="37">
+      <c r="L10" s="44">
         <v>21</v>
       </c>
-      <c r="M10" s="45"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="54"/>
+      <c r="M10" s="32"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="56"/>
       <c r="F11" s="17" t="s">
         <v>24</v>
       </c>
@@ -1389,31 +1388,31 @@
         <v>7</v>
       </c>
       <c r="H11" s="49"/>
-      <c r="I11" s="45"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="45"/>
-    </row>
-    <row r="12" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
+      <c r="I11" s="32"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="32"/>
+    </row>
+    <row r="12" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="50" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="51"/>
       <c r="C12" s="52"/>
-      <c r="D12" s="54"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="45"/>
-      <c r="K12" s="35" t="s">
+      <c r="D12" s="56"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="32"/>
+      <c r="K12" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="37">
+      <c r="L12" s="44">
         <v>0</v>
       </c>
-      <c r="M12" s="45"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" thickBot="1">
+      <c r="M12" s="32"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>12</v>
       </c>
@@ -1424,18 +1423,18 @@
         <f>SUM(B13:B17)</f>
         <v>65</v>
       </c>
-      <c r="D13" s="54"/>
+      <c r="D13" s="56"/>
       <c r="F13" s="50" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="51"/>
       <c r="H13" s="52"/>
-      <c r="I13" s="45"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="45"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" thickBot="1">
+      <c r="I13" s="32"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="32"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
@@ -1443,7 +1442,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="59"/>
-      <c r="D14" s="54"/>
+      <c r="D14" s="56"/>
       <c r="F14" s="20" t="s">
         <v>13</v>
       </c>
@@ -1454,12 +1453,12 @@
         <f>SUM(G14:G19)</f>
         <v>18</v>
       </c>
-      <c r="I14" s="45"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="45"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1">
+      <c r="I14" s="32"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="32"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>17</v>
       </c>
@@ -1467,7 +1466,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="59"/>
-      <c r="D15" s="54"/>
+      <c r="D15" s="56"/>
       <c r="F15" s="8" t="s">
         <v>15</v>
       </c>
@@ -1475,16 +1474,16 @@
         <v>1</v>
       </c>
       <c r="H15" s="48"/>
-      <c r="I15" s="45"/>
-      <c r="K15" s="47" t="s">
+      <c r="I15" s="32"/>
+      <c r="K15" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="42">
+      <c r="L15" s="38">
         <v>59</v>
       </c>
-      <c r="M15" s="45"/>
-    </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" thickBot="1">
+      <c r="M15" s="32"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>19</v>
       </c>
@@ -1492,7 +1491,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="59"/>
-      <c r="D16" s="54"/>
+      <c r="D16" s="56"/>
       <c r="F16" s="7" t="s">
         <v>18</v>
       </c>
@@ -1500,20 +1499,20 @@
         <v>2</v>
       </c>
       <c r="H16" s="48"/>
-      <c r="I16" s="45"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="45"/>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
+      <c r="I16" s="32"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="32"/>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="10">
         <v>29</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="54"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="56"/>
       <c r="F17" s="8" t="s">
         <v>20</v>
       </c>
@@ -1521,20 +1520,20 @@
         <v>2</v>
       </c>
       <c r="H17" s="48"/>
-      <c r="I17" s="45"/>
-      <c r="K17" s="40" t="s">
+      <c r="I17" s="32"/>
+      <c r="K17" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="L17" s="42">
+      <c r="L17" s="38">
         <v>58</v>
       </c>
-      <c r="M17" s="45"/>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="54"/>
+      <c r="M17" s="32"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="56"/>
       <c r="F18" s="7" t="s">
         <v>22</v>
       </c>
@@ -1542,18 +1541,18 @@
         <v>2</v>
       </c>
       <c r="H18" s="48"/>
-      <c r="I18" s="45"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="46"/>
-    </row>
-    <row r="19" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
+      <c r="I18" s="32"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="33"/>
+    </row>
+    <row r="19" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="51"/>
       <c r="C19" s="52"/>
-      <c r="D19" s="54"/>
+      <c r="D19" s="56"/>
       <c r="F19" s="17" t="s">
         <v>24</v>
       </c>
@@ -1561,12 +1560,12 @@
         <v>11</v>
       </c>
       <c r="H19" s="49"/>
-      <c r="I19" s="45"/>
+      <c r="I19" s="32"/>
       <c r="K19" s="15"/>
       <c r="L19" s="16"/>
       <c r="M19" s="28"/>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" thickBot="1">
+    <row r="20" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>12</v>
       </c>
@@ -1577,14 +1576,14 @@
         <f>SUM(B20:B24)</f>
         <v>52</v>
       </c>
-      <c r="D20" s="54"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="45"/>
+      <c r="D20" s="56"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="32"/>
       <c r="M20" s="28"/>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" thickBot="1">
+    <row r="21" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>14</v>
       </c>
@@ -1592,16 +1591,16 @@
         <v>7</v>
       </c>
       <c r="C21" s="59"/>
-      <c r="D21" s="54"/>
+      <c r="D21" s="56"/>
       <c r="F21" s="50" t="s">
         <v>30</v>
       </c>
       <c r="G21" s="51"/>
       <c r="H21" s="52"/>
-      <c r="I21" s="45"/>
+      <c r="I21" s="32"/>
       <c r="M21" s="28"/>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1">
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>17</v>
       </c>
@@ -1609,7 +1608,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="59"/>
-      <c r="D22" s="54"/>
+      <c r="D22" s="56"/>
       <c r="F22" s="20" t="s">
         <v>13</v>
       </c>
@@ -1620,12 +1619,12 @@
         <f>SUM(G22:G27)</f>
         <v>15</v>
       </c>
-      <c r="I22" s="45"/>
+      <c r="I22" s="32"/>
       <c r="K22" s="15"/>
       <c r="L22" s="16"/>
       <c r="M22" s="28"/>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>19</v>
       </c>
@@ -1633,7 +1632,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="59"/>
-      <c r="D23" s="54"/>
+      <c r="D23" s="56"/>
       <c r="F23" s="8" t="s">
         <v>15</v>
       </c>
@@ -1641,20 +1640,20 @@
         <v>2</v>
       </c>
       <c r="H23" s="48"/>
-      <c r="I23" s="45"/>
+      <c r="I23" s="32"/>
       <c r="K23" s="15"/>
       <c r="L23" s="16"/>
       <c r="M23" s="28"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="10">
         <v>22</v>
       </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="55"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="57"/>
       <c r="F24" s="7" t="s">
         <v>18</v>
       </c>
@@ -1662,12 +1661,12 @@
         <v>4</v>
       </c>
       <c r="H24" s="48"/>
-      <c r="I24" s="45"/>
+      <c r="I24" s="32"/>
       <c r="K24" s="15"/>
       <c r="L24" s="16"/>
       <c r="M24" s="28"/>
     </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1">
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="8" t="s">
         <v>20</v>
       </c>
@@ -1675,12 +1674,12 @@
         <v>0</v>
       </c>
       <c r="H25" s="48"/>
-      <c r="I25" s="45"/>
+      <c r="I25" s="32"/>
       <c r="K25" s="15"/>
       <c r="L25" s="16"/>
       <c r="M25" s="28"/>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1">
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="7" t="s">
         <v>22</v>
       </c>
@@ -1688,12 +1687,12 @@
         <v>2</v>
       </c>
       <c r="H26" s="48"/>
-      <c r="I26" s="45"/>
+      <c r="I26" s="32"/>
       <c r="K26" s="15"/>
       <c r="L26" s="16"/>
       <c r="M26" s="28"/>
     </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F27" s="17" t="s">
         <v>24</v>
       </c>
@@ -1701,19 +1700,19 @@
         <v>5</v>
       </c>
       <c r="H27" s="49"/>
-      <c r="I27" s="45"/>
+      <c r="I27" s="32"/>
       <c r="K27" s="15"/>
       <c r="L27" s="16"/>
       <c r="M27" s="28"/>
     </row>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="45"/>
+    <row r="28" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="32"/>
       <c r="M28" s="28"/>
     </row>
-    <row r="29" spans="1:13" ht="29.25" customHeight="1" thickBot="1">
+    <row r="29" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F29" s="30" t="s">
         <v>31</v>
       </c>
@@ -1724,18 +1723,18 @@
         <f>SUM(G29)</f>
         <v>14</v>
       </c>
-      <c r="I29" s="46"/>
+      <c r="I29" s="33"/>
       <c r="K29" s="15"/>
       <c r="L29" s="24"/>
       <c r="M29" s="28"/>
     </row>
-    <row r="30" spans="1:13" ht="18.75">
+    <row r="30" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
         <v>33</v>
       </c>
@@ -1744,7 +1743,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>9</v>
       </c>
@@ -1753,7 +1752,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
         <v>25</v>
       </c>
@@ -1762,7 +1761,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>29</v>
       </c>
@@ -1771,7 +1770,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="23" t="s">
         <v>34</v>
       </c>
@@ -1780,11 +1779,11 @@
         <v>165</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" thickBot="1">
+    <row r="36" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="11"/>
     </row>
-    <row r="37" spans="1:2" ht="29.25" thickBot="1">
+    <row r="37" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="27">
         <f>SUM(B31:B35)</f>
         <v>451</v>
@@ -1792,13 +1791,19 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="M3:M18"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D3:D24"/>
+    <mergeCell ref="H6:H11"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A19:C19"/>
     <mergeCell ref="F28:H28"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="K7:K8"/>
@@ -1815,20 +1820,14 @@
     <mergeCell ref="I3:I29"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="F12:H12"/>
+    <mergeCell ref="M3:M18"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
     <mergeCell ref="K4:L4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D3:D24"/>
-    <mergeCell ref="H6:H11"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A19:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/docs/comp_student_numbers_2022.xlsx
+++ b/docs/comp_student_numbers_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssu-my.sharepoint.com/personal/martin_reid_solent_ac_uk/Documents/solent_store/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{2550F169-BEF9-40D9-8733-B8C7482F9540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B3198F2-29A4-A145-9A7A-21EA72707CF2}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{2550F169-BEF9-40D9-8733-B8C7482F9540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A98AA25F-21BA-4644-9BC1-7E6A32E6D50D}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{145B23FD-6B6F-4D33-A52C-2CE972592F2A}"/>
+    <workbookView xWindow="140" yWindow="600" windowWidth="51200" windowHeight="28340" xr2:uid="{145B23FD-6B6F-4D33-A52C-2CE972592F2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Comp_student Numbers_Oct 2022" sheetId="6" r:id="rId1"/>
@@ -147,7 +147,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,8 +206,16 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <u/>
-      <sz val="22"/>
+      <sz val="36"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -215,8 +223,9 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -642,7 +651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -712,9 +721,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -722,13 +728,43 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
@@ -737,76 +773,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1126,7 +1141,7 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1194,7 +1209,7 @@
         <f>SUM(B3)</f>
         <v>26</v>
       </c>
-      <c r="D3" s="55">
+      <c r="D3" s="32">
         <f>SUM(C3+C6+C13+C20)</f>
         <v>219</v>
       </c>
@@ -1208,7 +1223,7 @@
         <f>SUM(G3)</f>
         <v>9</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="53">
         <f>SUM(H3+H6+H14+H22+H29)</f>
         <v>67</v>
       </c>
@@ -1218,44 +1233,44 @@
       <c r="L3" s="5">
         <v>11</v>
       </c>
-      <c r="M3" s="31">
+      <c r="M3" s="53">
         <f>SUM(L3+L5+L7+L10+L12+L15+L17)</f>
         <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="56"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="32"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="32"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="33"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="54"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="54"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="56"/>
-      <c r="F5" s="50" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="33"/>
+      <c r="F5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="51"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="32"/>
-      <c r="K5" s="36" t="s">
+      <c r="G5" s="38"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="54"/>
+      <c r="K5" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="38">
+      <c r="L5" s="52">
         <v>16</v>
       </c>
-      <c r="M5" s="32"/>
+      <c r="M5" s="54"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
@@ -1264,25 +1279,25 @@
       <c r="B6" s="21">
         <v>18</v>
       </c>
-      <c r="C6" s="58">
+      <c r="C6" s="40">
         <f>SUM(B6:B10)</f>
         <v>76</v>
       </c>
-      <c r="D6" s="56"/>
+      <c r="D6" s="33"/>
       <c r="F6" s="20" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="21">
         <v>0</v>
       </c>
-      <c r="H6" s="48">
+      <c r="H6" s="35">
         <f>SUM(G6:G11)</f>
         <v>11</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="32"/>
+      <c r="I6" s="54"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="54"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
@@ -1291,23 +1306,23 @@
       <c r="B7" s="4">
         <v>13</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="56"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="33"/>
       <c r="F7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="32"/>
-      <c r="K7" s="42" t="s">
+      <c r="H7" s="35"/>
+      <c r="I7" s="54"/>
+      <c r="K7" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="44">
+      <c r="L7" s="47">
         <v>0</v>
       </c>
-      <c r="M7" s="32"/>
+      <c r="M7" s="54"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -1316,19 +1331,19 @@
       <c r="B8" s="6">
         <v>31</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="56"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="33"/>
       <c r="F8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="6">
         <v>1</v>
       </c>
-      <c r="H8" s="48"/>
-      <c r="I8" s="32"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="32"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="54"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="54"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -1337,19 +1352,19 @@
       <c r="B9" s="4">
         <v>0</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="56"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="33"/>
       <c r="F9" s="8" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
       </c>
-      <c r="H9" s="48"/>
-      <c r="I9" s="32"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="32"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="54"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="54"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -1358,59 +1373,59 @@
       <c r="B10" s="10">
         <v>14</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="56"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="33"/>
       <c r="F10" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G10" s="6">
         <v>3</v>
       </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="32"/>
-      <c r="K10" s="46" t="s">
+      <c r="H10" s="35"/>
+      <c r="I10" s="54"/>
+      <c r="K10" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="44">
+      <c r="L10" s="47">
         <v>21</v>
       </c>
-      <c r="M10" s="32"/>
+      <c r="M10" s="54"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="56"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="33"/>
       <c r="F11" s="17" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="18">
         <v>7</v>
       </c>
-      <c r="H11" s="49"/>
-      <c r="I11" s="32"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="32"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="54"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="54"/>
     </row>
     <row r="12" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="56"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="32"/>
-      <c r="K12" s="42" t="s">
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="33"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="54"/>
+      <c r="K12" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="44">
+      <c r="L12" s="47">
         <v>0</v>
       </c>
-      <c r="M12" s="32"/>
+      <c r="M12" s="54"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
@@ -1419,20 +1434,20 @@
       <c r="B13" s="21">
         <v>11</v>
       </c>
-      <c r="C13" s="58">
+      <c r="C13" s="40">
         <f>SUM(B13:B17)</f>
         <v>65</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="F13" s="50" t="s">
+      <c r="D13" s="33"/>
+      <c r="F13" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="51"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="32"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="32"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="54"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="54"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
@@ -1441,22 +1456,22 @@
       <c r="B14" s="4">
         <v>9</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="56"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="33"/>
       <c r="F14" s="20" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="21">
         <v>0</v>
       </c>
-      <c r="H14" s="48">
+      <c r="H14" s="35">
         <f>SUM(G14:G19)</f>
         <v>18</v>
       </c>
-      <c r="I14" s="32"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="32"/>
+      <c r="I14" s="54"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="54"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
@@ -1465,23 +1480,23 @@
       <c r="B15" s="6">
         <v>11</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="56"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="33"/>
       <c r="F15" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="4">
         <v>1</v>
       </c>
-      <c r="H15" s="48"/>
-      <c r="I15" s="32"/>
-      <c r="K15" s="36" t="s">
+      <c r="H15" s="35"/>
+      <c r="I15" s="54"/>
+      <c r="K15" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="38">
+      <c r="L15" s="52">
         <v>59</v>
       </c>
-      <c r="M15" s="32"/>
+      <c r="M15" s="54"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
@@ -1490,19 +1505,19 @@
       <c r="B16" s="4">
         <v>5</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="56"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="33"/>
       <c r="F16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="6">
         <v>2</v>
       </c>
-      <c r="H16" s="48"/>
-      <c r="I16" s="32"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="32"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="54"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="54"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
@@ -1511,59 +1526,59 @@
       <c r="B17" s="10">
         <v>29</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="56"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="33"/>
       <c r="F17" s="8" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="4">
         <v>2</v>
       </c>
-      <c r="H17" s="48"/>
-      <c r="I17" s="32"/>
-      <c r="K17" s="47" t="s">
+      <c r="H17" s="35"/>
+      <c r="I17" s="54"/>
+      <c r="K17" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="L17" s="38">
+      <c r="L17" s="52">
         <v>58</v>
       </c>
-      <c r="M17" s="32"/>
+      <c r="M17" s="54"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="56"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="33"/>
       <c r="F18" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="6">
         <v>2</v>
       </c>
-      <c r="H18" s="48"/>
-      <c r="I18" s="32"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="33"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="54"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="55"/>
     </row>
     <row r="19" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="56"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="33"/>
       <c r="F19" s="17" t="s">
         <v>24</v>
       </c>
       <c r="G19" s="18">
         <v>11</v>
       </c>
-      <c r="H19" s="49"/>
-      <c r="I19" s="32"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="54"/>
       <c r="K19" s="15"/>
       <c r="L19" s="16"/>
-      <c r="M19" s="28"/>
+      <c r="M19" s="27"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
@@ -1572,16 +1587,16 @@
       <c r="B20" s="21">
         <v>12</v>
       </c>
-      <c r="C20" s="58">
+      <c r="C20" s="40">
         <f>SUM(B20:B24)</f>
         <v>52</v>
       </c>
-      <c r="D20" s="56"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="32"/>
-      <c r="M20" s="28"/>
+      <c r="D20" s="33"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="54"/>
+      <c r="M20" s="27"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
@@ -1590,15 +1605,16 @@
       <c r="B21" s="4">
         <v>7</v>
       </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="56"/>
-      <c r="F21" s="50" t="s">
+      <c r="C21" s="41"/>
+      <c r="D21" s="33"/>
+      <c r="F21" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="51"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="32"/>
-      <c r="M21" s="28"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="54"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
@@ -1607,22 +1623,22 @@
       <c r="B22" s="6">
         <v>4</v>
       </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="56"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="33"/>
       <c r="F22" s="20" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="21">
         <v>2</v>
       </c>
-      <c r="H22" s="48">
+      <c r="H22" s="35">
         <f>SUM(G22:G27)</f>
         <v>15</v>
       </c>
-      <c r="I22" s="32"/>
+      <c r="I22" s="54"/>
       <c r="K22" s="15"/>
       <c r="L22" s="16"/>
-      <c r="M22" s="28"/>
+      <c r="M22" s="27"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
@@ -1631,19 +1647,19 @@
       <c r="B23" s="4">
         <v>7</v>
       </c>
-      <c r="C23" s="59"/>
-      <c r="D23" s="56"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="33"/>
       <c r="F23" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="4">
         <v>2</v>
       </c>
-      <c r="H23" s="48"/>
-      <c r="I23" s="32"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="54"/>
       <c r="K23" s="15"/>
       <c r="L23" s="16"/>
-      <c r="M23" s="28"/>
+      <c r="M23" s="27"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
@@ -1652,19 +1668,19 @@
       <c r="B24" s="10">
         <v>22</v>
       </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="57"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="34"/>
       <c r="F24" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G24" s="6">
         <v>4</v>
       </c>
-      <c r="H24" s="48"/>
-      <c r="I24" s="32"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="54"/>
       <c r="K24" s="15"/>
       <c r="L24" s="16"/>
-      <c r="M24" s="28"/>
+      <c r="M24" s="27"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="8" t="s">
@@ -1673,11 +1689,11 @@
       <c r="G25" s="4">
         <v>0</v>
       </c>
-      <c r="H25" s="48"/>
-      <c r="I25" s="32"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="54"/>
       <c r="K25" s="15"/>
       <c r="L25" s="16"/>
-      <c r="M25" s="28"/>
+      <c r="M25" s="27"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="7" t="s">
@@ -1686,11 +1702,11 @@
       <c r="G26" s="6">
         <v>2</v>
       </c>
-      <c r="H26" s="48"/>
-      <c r="I26" s="32"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="54"/>
       <c r="K26" s="15"/>
       <c r="L26" s="16"/>
-      <c r="M26" s="28"/>
+      <c r="M26" s="27"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F27" s="17" t="s">
@@ -1699,21 +1715,21 @@
       <c r="G27" s="18">
         <v>5</v>
       </c>
-      <c r="H27" s="49"/>
-      <c r="I27" s="32"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="54"/>
       <c r="K27" s="15"/>
       <c r="L27" s="16"/>
-      <c r="M27" s="28"/>
+      <c r="M27" s="27"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="32"/>
-      <c r="M28" s="28"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="54"/>
+      <c r="M28" s="27"/>
     </row>
     <row r="29" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F29" s="30" t="s">
+      <c r="F29" s="29" t="s">
         <v>31</v>
       </c>
       <c r="G29" s="12">
@@ -1723,13 +1739,13 @@
         <f>SUM(G29)</f>
         <v>14</v>
       </c>
-      <c r="I29" s="33"/>
+      <c r="I29" s="55"/>
       <c r="K29" s="15"/>
       <c r="L29" s="24"/>
-      <c r="M29" s="28"/>
+      <c r="M29" s="27"/>
     </row>
     <row r="30" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="28" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="3"/>
@@ -1780,30 +1796,28 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
+      <c r="A36" s="11"/>
       <c r="B36" s="11"/>
     </row>
-    <row r="37" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="27">
+    <row r="37" spans="1:2" ht="62" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="59">
         <f>SUM(B31:B35)</f>
         <v>451</v>
       </c>
+      <c r="B37" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D3:D24"/>
-    <mergeCell ref="H6:H11"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A19:C19"/>
+  <mergeCells count="39">
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="M3:M18"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="K4:L4"/>
     <mergeCell ref="F28:H28"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="K7:K8"/>
@@ -1820,14 +1834,19 @@
     <mergeCell ref="I3:I29"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="F12:H12"/>
-    <mergeCell ref="M3:M18"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D3:D24"/>
+    <mergeCell ref="H6:H11"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A19:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/docs/comp_student_numbers_2022.xlsx
+++ b/docs/comp_student_numbers_2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25825"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssu-my.sharepoint.com/personal/martin_reid_solent_ac_uk/Documents/solent_store/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{2550F169-BEF9-40D9-8733-B8C7482F9540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A98AA25F-21BA-4644-9BC1-7E6A32E6D50D}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="8_{2550F169-BEF9-40D9-8733-B8C7482F9540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CD23610-F066-46FF-B6D1-0E2CF348DB01}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="600" windowWidth="51200" windowHeight="28340" xr2:uid="{145B23FD-6B6F-4D33-A52C-2CE972592F2A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
     <t>Under Grads</t>
   </si>
@@ -98,27 +98,27 @@
     <t>BSc Digital Design &amp; Web</t>
   </si>
   <si>
-    <t xml:space="preserve">IT Consultant </t>
+    <t>Network</t>
   </si>
   <si>
     <t>BSc Soft Eng</t>
   </si>
   <si>
-    <t>Network</t>
+    <t>Soft Eng</t>
   </si>
   <si>
     <t>MSc Cyber Security Engineering (Sept 22)</t>
   </si>
   <si>
-    <t>Soft Eng</t>
-  </si>
-  <si>
     <t>Level 5</t>
   </si>
   <si>
     <t>Level 5 - BDATS</t>
   </si>
   <si>
+    <t>IT Consultant (RO)</t>
+  </si>
+  <si>
     <t>MAIDS (Sept 22)</t>
   </si>
   <si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Level 6 - BDATS</t>
+  </si>
+  <si>
+    <t>Business Analyst (RO)</t>
   </si>
   <si>
     <t>EPA</t>
@@ -147,7 +150,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,7 +272,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -366,19 +369,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -638,6 +628,249 @@
       <left/>
       <right style="medium">
         <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
@@ -651,7 +884,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -669,50 +902,49 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -725,15 +957,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -743,86 +972,179 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1141,26 +1463,26 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="11" max="11" width="36.1640625" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" customWidth="1"/>
-    <col min="13" max="13" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="36.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:13" ht="32.25" customHeight="1">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1172,7 +1494,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1184,7 +1506,7 @@
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1194,621 +1516,607 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="13"/>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+    <row r="2" spans="1:13">
+      <c r="C2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:13" ht="29.25" customHeight="1">
+      <c r="A3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>26</v>
       </c>
       <c r="C3" s="5">
         <f>SUM(B3)</f>
         <v>26</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="30">
         <f>SUM(C3+C6+C13+C20)</f>
         <v>219</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <v>9</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="18">
         <f>SUM(G3)</f>
         <v>9</v>
       </c>
-      <c r="I3" s="53">
-        <f>SUM(H3+H6+H14+H22+H29)</f>
+      <c r="I3" s="78">
+        <f>SUM(H3+H6+H13+H20+H27)</f>
         <v>67</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="21" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="5">
         <v>11</v>
       </c>
-      <c r="M3" s="53">
+      <c r="M3" s="41">
         <f>SUM(L3+L5+L7+L10+L12+L15+L17)</f>
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="33"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="54"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="54"/>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="31"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="79"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="42"/>
+    </row>
+    <row r="5" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A5" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="33"/>
-      <c r="F5" s="37" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="31"/>
+      <c r="F5" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="54"/>
-      <c r="K5" s="58" t="s">
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="79"/>
+      <c r="K5" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="52">
+      <c r="L5" s="50">
         <v>16</v>
       </c>
-      <c r="M5" s="54"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="M5" s="42"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1">
+      <c r="A6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="20">
         <v>18</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="38">
         <f>SUM(B6:B10)</f>
         <v>76</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="F6" s="20" t="s">
+      <c r="D6" s="31"/>
+      <c r="F6" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="66">
         <v>0</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="81">
         <f>SUM(G6:G11)</f>
         <v>11</v>
       </c>
-      <c r="I6" s="54"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="54"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I6" s="79"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="42"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <v>13</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="33"/>
-      <c r="F7" s="8" t="s">
+      <c r="C7" s="39"/>
+      <c r="D7" s="31"/>
+      <c r="F7" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="67">
         <v>0</v>
       </c>
-      <c r="H7" s="35"/>
-      <c r="I7" s="54"/>
-      <c r="K7" s="45" t="s">
+      <c r="H7" s="81"/>
+      <c r="I7" s="79"/>
+      <c r="K7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="47">
+      <c r="L7" s="46">
         <v>0</v>
       </c>
-      <c r="M7" s="54"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M7" s="42"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="6">
         <v>31</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="33"/>
-      <c r="F8" s="7" t="s">
+      <c r="C8" s="39"/>
+      <c r="D8" s="31"/>
+      <c r="F8" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="66">
         <v>1</v>
       </c>
-      <c r="H8" s="35"/>
-      <c r="I8" s="54"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="54"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="81"/>
+      <c r="I8" s="79"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="42"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="33"/>
-      <c r="F9" s="8" t="s">
+      <c r="C9" s="39"/>
+      <c r="D9" s="31"/>
+      <c r="F9" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="35"/>
-      <c r="I9" s="54"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="54"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="67">
+        <v>3</v>
+      </c>
+      <c r="H9" s="81"/>
+      <c r="I9" s="79"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="42"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="10">
         <v>14</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="33"/>
-      <c r="F10" s="7" t="s">
+      <c r="C10" s="40"/>
+      <c r="D10" s="31"/>
+      <c r="F10" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="6">
-        <v>3</v>
-      </c>
-      <c r="H10" s="35"/>
-      <c r="I10" s="54"/>
-      <c r="K10" s="49" t="s">
+      <c r="G10" s="71">
+        <v>7</v>
+      </c>
+      <c r="H10" s="82"/>
+      <c r="I10" s="79"/>
+      <c r="K10" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="47">
+      <c r="L10" s="46">
         <v>21</v>
       </c>
-      <c r="M10" s="54"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="33"/>
-      <c r="F11" s="17" t="s">
+      <c r="M10" s="42"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="31"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="79"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="42"/>
+    </row>
+    <row r="12" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A12" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="18">
-        <v>7</v>
-      </c>
-      <c r="H11" s="36"/>
-      <c r="I11" s="54"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="54"/>
-    </row>
-    <row r="12" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="31"/>
+      <c r="F12" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="33"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="54"/>
-      <c r="K12" s="45" t="s">
+      <c r="G12" s="86"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="79"/>
+      <c r="K12" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="47">
+      <c r="L12" s="46">
         <v>0</v>
       </c>
-      <c r="M12" s="54"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="M12" s="42"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1">
+      <c r="A13" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="20">
         <v>11</v>
       </c>
-      <c r="C13" s="40">
+      <c r="C13" s="38">
         <f>SUM(B13:B17)</f>
         <v>65</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="F13" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="54"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="54"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="31"/>
+      <c r="F13" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="65">
+        <v>1</v>
+      </c>
+      <c r="H13" s="81">
+        <f>SUM(G13:G17)</f>
+        <v>18</v>
+      </c>
+      <c r="I13" s="79"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="42"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1">
       <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="4">
         <v>9</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="33"/>
-      <c r="F14" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="21">
-        <v>0</v>
-      </c>
-      <c r="H14" s="35">
-        <f>SUM(G14:G19)</f>
+      <c r="C14" s="39"/>
+      <c r="D14" s="31"/>
+      <c r="F14" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="54"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="54"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G14" s="64">
+        <v>2</v>
+      </c>
+      <c r="H14" s="81"/>
+      <c r="I14" s="79"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="42"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="6">
         <v>11</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="33"/>
-      <c r="F15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="4">
-        <v>1</v>
-      </c>
-      <c r="H15" s="35"/>
-      <c r="I15" s="54"/>
-      <c r="K15" s="58" t="s">
+      <c r="C15" s="39"/>
+      <c r="D15" s="31"/>
+      <c r="F15" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="65">
+        <v>2</v>
+      </c>
+      <c r="H15" s="81"/>
+      <c r="I15" s="79"/>
+      <c r="K15" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="52">
+      <c r="L15" s="50">
         <v>59</v>
       </c>
-      <c r="M15" s="54"/>
-    </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M15" s="42"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1">
       <c r="A16" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="4">
         <v>5</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="33"/>
-      <c r="F16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="6">
+      <c r="C16" s="39"/>
+      <c r="D16" s="31"/>
+      <c r="F16" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="64">
         <v>2</v>
       </c>
-      <c r="H16" s="35"/>
-      <c r="I16" s="54"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="54"/>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="81"/>
+      <c r="I16" s="79"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="42"/>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" customHeight="1">
       <c r="A17" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="10">
         <v>29</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="33"/>
-      <c r="F17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="4">
-        <v>2</v>
-      </c>
-      <c r="H17" s="35"/>
-      <c r="I17" s="54"/>
-      <c r="K17" s="50" t="s">
+      <c r="C17" s="40"/>
+      <c r="D17" s="31"/>
+      <c r="F17" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="73">
+        <v>11</v>
+      </c>
+      <c r="H17" s="82"/>
+      <c r="I17" s="79"/>
+      <c r="K17" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="L17" s="52">
+      <c r="L17" s="50">
         <v>58</v>
       </c>
-      <c r="M17" s="54"/>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="33"/>
-      <c r="F18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="6">
-        <v>2</v>
-      </c>
-      <c r="H18" s="35"/>
-      <c r="I18" s="54"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="55"/>
-    </row>
-    <row r="19" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="M17" s="42"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="31"/>
+      <c r="I18" s="79"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="43"/>
+    </row>
+    <row r="19" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A19" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="33"/>
-      <c r="F19" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="18">
-        <v>11</v>
-      </c>
-      <c r="H19" s="36"/>
-      <c r="I19" s="54"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="27"/>
-    </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="31"/>
+      <c r="F19" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="89"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="79"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="26"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1">
+      <c r="A20" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="20">
         <v>12</v>
       </c>
-      <c r="C20" s="40">
+      <c r="C20" s="38">
         <f>SUM(B20:B24)</f>
         <v>52</v>
       </c>
-      <c r="D20" s="33"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="54"/>
-      <c r="M20" s="27"/>
-    </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="31"/>
+      <c r="F20" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="20">
+        <v>2</v>
+      </c>
+      <c r="H20" s="83">
+        <f>SUM(G20:G25)</f>
+        <v>15</v>
+      </c>
+      <c r="I20" s="79"/>
+      <c r="M20" s="26"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" customHeight="1">
       <c r="A21" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="4">
         <v>7</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="33"/>
-      <c r="F21" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="38"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="54"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-    </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="39"/>
+      <c r="D21" s="31"/>
+      <c r="F21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="4">
+        <v>2</v>
+      </c>
+      <c r="H21" s="33"/>
+      <c r="I21" s="79"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+    </row>
+    <row r="22" spans="1:13" ht="15" customHeight="1">
       <c r="A22" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="6">
         <v>4</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="33"/>
-      <c r="F22" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="21">
-        <v>2</v>
-      </c>
-      <c r="H22" s="35">
-        <f>SUM(G22:G27)</f>
-        <v>15</v>
-      </c>
-      <c r="I22" s="54"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="27"/>
-    </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="39"/>
+      <c r="D22" s="31"/>
+      <c r="F22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="6">
+        <v>4</v>
+      </c>
+      <c r="H22" s="33"/>
+      <c r="I22" s="79"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="26"/>
+    </row>
+    <row r="23" spans="1:13" ht="15" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="4">
         <v>7</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="33"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="31"/>
       <c r="F23" s="8" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G23" s="4">
-        <v>2</v>
-      </c>
-      <c r="H23" s="35"/>
-      <c r="I23" s="54"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="27"/>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H23" s="33"/>
+      <c r="I23" s="79"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="26"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" customHeight="1">
       <c r="A24" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="10">
         <v>22</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="34"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="32"/>
       <c r="F24" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G24" s="6">
-        <v>4</v>
-      </c>
-      <c r="H24" s="35"/>
-      <c r="I24" s="54"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="27"/>
-    </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F25" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0</v>
-      </c>
-      <c r="H25" s="35"/>
-      <c r="I25" s="54"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="27"/>
-    </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F26" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="33"/>
+      <c r="I24" s="79"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="26"/>
+    </row>
+    <row r="25" spans="1:13" ht="15" customHeight="1">
+      <c r="F25" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="6">
-        <v>2</v>
-      </c>
-      <c r="H26" s="35"/>
-      <c r="I26" s="54"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="27"/>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F27" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="18">
+      <c r="G25" s="17">
         <v>5</v>
       </c>
-      <c r="H27" s="36"/>
-      <c r="I27" s="54"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="27"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="54"/>
-      <c r="M28" s="27"/>
-    </row>
-    <row r="29" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F29" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="12">
+      <c r="H25" s="34"/>
+      <c r="I25" s="79"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="26"/>
+    </row>
+    <row r="26" spans="1:13" ht="15" customHeight="1">
+      <c r="I26" s="79"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="26"/>
+    </row>
+    <row r="27" spans="1:13" ht="26.25" customHeight="1">
+      <c r="F27" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="76">
         <v>14</v>
       </c>
-      <c r="H29" s="5">
-        <f>SUM(G29)</f>
+      <c r="H27" s="84">
+        <f>SUM(G27)</f>
         <v>14</v>
       </c>
-      <c r="I29" s="55"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="27"/>
-    </row>
-    <row r="30" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="s">
+      <c r="I27" s="80"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="26"/>
+    </row>
+    <row r="28" spans="1:13" ht="18" customHeight="1">
+      <c r="A28" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B28" s="3"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="77"/>
+      <c r="M28" s="26"/>
+    </row>
+    <row r="29" spans="1:13" ht="18" customHeight="1">
+      <c r="A29" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="24">
         <f>SUM(C3)</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+      <c r="I29" s="77"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="26"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="26">
+      <c r="B30" s="25">
         <f>SUM(C6+H3+H6)</f>
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="25">
-        <f>SUM(C13+H14)</f>
+    <row r="31" spans="1:13">
+      <c r="A31" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="24">
+        <f>SUM(C13+H13)</f>
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+    <row r="32" spans="1:13">
+      <c r="A32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="26">
-        <f>SUM(C20+H22+H29)</f>
+      <c r="B32" s="25">
+        <f>SUM(C20+H20+H27)</f>
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="25">
+    <row r="33" spans="1:2">
+      <c r="A33" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="24">
         <f>SUM(M3)</f>
         <v>165</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-    </row>
-    <row r="37" spans="1:2" ht="62" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="59">
-        <f>SUM(B31:B35)</f>
+    <row r="34" spans="1:2" ht="46.5">
+      <c r="A34" s="51">
+        <f>SUM(B29:B33)</f>
         <v>451</v>
       </c>
-      <c r="B37" s="60"/>
-    </row>
+      <c r="B34" s="52"/>
+    </row>
+    <row r="37" spans="1:2" ht="62.1" customHeight="1"/>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="A37:B37"/>
+  <mergeCells count="37">
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="H6:H10"/>
+    <mergeCell ref="H13:H17"/>
+    <mergeCell ref="I3:I27"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="M3:M18"/>
     <mergeCell ref="K14:L14"/>
@@ -1819,28 +2127,16 @@
     <mergeCell ref="L15:L16"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="H14:H19"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="H22:H27"/>
-    <mergeCell ref="I3:I29"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="F4:H4"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="H20:H25"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="D3:D24"/>
-    <mergeCell ref="H6:H11"/>
-    <mergeCell ref="F13:H13"/>
     <mergeCell ref="C6:C10"/>
     <mergeCell ref="C13:C17"/>
     <mergeCell ref="C20:C24"/>

--- a/docs/comp_student_numbers_2022.xlsx
+++ b/docs/comp_student_numbers_2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25825"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssu-my.sharepoint.com/personal/martin_reid_solent_ac_uk/Documents/solent_store/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="8_{2550F169-BEF9-40D9-8733-B8C7482F9540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CD23610-F066-46FF-B6D1-0E2CF348DB01}"/>
+  <xr:revisionPtr revIDLastSave="250" documentId="8_{2550F169-BEF9-40D9-8733-B8C7482F9540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FAADF60-5E75-4508-B14D-499A1A5D5AC6}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="600" windowWidth="51200" windowHeight="28340" xr2:uid="{145B23FD-6B6F-4D33-A52C-2CE972592F2A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
   <si>
     <t>Under Grads</t>
   </si>
@@ -62,7 +62,7 @@
     <t>Level 4 - Data Analyst</t>
   </si>
   <si>
-    <t>MSc Digital Design (Sept 22)</t>
+    <t>MSc Digital Design (Sept 22 - sept 23)</t>
   </si>
   <si>
     <t>Level 4</t>
@@ -71,7 +71,7 @@
     <t>Level 4 - BDATS</t>
   </si>
   <si>
-    <t>MSc Computer Engineering (Sept 22)</t>
+    <t>MSc Computer Engineering (Sept 22 - Sept 23)</t>
   </si>
   <si>
     <t>BSc Computing</t>
@@ -86,7 +86,7 @@
     <t>Cyber</t>
   </si>
   <si>
-    <t>MSc Cyber Security Engineering (Jan 22)</t>
+    <t>MSc Cyber Security Engineering (Jan 22 - Jan 23)</t>
   </si>
   <si>
     <t>BSc Cyber</t>
@@ -107,7 +107,7 @@
     <t>Soft Eng</t>
   </si>
   <si>
-    <t>MSc Cyber Security Engineering (Sept 22)</t>
+    <t>MSc Cyber Security Engineering (Sept 22 -Sept 23)</t>
   </si>
   <si>
     <t>Level 5</t>
@@ -119,10 +119,10 @@
     <t>IT Consultant (RO)</t>
   </si>
   <si>
-    <t>MAIDS (Sept 22)</t>
-  </si>
-  <si>
-    <t>MAIDS (Jan 22)</t>
+    <t>MAIDS (Jan 22 - Jan 23)</t>
+  </si>
+  <si>
+    <t>MAIDS (Sept 22 - Sept 23)</t>
   </si>
   <si>
     <t>Level 6</t>
@@ -131,26 +131,38 @@
     <t>Level 6 - BDATS</t>
   </si>
   <si>
+    <t>MAIDS (Jan 23 - Jan 24) Guesstimate</t>
+  </si>
+  <si>
     <t>Business Analyst (RO)</t>
   </si>
   <si>
+    <t>Total Level</t>
+  </si>
+  <si>
+    <t>UG Course Totals</t>
+  </si>
+  <si>
     <t>EPA</t>
   </si>
   <si>
-    <t>Level Totals</t>
+    <t>All Level Totals</t>
   </si>
   <si>
     <t>Level 3</t>
   </si>
   <si>
     <t>Level 7</t>
+  </si>
+  <si>
+    <t>Guesstimate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,8 +245,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,8 +320,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="47">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -454,43 +515,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -588,28 +612,212 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,66 +825,200 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -689,34 +1031,15 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
@@ -726,10 +1049,23 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
@@ -739,144 +1075,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -884,7 +1103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -938,29 +1157,137 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -972,178 +1299,133 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1460,10 +1742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61D71A9-822A-40B0-B2DC-F9E13A183401}">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1476,7 +1758,7 @@
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="11" max="11" width="36.140625" customWidth="1"/>
+    <col min="11" max="11" width="43.85546875" customWidth="1"/>
     <col min="12" max="12" width="11.85546875" customWidth="1"/>
     <col min="13" max="13" width="14.42578125" customWidth="1"/>
   </cols>
@@ -1531,7 +1813,7 @@
         <f>SUM(B3)</f>
         <v>26</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="70">
         <f>SUM(C3+C6+C13+C20)</f>
         <v>219</v>
       </c>
@@ -1545,54 +1827,54 @@
         <f>SUM(G3)</f>
         <v>9</v>
       </c>
-      <c r="I3" s="78">
+      <c r="I3" s="106">
         <f>SUM(H3+H6+H13+H20+H27)</f>
         <v>67</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="45">
         <v>11</v>
       </c>
-      <c r="M3" s="41">
-        <f>SUM(L3+L5+L7+L10+L12+L15+L17)</f>
-        <v>165</v>
+      <c r="M3" s="58">
+        <f>SUM(L3+L5+L7+L10+L12)</f>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="31"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="79"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="42"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="71"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="59"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="59"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="31"/>
-      <c r="F5" s="62" t="s">
+      <c r="B5" s="77"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="71"/>
+      <c r="F5" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="79"/>
-      <c r="K5" s="56" t="s">
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="59"/>
+      <c r="K5" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="50">
+      <c r="L5" s="79">
         <v>16</v>
       </c>
-      <c r="M5" s="42"/>
+      <c r="M5" s="60"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1">
       <c r="A6" s="19" t="s">
@@ -1601,25 +1883,25 @@
       <c r="B6" s="20">
         <v>18</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="73">
         <f>SUM(B6:B10)</f>
         <v>76</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="F6" s="68" t="s">
+      <c r="D6" s="71"/>
+      <c r="F6" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="66">
+      <c r="G6" s="42">
         <v>0</v>
       </c>
-      <c r="H6" s="81">
+      <c r="H6" s="103">
         <f>SUM(G6:G11)</f>
         <v>11</v>
       </c>
-      <c r="I6" s="79"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="42"/>
+      <c r="I6" s="59"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="60"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1">
       <c r="A7" s="8" t="s">
@@ -1628,23 +1910,23 @@
       <c r="B7" s="4">
         <v>13</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="31"/>
-      <c r="F7" s="69" t="s">
+      <c r="C7" s="74"/>
+      <c r="D7" s="71"/>
+      <c r="F7" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="67">
+      <c r="G7" s="31">
         <v>0</v>
       </c>
-      <c r="H7" s="81"/>
-      <c r="I7" s="79"/>
-      <c r="K7" s="44" t="s">
+      <c r="H7" s="104"/>
+      <c r="I7" s="59"/>
+      <c r="K7" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="46">
-        <v>0</v>
-      </c>
-      <c r="M7" s="42"/>
+      <c r="L7" s="80">
+        <v>13</v>
+      </c>
+      <c r="M7" s="60"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1">
       <c r="A8" s="7" t="s">
@@ -1653,19 +1935,19 @@
       <c r="B8" s="6">
         <v>31</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="31"/>
-      <c r="F8" s="68" t="s">
+      <c r="C8" s="74"/>
+      <c r="D8" s="71"/>
+      <c r="F8" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="66">
+      <c r="G8" s="30">
         <v>1</v>
       </c>
-      <c r="H8" s="81"/>
-      <c r="I8" s="79"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="42"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="59"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="60"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1">
       <c r="A9" s="8" t="s">
@@ -1674,19 +1956,19 @@
       <c r="B9" s="4">
         <v>0</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="31"/>
-      <c r="F9" s="69" t="s">
+      <c r="C9" s="74"/>
+      <c r="D9" s="71"/>
+      <c r="F9" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="67">
+      <c r="G9" s="31">
         <v>3</v>
       </c>
-      <c r="H9" s="81"/>
-      <c r="I9" s="79"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="42"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="59"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="59"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="9" t="s">
@@ -1695,57 +1977,57 @@
       <c r="B10" s="10">
         <v>14</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="31"/>
-      <c r="F10" s="70" t="s">
+      <c r="C10" s="75"/>
+      <c r="D10" s="71"/>
+      <c r="F10" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="71">
+      <c r="G10" s="35">
         <v>7</v>
       </c>
-      <c r="H10" s="82"/>
-      <c r="I10" s="79"/>
-      <c r="K10" s="57" t="s">
+      <c r="H10" s="105"/>
+      <c r="I10" s="59"/>
+      <c r="K10" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="46">
-        <v>21</v>
-      </c>
-      <c r="M10" s="42"/>
+      <c r="L10" s="79">
+        <v>19</v>
+      </c>
+      <c r="M10" s="60"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="31"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="79"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="42"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="71"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="59"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="60"/>
     </row>
     <row r="12" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="31"/>
-      <c r="F12" s="85" t="s">
+      <c r="B12" s="77"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="71"/>
+      <c r="F12" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="86"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="79"/>
-      <c r="K12" s="44" t="s">
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="59"/>
+      <c r="K12" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="46">
+      <c r="L12" s="80">
         <v>0</v>
       </c>
-      <c r="M12" s="42"/>
+      <c r="M12" s="60"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1">
       <c r="A13" s="19" t="s">
@@ -1754,25 +2036,25 @@
       <c r="B13" s="20">
         <v>11</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="73">
         <f>SUM(B13:B17)</f>
         <v>65</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="F13" s="69" t="s">
+      <c r="D13" s="71"/>
+      <c r="F13" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="65">
+      <c r="G13" s="29">
         <v>1</v>
       </c>
-      <c r="H13" s="81">
+      <c r="H13" s="104">
         <f>SUM(G13:G17)</f>
         <v>18</v>
       </c>
-      <c r="I13" s="79"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="42"/>
+      <c r="I13" s="59"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="61"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1">
       <c r="A14" s="8" t="s">
@@ -1781,19 +2063,19 @@
       <c r="B14" s="4">
         <v>9</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="31"/>
-      <c r="F14" s="68" t="s">
+      <c r="C14" s="74"/>
+      <c r="D14" s="71"/>
+      <c r="F14" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="64">
+      <c r="G14" s="28">
         <v>2</v>
       </c>
-      <c r="H14" s="81"/>
-      <c r="I14" s="79"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="42"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="59"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="43"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1">
       <c r="A15" s="7" t="s">
@@ -1802,23 +2084,26 @@
       <c r="B15" s="6">
         <v>11</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="31"/>
-      <c r="F15" s="69" t="s">
+      <c r="C15" s="74"/>
+      <c r="D15" s="71"/>
+      <c r="F15" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="65">
+      <c r="G15" s="29">
         <v>2</v>
       </c>
-      <c r="H15" s="81"/>
-      <c r="I15" s="79"/>
-      <c r="K15" s="56" t="s">
+      <c r="H15" s="104"/>
+      <c r="I15" s="59"/>
+      <c r="K15" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="50">
-        <v>59</v>
-      </c>
-      <c r="M15" s="42"/>
+      <c r="L15" s="112">
+        <v>58</v>
+      </c>
+      <c r="M15" s="58">
+        <f>SUM(L15:L20)</f>
+        <v>230</v>
+      </c>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1">
       <c r="A16" s="8" t="s">
@@ -1827,19 +2112,19 @@
       <c r="B16" s="4">
         <v>5</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="31"/>
-      <c r="F16" s="68" t="s">
+      <c r="C16" s="74"/>
+      <c r="D16" s="71"/>
+      <c r="F16" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="64">
+      <c r="G16" s="28">
         <v>2</v>
       </c>
-      <c r="H16" s="81"/>
-      <c r="I16" s="79"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="42"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="59"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="60"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1">
       <c r="A17" s="9" t="s">
@@ -1848,50 +2133,54 @@
       <c r="B17" s="10">
         <v>29</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="31"/>
-      <c r="F17" s="72" t="s">
+      <c r="C17" s="75"/>
+      <c r="D17" s="71"/>
+      <c r="F17" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="73">
+      <c r="G17" s="37">
         <v>11</v>
       </c>
-      <c r="H17" s="82"/>
-      <c r="I17" s="79"/>
-      <c r="K17" s="48" t="s">
+      <c r="H17" s="105"/>
+      <c r="I17" s="59"/>
+      <c r="K17" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="L17" s="50">
-        <v>58</v>
-      </c>
-      <c r="M17" s="42"/>
+      <c r="L17" s="80">
+        <v>60</v>
+      </c>
+      <c r="M17" s="60"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="31"/>
-      <c r="I18" s="79"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="43"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="71"/>
+      <c r="I18" s="59"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="60"/>
     </row>
     <row r="19" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="31"/>
-      <c r="F19" s="88" t="s">
+      <c r="B19" s="77"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="71"/>
+      <c r="F19" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="89"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="79"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="26"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="59"/>
+      <c r="K19" s="95" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="97">
+        <v>112</v>
+      </c>
+      <c r="M19" s="60"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1">
       <c r="A20" s="19" t="s">
@@ -1900,23 +2189,25 @@
       <c r="B20" s="20">
         <v>12</v>
       </c>
-      <c r="C20" s="38">
+      <c r="C20" s="73">
         <f>SUM(B20:B24)</f>
         <v>52</v>
       </c>
-      <c r="D20" s="31"/>
+      <c r="D20" s="71"/>
       <c r="F20" s="19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G20" s="20">
         <v>2</v>
       </c>
-      <c r="H20" s="83">
+      <c r="H20" s="92">
         <f>SUM(G20:G25)</f>
         <v>15</v>
       </c>
-      <c r="I20" s="79"/>
-      <c r="M20" s="26"/>
+      <c r="I20" s="59"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="98"/>
+      <c r="M20" s="61"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1">
       <c r="A21" s="8" t="s">
@@ -1925,18 +2216,18 @@
       <c r="B21" s="4">
         <v>7</v>
       </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="31"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="71"/>
       <c r="F21" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="4">
         <v>2</v>
       </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="79"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="59"/>
+      <c r="L21" s="111"/>
+      <c r="M21" s="111"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1">
       <c r="A22" s="7" t="s">
@@ -1945,19 +2236,24 @@
       <c r="B22" s="6">
         <v>4</v>
       </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="31"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="71"/>
       <c r="F22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G22" s="6">
         <v>4</v>
       </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="79"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="26"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="59"/>
+      <c r="K22" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="65"/>
+      <c r="M22" s="62">
+        <f>SUM(M3:M20)</f>
+        <v>289</v>
+      </c>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1">
       <c r="A23" s="8" t="s">
@@ -1966,19 +2262,19 @@
       <c r="B23" s="4">
         <v>7</v>
       </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="31"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="71"/>
       <c r="F23" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G23" s="4">
         <v>0</v>
       </c>
-      <c r="H23" s="33"/>
-      <c r="I23" s="79"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="26"/>
+      <c r="H23" s="93"/>
+      <c r="I23" s="59"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="63"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1">
       <c r="A24" s="9" t="s">
@@ -1987,19 +2283,19 @@
       <c r="B24" s="10">
         <v>22</v>
       </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="32"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="72"/>
       <c r="F24" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G24" s="6">
         <v>2</v>
       </c>
-      <c r="H24" s="33"/>
-      <c r="I24" s="79"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="59"/>
       <c r="K24" s="14"/>
       <c r="L24" s="15"/>
-      <c r="M24" s="26"/>
+      <c r="M24" s="25"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1">
       <c r="F25" s="16" t="s">
@@ -2008,105 +2304,144 @@
       <c r="G25" s="17">
         <v>5</v>
       </c>
-      <c r="H25" s="34"/>
-      <c r="I25" s="79"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="59"/>
       <c r="K25" s="14"/>
       <c r="L25" s="15"/>
-      <c r="M25" s="26"/>
+      <c r="M25" s="25"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1">
-      <c r="I26" s="79"/>
+      <c r="I26" s="59"/>
       <c r="K26" s="14"/>
       <c r="L26" s="15"/>
-      <c r="M26" s="26"/>
+      <c r="M26" s="25"/>
     </row>
     <row r="27" spans="1:13" ht="26.25" customHeight="1">
-      <c r="F27" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="76">
+      <c r="A27" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="48"/>
+      <c r="F27" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="39">
         <v>14</v>
       </c>
-      <c r="H27" s="84">
+      <c r="H27" s="40">
         <f>SUM(G27)</f>
         <v>14</v>
       </c>
-      <c r="I27" s="80"/>
+      <c r="I27" s="107"/>
       <c r="K27" s="14"/>
       <c r="L27" s="15"/>
-      <c r="M27" s="26"/>
+      <c r="M27" s="25"/>
     </row>
     <row r="28" spans="1:13" ht="18" customHeight="1">
-      <c r="A28" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="77"/>
-      <c r="M28" s="26"/>
+      <c r="A28" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="57">
+        <f>SUM(B6+B13+B20)</f>
+        <v>41</v>
+      </c>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="25"/>
+      <c r="K28" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="L28" s="3"/>
     </row>
     <row r="29" spans="1:13" ht="18" customHeight="1">
-      <c r="A29" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="24">
+      <c r="A29" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="29">
+        <f>SUM(B7+B14+B21)</f>
+        <v>29</v>
+      </c>
+      <c r="I29" s="25"/>
+      <c r="K29" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="L29" s="23">
         <f>SUM(C3)</f>
         <v>26</v>
       </c>
-      <c r="I29" s="77"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="26"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="28">
+        <f>SUM(B8+B15+B22)</f>
+        <v>46</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="25">
+      <c r="L30" s="24">
         <f>SUM(C6+H3+H6)</f>
         <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="29">
+        <f>SUM(B16+B23)</f>
+        <v>12</v>
+      </c>
+      <c r="K31" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="24">
+      <c r="L31" s="46">
         <f>SUM(C13+H13)</f>
         <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="28">
+        <f>SUM(B10+B17+B24)</f>
+        <v>65</v>
+      </c>
+      <c r="K32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="25">
+      <c r="L32" s="47">
         <f>SUM(C20+H20+H27)</f>
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="24">
-        <f>SUM(M3)</f>
-        <v>165</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="46.5">
-      <c r="A34" s="51">
-        <f>SUM(B29:B33)</f>
-        <v>451</v>
-      </c>
-      <c r="B34" s="52"/>
-    </row>
-    <row r="37" spans="1:2" ht="62.1" customHeight="1"/>
+    <row r="33" spans="11:14">
+      <c r="K33" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="L33" s="51">
+        <f>SUM(M22)</f>
+        <v>289</v>
+      </c>
+      <c r="M33" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="N33" s="49"/>
+    </row>
+    <row r="34" spans="11:14" ht="46.5">
+      <c r="K34" s="99">
+        <f>SUM(L29:L33)</f>
+        <v>575</v>
+      </c>
+      <c r="L34" s="100"/>
+    </row>
+    <row r="37" spans="11:14" ht="62.1" customHeight="1"/>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="A34:B34"/>
+  <mergeCells count="42">
+    <mergeCell ref="K34:L34"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="L10:L11"/>
@@ -2118,12 +2453,9 @@
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="L17:L18"/>
     <mergeCell ref="L21:M21"/>
-    <mergeCell ref="M3:M18"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="K15:K16"/>
     <mergeCell ref="L15:L16"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="F28:H28"/>
@@ -2133,6 +2465,12 @@
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="H20:H25"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M3:M13"/>
+    <mergeCell ref="M15:M20"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="K22:L23"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A18:C18"/>
@@ -2143,6 +2481,8 @@
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A19:C19"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="K15:K16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/docs/comp_student_numbers_2022.xlsx
+++ b/docs/comp_student_numbers_2022.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssu-my.sharepoint.com/personal/martin_reid_solent_ac_uk/Documents/solent_store/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="250" documentId="8_{2550F169-BEF9-40D9-8733-B8C7482F9540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FAADF60-5E75-4508-B14D-499A1A5D5AC6}"/>
+  <xr:revisionPtr revIDLastSave="371" documentId="8_{2550F169-BEF9-40D9-8733-B8C7482F9540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD0C8590-F0C3-48DE-B897-946677C84CCF}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="600" windowWidth="51200" windowHeight="28340" xr2:uid="{145B23FD-6B6F-4D33-A52C-2CE972592F2A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Comp_student Numbers_Oct 2022" sheetId="6" r:id="rId1"/>
+    <sheet name="Comp_student Numbers_Feb 2023" sheetId="6" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -131,7 +131,7 @@
     <t>Level 6 - BDATS</t>
   </si>
   <si>
-    <t>MAIDS (Jan 23 - Jan 24) Guesstimate</t>
+    <t xml:space="preserve">MAIDS (Jan 23 - Jan 24) </t>
   </si>
   <si>
     <t>Business Analyst (RO)</t>
@@ -146,6 +146,9 @@
     <t>EPA</t>
   </si>
   <si>
+    <t>Updated (15-2-23)</t>
+  </si>
+  <si>
     <t>All Level Totals</t>
   </si>
   <si>
@@ -153,16 +156,13 @@
   </si>
   <si>
     <t>Level 7</t>
-  </si>
-  <si>
-    <t>Guesstimate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,14 +276,33 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,8 +351,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="59">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -882,17 +907,153 @@
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -903,198 +1064,90 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -1103,7 +1156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1111,7 +1164,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1166,13 +1218,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1224,117 +1272,126 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1354,6 +1411,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1371,62 +1431,96 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1744,14 +1838,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61D71A9-822A-40B0-B2DC-F9E13A183401}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10:K11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29:M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
@@ -1764,7 +1858,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="32.25" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1776,7 +1870,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1788,7 +1882,7 @@
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="12" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1799,648 +1893,696 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="C2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="C2" s="11"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="11">
-        <v>26</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="10">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4">
         <f>SUM(B3)</f>
-        <v>26</v>
-      </c>
-      <c r="D3" s="70">
+        <v>25</v>
+      </c>
+      <c r="D3" s="115">
         <f>SUM(C3+C6+C13+C20)</f>
-        <v>219</v>
-      </c>
-      <c r="F3" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>9</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="17">
         <f>SUM(G3)</f>
         <v>9</v>
       </c>
-      <c r="I3" s="106">
+      <c r="I3" s="70">
         <f>SUM(H3+H6+H13+H20+H27)</f>
-        <v>67</v>
-      </c>
-      <c r="K3" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="40">
         <v>11</v>
       </c>
-      <c r="M3" s="58">
+      <c r="M3" s="104">
         <f>SUM(L3+L5+L7+L10+L12)</f>
         <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="71"/>
+      <c r="A4" s="113"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="116"/>
       <c r="F4" s="89"/>
       <c r="G4" s="89"/>
       <c r="H4" s="89"/>
-      <c r="I4" s="59"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="59"/>
+      <c r="I4" s="71"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="71"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="71"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="116"/>
       <c r="F5" s="85" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="86"/>
       <c r="H5" s="86"/>
-      <c r="I5" s="59"/>
-      <c r="K5" s="102" t="s">
+      <c r="I5" s="71"/>
+      <c r="K5" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="79">
-        <v>16</v>
-      </c>
-      <c r="M5" s="60"/>
+      <c r="L5" s="61">
+        <v>13</v>
+      </c>
+      <c r="M5" s="105"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="20">
-        <v>18</v>
-      </c>
-      <c r="C6" s="73">
+      <c r="B6" s="19">
+        <v>19</v>
+      </c>
+      <c r="C6" s="118">
         <f>SUM(B6:B10)</f>
-        <v>76</v>
-      </c>
-      <c r="D6" s="71"/>
-      <c r="F6" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="116"/>
+      <c r="F6" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="37">
         <v>0</v>
       </c>
-      <c r="H6" s="103">
+      <c r="H6" s="67">
         <f>SUM(G6:G11)</f>
         <v>11</v>
       </c>
-      <c r="I6" s="59"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="60"/>
+      <c r="I6" s="71"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="105"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4">
-        <v>13</v>
-      </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="71"/>
-      <c r="F7" s="33" t="s">
+      <c r="B7" s="3">
         <v>15</v>
       </c>
-      <c r="G7" s="31">
+      <c r="C7" s="119"/>
+      <c r="D7" s="116"/>
+      <c r="F7" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="26">
         <v>0</v>
       </c>
-      <c r="H7" s="104"/>
-      <c r="I7" s="59"/>
-      <c r="K7" s="114" t="s">
+      <c r="H7" s="68"/>
+      <c r="I7" s="71"/>
+      <c r="K7" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="80">
-        <v>13</v>
-      </c>
-      <c r="M7" s="60"/>
+      <c r="L7" s="61">
+        <v>16</v>
+      </c>
+      <c r="M7" s="105"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="6">
-        <v>31</v>
-      </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="71"/>
-      <c r="F8" s="32" t="s">
+      <c r="B8" s="5">
+        <v>28</v>
+      </c>
+      <c r="C8" s="119"/>
+      <c r="D8" s="116"/>
+      <c r="F8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="25">
         <v>1</v>
       </c>
-      <c r="H8" s="104"/>
-      <c r="I8" s="59"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="60"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="71"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="105"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>0</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="71"/>
-      <c r="F9" s="33" t="s">
+      <c r="C9" s="119"/>
+      <c r="D9" s="116"/>
+      <c r="F9" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="26">
         <v>3</v>
       </c>
-      <c r="H9" s="104"/>
-      <c r="I9" s="59"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="59"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="71"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="71"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="10">
-        <v>14</v>
-      </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="71"/>
-      <c r="F10" s="34" t="s">
+      <c r="B10" s="9">
+        <v>17</v>
+      </c>
+      <c r="C10" s="120"/>
+      <c r="D10" s="116"/>
+      <c r="F10" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="30">
         <v>7</v>
       </c>
-      <c r="H10" s="105"/>
-      <c r="I10" s="59"/>
-      <c r="K10" s="102" t="s">
+      <c r="H10" s="69"/>
+      <c r="I10" s="71"/>
+      <c r="K10" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="79">
+      <c r="L10" s="65">
         <v>19</v>
       </c>
-      <c r="M10" s="60"/>
+      <c r="M10" s="105"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A11" s="68"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="71"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="59"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="60"/>
+      <c r="A11" s="113"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="116"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="71"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="105"/>
     </row>
     <row r="12" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="71"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="116"/>
       <c r="F12" s="87" t="s">
         <v>25</v>
       </c>
       <c r="G12" s="88"/>
       <c r="H12" s="88"/>
-      <c r="I12" s="59"/>
+      <c r="I12" s="71"/>
       <c r="K12" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="80">
+      <c r="L12" s="66">
         <v>0</v>
       </c>
-      <c r="M12" s="60"/>
+      <c r="M12" s="105"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="19">
         <v>11</v>
       </c>
-      <c r="C13" s="73">
+      <c r="C13" s="118">
         <f>SUM(B13:B17)</f>
-        <v>65</v>
-      </c>
-      <c r="D13" s="71"/>
-      <c r="F13" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="116"/>
+      <c r="F13" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="24">
         <v>1</v>
       </c>
-      <c r="H13" s="104">
+      <c r="H13" s="68">
         <f>SUM(G13:G17)</f>
+        <v>15</v>
+      </c>
+      <c r="I13" s="71"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="106"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1">
+      <c r="A14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
+        <v>8</v>
+      </c>
+      <c r="C14" s="119"/>
+      <c r="D14" s="116"/>
+      <c r="F14" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="59"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="61"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="4">
-        <v>9</v>
-      </c>
-      <c r="C14" s="74"/>
-      <c r="D14" s="71"/>
-      <c r="F14" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="28">
+      <c r="G14" s="23">
+        <v>1</v>
+      </c>
+      <c r="H14" s="68"/>
+      <c r="I14" s="71"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="38"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="5">
+        <v>10</v>
+      </c>
+      <c r="C15" s="119"/>
+      <c r="D15" s="116"/>
+      <c r="F15" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="24">
+        <v>1</v>
+      </c>
+      <c r="H15" s="68"/>
+      <c r="I15" s="71"/>
+      <c r="K15" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="81">
+        <v>58</v>
+      </c>
+      <c r="M15" s="104">
+        <f>SUM(L15:L20)</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1">
+      <c r="A16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="3">
+        <v>5</v>
+      </c>
+      <c r="C16" s="119"/>
+      <c r="D16" s="116"/>
+      <c r="F16" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="23">
         <v>2</v>
       </c>
-      <c r="H14" s="104"/>
-      <c r="I14" s="59"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="43"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1">
-      <c r="A15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="6">
-        <v>11</v>
-      </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="71"/>
-      <c r="F15" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="29">
+      <c r="H16" s="68"/>
+      <c r="I16" s="71"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="105"/>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="9">
+        <v>25</v>
+      </c>
+      <c r="C17" s="120"/>
+      <c r="D17" s="116"/>
+      <c r="F17" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="32">
+        <v>10</v>
+      </c>
+      <c r="H17" s="69"/>
+      <c r="I17" s="71"/>
+      <c r="K17" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="77">
+        <v>60</v>
+      </c>
+      <c r="M17" s="105"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A18" s="113"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="116"/>
+      <c r="I18" s="71"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="105"/>
+    </row>
+    <row r="19" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A19" s="121" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="122"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="116"/>
+      <c r="F19" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="71"/>
+      <c r="K19" s="96" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="98">
+        <v>107</v>
+      </c>
+      <c r="M19" s="105"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1">
+      <c r="A20" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="19">
+        <v>10</v>
+      </c>
+      <c r="C20" s="118">
+        <f>SUM(B20:B24)</f>
+        <v>47</v>
+      </c>
+      <c r="D20" s="116"/>
+      <c r="F20" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="19">
         <v>2</v>
       </c>
-      <c r="H15" s="104"/>
-      <c r="I15" s="59"/>
-      <c r="K15" s="81" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" s="112">
-        <v>58</v>
-      </c>
-      <c r="M15" s="58">
-        <f>SUM(L15:L20)</f>
-        <v>230</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1">
-      <c r="A16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="4">
-        <v>5</v>
-      </c>
-      <c r="C16" s="74"/>
-      <c r="D16" s="71"/>
-      <c r="F16" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="28">
-        <v>2</v>
-      </c>
-      <c r="H16" s="104"/>
-      <c r="I16" s="59"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="113"/>
-      <c r="M16" s="60"/>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A17" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="10">
-        <v>29</v>
-      </c>
-      <c r="C17" s="75"/>
-      <c r="D17" s="71"/>
-      <c r="F17" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="37">
-        <v>11</v>
-      </c>
-      <c r="H17" s="105"/>
-      <c r="I17" s="59"/>
-      <c r="K17" s="110" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" s="80">
-        <v>60</v>
-      </c>
-      <c r="M17" s="60"/>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A18" s="68"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="71"/>
-      <c r="I18" s="59"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="60"/>
-    </row>
-    <row r="19" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A19" s="76" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="77"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="71"/>
-      <c r="F19" s="108" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="59"/>
-      <c r="K19" s="95" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" s="97">
-        <v>112</v>
-      </c>
-      <c r="M19" s="60"/>
-    </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1">
-      <c r="A20" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="20">
-        <v>12</v>
-      </c>
-      <c r="C20" s="73">
-        <f>SUM(B20:B24)</f>
-        <v>52</v>
-      </c>
-      <c r="D20" s="71"/>
-      <c r="F20" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="20">
-        <v>2</v>
-      </c>
-      <c r="H20" s="92">
+      <c r="H20" s="93">
         <f>SUM(G20:G25)</f>
         <v>15</v>
       </c>
-      <c r="I20" s="59"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="61"/>
+      <c r="I20" s="71"/>
+      <c r="K20" s="97"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="106"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
+        <v>6</v>
+      </c>
+      <c r="C21" s="119"/>
+      <c r="D21" s="116"/>
+      <c r="F21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2</v>
+      </c>
+      <c r="H21" s="94"/>
+      <c r="I21" s="71"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="79"/>
+    </row>
+    <row r="22" spans="1:13" ht="15" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="5">
+        <v>4</v>
+      </c>
+      <c r="C22" s="119"/>
+      <c r="D22" s="116"/>
+      <c r="F22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="5">
+        <v>3</v>
+      </c>
+      <c r="H22" s="94"/>
+      <c r="I22" s="71"/>
+      <c r="K22" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="110"/>
+      <c r="M22" s="107">
+        <f>SUM(M3:M20)</f>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15" customHeight="1">
+      <c r="A23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="3">
         <v>7</v>
       </c>
-      <c r="C21" s="74"/>
-      <c r="D21" s="71"/>
-      <c r="F21" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="4">
+      <c r="C23" s="119"/>
+      <c r="D23" s="116"/>
+      <c r="F23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="94"/>
+      <c r="I23" s="71"/>
+      <c r="K23" s="111"/>
+      <c r="L23" s="112"/>
+      <c r="M23" s="108"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="9">
+        <v>20</v>
+      </c>
+      <c r="C24" s="120"/>
+      <c r="D24" s="117"/>
+      <c r="F24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="5">
         <v>2</v>
       </c>
-      <c r="H21" s="93"/>
-      <c r="I21" s="59"/>
-      <c r="L21" s="111"/>
-      <c r="M21" s="111"/>
-    </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1">
-      <c r="A22" s="7" t="s">
+      <c r="H24" s="94"/>
+      <c r="I24" s="71"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="21"/>
+    </row>
+    <row r="25" spans="1:13" ht="15" customHeight="1">
+      <c r="F25" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="16">
+        <v>6</v>
+      </c>
+      <c r="H25" s="95"/>
+      <c r="I25" s="71"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="21"/>
+    </row>
+    <row r="26" spans="1:13" ht="15" customHeight="1">
+      <c r="I26" s="71"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="21"/>
+    </row>
+    <row r="27" spans="1:13" ht="26.25" customHeight="1">
+      <c r="A27" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="51"/>
+      <c r="F27" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="34">
+        <v>0</v>
+      </c>
+      <c r="H27" s="35">
+        <v>2</v>
+      </c>
+      <c r="I27" s="72"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="21"/>
+    </row>
+    <row r="28" spans="1:13" ht="18" customHeight="1">
+      <c r="A28" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="49">
+        <f>SUM(B6+B13+B20)</f>
+        <v>40</v>
+      </c>
+      <c r="C28" s="100">
+        <f>SUM(B28+B29)</f>
+        <v>102</v>
+      </c>
+      <c r="D28" s="47"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="K28" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="L28" s="41"/>
+    </row>
+    <row r="29" spans="1:13" ht="18" customHeight="1">
+      <c r="A29" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="54">
+        <f>SUM(B10+B17+B24)</f>
+        <v>62</v>
+      </c>
+      <c r="C29" s="101"/>
+      <c r="F29" s="57"/>
+      <c r="I29" s="21"/>
+      <c r="K29" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="L29" s="124">
+        <f>SUM(C3)</f>
+        <v>25</v>
+      </c>
+      <c r="M29" s="129">
+        <f>SUM(L29:L32)</f>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="6">
-        <v>4</v>
-      </c>
-      <c r="C22" s="74"/>
-      <c r="D22" s="71"/>
-      <c r="F22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="6">
-        <v>4</v>
-      </c>
-      <c r="H22" s="93"/>
-      <c r="I22" s="59"/>
-      <c r="K22" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="L22" s="65"/>
-      <c r="M22" s="62">
-        <f>SUM(M3:M20)</f>
-        <v>289</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="4">
-        <v>7</v>
-      </c>
-      <c r="C23" s="74"/>
-      <c r="D23" s="71"/>
-      <c r="F23" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0</v>
-      </c>
-      <c r="H23" s="93"/>
-      <c r="I23" s="59"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="63"/>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="10">
-        <v>22</v>
-      </c>
-      <c r="C24" s="75"/>
-      <c r="D24" s="72"/>
-      <c r="F24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="6">
-        <v>2</v>
-      </c>
-      <c r="H24" s="93"/>
-      <c r="I24" s="59"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="25"/>
-    </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1">
-      <c r="F25" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="17">
-        <v>5</v>
-      </c>
-      <c r="H25" s="94"/>
-      <c r="I25" s="59"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="25"/>
-    </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1">
-      <c r="I26" s="59"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="25"/>
-    </row>
-    <row r="27" spans="1:13" ht="26.25" customHeight="1">
-      <c r="A27" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="48"/>
-      <c r="F27" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" s="39">
+      <c r="B30" s="49">
+        <f>SUM(B8+B15+B22)</f>
+        <v>42</v>
+      </c>
+      <c r="C30" s="102">
+        <f>SUM(B30+B31)</f>
+        <v>71</v>
+      </c>
+      <c r="K30" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" s="125">
+        <f>SUM(C6+H3+H6)</f>
+        <v>99</v>
+      </c>
+      <c r="M30" s="129"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="40">
-        <f>SUM(G27)</f>
-        <v>14</v>
-      </c>
-      <c r="I27" s="107"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="25"/>
-    </row>
-    <row r="28" spans="1:13" ht="18" customHeight="1">
-      <c r="A28" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="57">
-        <f>SUM(B6+B13+B20)</f>
-        <v>41</v>
-      </c>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="25"/>
-      <c r="K28" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="1:13" ht="18" customHeight="1">
-      <c r="A29" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="29">
+      <c r="B31" s="52">
         <f>SUM(B7+B14+B21)</f>
         <v>29</v>
       </c>
-      <c r="I29" s="25"/>
-      <c r="K29" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="L29" s="23">
-        <f>SUM(C3)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="28">
-        <f>SUM(B8+B15+B22)</f>
-        <v>46</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L30" s="24">
-        <f>SUM(C6+H3+H6)</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="54" t="s">
+      <c r="C31" s="103"/>
+      <c r="K31" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L31" s="124">
+        <f>SUM(C13+H13)</f>
+        <v>74</v>
+      </c>
+      <c r="M31" s="129"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="29">
+      <c r="B32" s="56">
         <f>SUM(B16+B23)</f>
         <v>12</v>
       </c>
-      <c r="K31" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="L31" s="46">
-        <f>SUM(C13+H13)</f>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="28">
-        <f>SUM(B10+B17+B24)</f>
-        <v>65</v>
-      </c>
-      <c r="K32" s="3" t="s">
+      <c r="K32" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="L32" s="47">
+      <c r="L32" s="126">
         <f>SUM(C20+H20+H27)</f>
-        <v>81</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M32" s="130"/>
     </row>
     <row r="33" spans="11:14">
-      <c r="K33" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="L33" s="51">
+      <c r="K33" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="L33" s="127">
         <f>SUM(M22)</f>
-        <v>289</v>
-      </c>
-      <c r="M33" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="N33" s="49"/>
+        <v>284</v>
+      </c>
+      <c r="M33" s="128">
+        <f>SUM(L33)</f>
+        <v>284</v>
+      </c>
+      <c r="N33" s="42"/>
     </row>
     <row r="34" spans="11:14" ht="46.5">
-      <c r="K34" s="99">
+      <c r="K34" s="59">
         <f>SUM(L29:L33)</f>
-        <v>575</v>
-      </c>
-      <c r="L34" s="100"/>
+        <v>546</v>
+      </c>
+      <c r="L34" s="60"/>
     </row>
     <row r="37" spans="11:14" ht="62.1" customHeight="1"/>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="45">
+    <mergeCell ref="M29:M32"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="M3:M13"/>
+    <mergeCell ref="M15:M20"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="K22:L23"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D3:D24"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="H20:H25"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="K5:K6"/>
     <mergeCell ref="K34:L34"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="K10:K11"/>
@@ -2455,34 +2597,8 @@
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K5:K6"/>
     <mergeCell ref="L15:L16"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="H20:H25"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M3:M13"/>
-    <mergeCell ref="M15:M20"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="K22:L23"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D3:D24"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A19:C19"/>
     <mergeCell ref="L5:L6"/>
-    <mergeCell ref="K15:K16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/docs/comp_student_numbers_2022.xlsx
+++ b/docs/comp_student_numbers_2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26516"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssu-my.sharepoint.com/personal/martin_reid_solent_ac_uk/Documents/solent_store/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="486" documentId="8_{2550F169-BEF9-40D9-8733-B8C7482F9540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECE78FA9-60A7-44CF-88E8-5DCE0ED2A9B3}"/>
+  <xr:revisionPtr revIDLastSave="497" documentId="8_{2550F169-BEF9-40D9-8733-B8C7482F9540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D62CFC3-E960-4B4E-A68A-D5B2B698BFD3}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="600" windowWidth="51200" windowHeight="28340" xr2:uid="{145B23FD-6B6F-4D33-A52C-2CE972592F2A}"/>
   </bookViews>
@@ -149,7 +149,7 @@
     <t>EPA</t>
   </si>
   <si>
-    <t>Updated (15-2-23)</t>
+    <t>Updated (07-7-23)</t>
   </si>
   <si>
     <t>All Level Totals</t>
@@ -1303,7 +1303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1450,54 +1450,219 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1512,6 +1677,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1534,47 +1705,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1582,205 +1723,67 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2099,8 +2102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61D71A9-822A-40B0-B2DC-F9E13A183401}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2176,11 +2179,11 @@
         <f>SUM(B3)</f>
         <v>25</v>
       </c>
-      <c r="D3" s="96">
+      <c r="D3" s="52">
         <f>SUM(C3/20)</f>
         <v>1.25</v>
       </c>
-      <c r="E3" s="97">
+      <c r="E3" s="109">
         <f>SUM(C3+C6+C13+C20)</f>
         <v>209</v>
       </c>
@@ -2194,59 +2197,65 @@
         <f>SUM(H3)</f>
         <v>9</v>
       </c>
-      <c r="J3" s="57">
+      <c r="J3" s="149">
         <f>SUM(I3+I6+I13+I20+I27)</f>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L3" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="119">
+      <c r="M3" s="61">
         <v>11</v>
       </c>
-      <c r="N3" s="96"/>
-      <c r="O3" s="84">
+      <c r="N3" s="52">
+        <f>SUM(M3/25)</f>
+        <v>0.44</v>
+      </c>
+      <c r="O3" s="103">
         <f>SUM(M3+M5+M7+M10+M12)</f>
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A4" s="107"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="89"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="58"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="110"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="104"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="121"/>
       <c r="N4" s="10"/>
-      <c r="O4" s="58"/>
+      <c r="O4" s="104"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="102"/>
-      <c r="G5" s="68" t="s">
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="111"/>
+      <c r="G5" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="58"/>
-      <c r="L5" s="144" t="s">
+      <c r="H5" s="124"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="104"/>
+      <c r="L5" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="142">
+      <c r="M5" s="160">
         <v>13</v>
       </c>
-      <c r="N5" s="146"/>
-      <c r="O5" s="85"/>
+      <c r="N5" s="90">
+        <f>SUM(M5/25)</f>
+        <v>0.52</v>
+      </c>
+      <c r="O5" s="105"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1">
       <c r="A6" s="17" t="s">
@@ -2255,30 +2264,30 @@
       <c r="B6" s="18">
         <v>19</v>
       </c>
-      <c r="C6" s="99">
+      <c r="C6" s="113">
         <f>SUM(B6:B10)</f>
         <v>79</v>
       </c>
-      <c r="D6" s="98">
+      <c r="D6" s="102">
         <f>SUM(C6/20)</f>
         <v>3.95</v>
       </c>
-      <c r="E6" s="102"/>
+      <c r="E6" s="111"/>
       <c r="G6" s="27" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="25">
         <v>0</v>
       </c>
-      <c r="I6" s="111">
+      <c r="I6" s="87">
         <f>SUM(H6:H11)</f>
         <v>11</v>
       </c>
-      <c r="J6" s="58"/>
-      <c r="L6" s="145"/>
-      <c r="M6" s="143"/>
-      <c r="N6" s="147"/>
-      <c r="O6" s="85"/>
+      <c r="J6" s="104"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="161"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="105"/>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1">
       <c r="A7" s="6" t="s">
@@ -2287,25 +2296,25 @@
       <c r="B7" s="3">
         <v>15</v>
       </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="102"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="111"/>
       <c r="G7" s="26" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="24">
         <v>1</v>
       </c>
-      <c r="I7" s="112"/>
-      <c r="J7" s="58"/>
-      <c r="L7" s="73" t="s">
+      <c r="I7" s="88"/>
+      <c r="J7" s="104"/>
+      <c r="L7" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="148">
-        <v>16</v>
-      </c>
-      <c r="N7" s="129"/>
-      <c r="O7" s="85"/>
+      <c r="M7" s="143">
+        <v>0</v>
+      </c>
+      <c r="N7" s="77"/>
+      <c r="O7" s="105"/>
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1">
       <c r="A8" s="5" t="s">
@@ -2314,21 +2323,21 @@
       <c r="B8" s="4">
         <v>28</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="102"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="111"/>
       <c r="G8" s="27" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="25">
         <v>3</v>
       </c>
-      <c r="I8" s="112"/>
-      <c r="J8" s="58"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="121"/>
-      <c r="N8" s="130"/>
-      <c r="O8" s="85"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="104"/>
+      <c r="L8" s="131"/>
+      <c r="M8" s="144"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="105"/>
     </row>
     <row r="9" spans="1:15" ht="15" customHeight="1">
       <c r="A9" s="51" t="s">
@@ -2337,21 +2346,21 @@
       <c r="B9" s="3">
         <v>0</v>
       </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="102"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="111"/>
       <c r="G9" s="28" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="29">
         <v>7</v>
       </c>
-      <c r="I9" s="63"/>
-      <c r="J9" s="58"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="104"/>
+      <c r="L9" s="122"/>
+      <c r="M9" s="122"/>
       <c r="N9" s="50"/>
-      <c r="O9" s="58"/>
+      <c r="O9" s="104"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="A10" s="7" t="s">
@@ -2360,60 +2369,60 @@
       <c r="B10" s="8">
         <v>17</v>
       </c>
-      <c r="C10" s="101"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="102"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="58"/>
-      <c r="L10" s="144" t="s">
+      <c r="C10" s="115"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="111"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="104"/>
+      <c r="L10" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="149">
+      <c r="M10" s="145">
         <v>19</v>
       </c>
-      <c r="N10" s="151">
+      <c r="N10" s="71">
         <f>SUM(M10/25)</f>
         <v>0.76</v>
       </c>
-      <c r="O10" s="85"/>
+      <c r="O10" s="105"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A11" s="107"/>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="89"/>
+      <c r="A11" s="85"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="110"/>
       <c r="G11" s="12"/>
       <c r="H11" s="13"/>
       <c r="I11" s="21"/>
-      <c r="J11" s="58"/>
-      <c r="L11" s="145"/>
-      <c r="M11" s="156"/>
-      <c r="N11" s="152"/>
-      <c r="O11" s="85"/>
+      <c r="J11" s="104"/>
+      <c r="L11" s="140"/>
+      <c r="M11" s="146"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="105"/>
     </row>
     <row r="12" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A12" s="103" t="s">
+      <c r="A12" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="104"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="102"/>
-      <c r="G12" s="70" t="s">
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="111"/>
+      <c r="G12" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="58"/>
-      <c r="L12" s="153" t="s">
+      <c r="H12" s="126"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="104"/>
+      <c r="L12" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="149">
+      <c r="M12" s="162">
         <v>0</v>
       </c>
-      <c r="N12" s="151"/>
-      <c r="O12" s="85"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="105"/>
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1">
       <c r="A13" s="17" t="s">
@@ -2422,30 +2431,30 @@
       <c r="B13" s="18">
         <v>11</v>
       </c>
-      <c r="C13" s="99">
+      <c r="C13" s="113">
         <f>SUM(B13:B17)</f>
         <v>58</v>
       </c>
-      <c r="D13" s="82">
+      <c r="D13" s="75">
         <f>SUM(C13/20)</f>
         <v>2.9</v>
       </c>
-      <c r="E13" s="102"/>
+      <c r="E13" s="111"/>
       <c r="G13" s="27" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="23">
         <v>1</v>
       </c>
-      <c r="I13" s="55">
+      <c r="I13" s="147">
         <f>SUM(H13:H17)</f>
         <v>15</v>
       </c>
-      <c r="J13" s="58"/>
-      <c r="L13" s="154"/>
-      <c r="M13" s="150"/>
-      <c r="N13" s="155"/>
-      <c r="O13" s="86"/>
+      <c r="J13" s="104"/>
+      <c r="L13" s="129"/>
+      <c r="M13" s="163"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="106"/>
     </row>
     <row r="14" spans="1:15" ht="15" customHeight="1">
       <c r="A14" s="6" t="s">
@@ -2454,19 +2463,19 @@
       <c r="B14" s="3">
         <v>8</v>
       </c>
-      <c r="C14" s="100"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="102"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="111"/>
       <c r="G14" s="26" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="22">
         <v>1</v>
       </c>
-      <c r="I14" s="55"/>
-      <c r="J14" s="58"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
+      <c r="I14" s="147"/>
+      <c r="J14" s="104"/>
+      <c r="L14" s="122"/>
+      <c r="M14" s="122"/>
       <c r="N14" s="50"/>
       <c r="O14" s="36"/>
     </row>
@@ -2477,28 +2486,28 @@
       <c r="B15" s="4">
         <v>10</v>
       </c>
-      <c r="C15" s="100"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="102"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="111"/>
       <c r="G15" s="27" t="s">
         <v>27</v>
       </c>
       <c r="H15" s="23">
         <v>1</v>
       </c>
-      <c r="I15" s="55"/>
-      <c r="J15" s="58"/>
-      <c r="L15" s="66" t="s">
+      <c r="I15" s="147"/>
+      <c r="J15" s="104"/>
+      <c r="L15" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="M15" s="122">
+      <c r="M15" s="158">
         <v>58</v>
       </c>
-      <c r="N15" s="127">
+      <c r="N15" s="73">
         <f>SUM(M15/25)</f>
         <v>2.3199999999999998</v>
       </c>
-      <c r="O15" s="84">
+      <c r="O15" s="103">
         <f>SUM(M15:M20)</f>
         <v>225</v>
       </c>
@@ -2510,21 +2519,21 @@
       <c r="B16" s="3">
         <v>4</v>
       </c>
-      <c r="C16" s="100"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="102"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="111"/>
       <c r="G16" s="26" t="s">
         <v>20</v>
       </c>
       <c r="H16" s="22">
         <v>2</v>
       </c>
-      <c r="I16" s="55"/>
-      <c r="J16" s="58"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="120"/>
-      <c r="N16" s="128"/>
-      <c r="O16" s="85"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="104"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="159"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="105"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="7" t="s">
@@ -2533,66 +2542,66 @@
       <c r="B17" s="8">
         <v>25</v>
       </c>
-      <c r="C17" s="101"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="102"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="111"/>
       <c r="G17" s="30" t="s">
         <v>22</v>
       </c>
       <c r="H17" s="31">
         <v>10</v>
       </c>
-      <c r="I17" s="56"/>
-      <c r="J17" s="58"/>
-      <c r="L17" s="62" t="s">
+      <c r="I17" s="148"/>
+      <c r="J17" s="104"/>
+      <c r="L17" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="M17" s="123">
+      <c r="M17" s="154">
         <v>60</v>
       </c>
-      <c r="N17" s="82">
+      <c r="N17" s="75">
         <f>SUM(M17/25)</f>
         <v>2.4</v>
       </c>
-      <c r="O17" s="85"/>
+      <c r="O17" s="105"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A18" s="107"/>
-      <c r="B18" s="107"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="89"/>
-      <c r="J18" s="58"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="83"/>
-      <c r="O18" s="85"/>
+      <c r="A18" s="85"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="110"/>
+      <c r="J18" s="104"/>
+      <c r="L18" s="120"/>
+      <c r="M18" s="155"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="105"/>
     </row>
     <row r="19" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A19" s="103" t="s">
+      <c r="A19" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="104"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="102"/>
-      <c r="G19" s="60" t="s">
+      <c r="B19" s="94"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="111"/>
+      <c r="G19" s="151" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="58"/>
-      <c r="L19" s="78" t="s">
+      <c r="H19" s="152"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="104"/>
+      <c r="L19" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="M19" s="124">
+      <c r="M19" s="137">
         <v>107</v>
       </c>
-      <c r="N19" s="129">
+      <c r="N19" s="77">
         <f>SUM(M19/25)</f>
         <v>4.28</v>
       </c>
-      <c r="O19" s="85"/>
+      <c r="O19" s="105"/>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1">
       <c r="A20" s="17" t="s">
@@ -2601,30 +2610,30 @@
       <c r="B20" s="18">
         <v>10</v>
       </c>
-      <c r="C20" s="91">
+      <c r="C20" s="116">
         <f>SUM(B20:B24)</f>
         <v>47</v>
       </c>
-      <c r="D20" s="94">
+      <c r="D20" s="141">
         <f>SUM(C20/20)</f>
         <v>2.35</v>
       </c>
-      <c r="E20" s="89"/>
+      <c r="E20" s="110"/>
       <c r="G20" s="17" t="s">
         <v>33</v>
       </c>
       <c r="H20" s="18">
-        <v>2</v>
-      </c>
-      <c r="I20" s="75">
+        <v>0</v>
+      </c>
+      <c r="I20" s="132">
         <f>SUM(H20:H25)</f>
-        <v>15</v>
-      </c>
-      <c r="J20" s="58"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="125"/>
-      <c r="N20" s="130"/>
-      <c r="O20" s="86"/>
+        <v>6</v>
+      </c>
+      <c r="J20" s="104"/>
+      <c r="L20" s="136"/>
+      <c r="M20" s="138"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="106"/>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1">
       <c r="A21" s="6" t="s">
@@ -2633,20 +2642,20 @@
       <c r="B21" s="3">
         <v>6</v>
       </c>
-      <c r="C21" s="92"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="89"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="110"/>
       <c r="G21" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H21" s="3">
-        <v>2</v>
-      </c>
-      <c r="I21" s="76"/>
-      <c r="J21" s="58"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="126"/>
-      <c r="O21" s="64"/>
+        <v>1</v>
+      </c>
+      <c r="I21" s="133"/>
+      <c r="J21" s="104"/>
+      <c r="M21" s="156"/>
+      <c r="N21" s="157"/>
+      <c r="O21" s="156"/>
     </row>
     <row r="22" spans="1:15" ht="15" customHeight="1">
       <c r="A22" s="5" t="s">
@@ -2655,25 +2664,25 @@
       <c r="B22" s="4">
         <v>4</v>
       </c>
-      <c r="C22" s="92"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="89"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="110"/>
       <c r="G22" s="5" t="s">
         <v>17</v>
       </c>
       <c r="H22" s="4">
-        <v>3</v>
-      </c>
-      <c r="I22" s="76"/>
-      <c r="J22" s="58"/>
-      <c r="L22" s="131" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" s="133"/>
+      <c r="J22" s="104"/>
+      <c r="L22" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="M22" s="132"/>
-      <c r="N22" s="133"/>
-      <c r="O22" s="87">
+      <c r="M22" s="80"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="107">
         <f>SUM(O3:O20)</f>
-        <v>284</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15" customHeight="1">
@@ -2683,21 +2692,21 @@
       <c r="B23" s="3">
         <v>7</v>
       </c>
-      <c r="C23" s="92"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="89"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="110"/>
       <c r="G23" s="6" t="s">
         <v>27</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
-      <c r="I23" s="76"/>
-      <c r="J23" s="58"/>
-      <c r="L23" s="134"/>
-      <c r="M23" s="135"/>
-      <c r="N23" s="136"/>
-      <c r="O23" s="88"/>
+      <c r="I23" s="133"/>
+      <c r="J23" s="104"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="83"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="108"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1">
       <c r="A24" s="7" t="s">
@@ -2706,17 +2715,17 @@
       <c r="B24" s="8">
         <v>20</v>
       </c>
-      <c r="C24" s="93"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="90"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="112"/>
       <c r="G24" s="5" t="s">
         <v>20</v>
       </c>
       <c r="H24" s="4">
         <v>2</v>
       </c>
-      <c r="I24" s="76"/>
-      <c r="J24" s="58"/>
+      <c r="I24" s="133"/>
+      <c r="J24" s="104"/>
       <c r="L24" s="12"/>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
@@ -2727,16 +2736,16 @@
         <v>22</v>
       </c>
       <c r="H25" s="15">
-        <v>6</v>
-      </c>
-      <c r="I25" s="77"/>
-      <c r="J25" s="58"/>
+        <v>2</v>
+      </c>
+      <c r="I25" s="134"/>
+      <c r="J25" s="104"/>
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
       <c r="O25" s="20"/>
     </row>
     <row r="26" spans="1:15" ht="15" customHeight="1">
-      <c r="J26" s="58"/>
+      <c r="J26" s="104"/>
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
       <c r="O26" s="20"/>
@@ -2750,12 +2759,13 @@
         <v>36</v>
       </c>
       <c r="H27" s="33">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I27" s="34">
-        <v>2</v>
-      </c>
-      <c r="J27" s="59"/>
+        <f>SUM(H27)</f>
+        <v>9</v>
+      </c>
+      <c r="J27" s="150"/>
       <c r="L27" s="12"/>
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
@@ -2769,23 +2779,23 @@
         <f>SUM(B6+B13+B20)</f>
         <v>40</v>
       </c>
-      <c r="C28" s="80">
+      <c r="C28" s="100">
         <f>SUM(B28+B29)</f>
         <v>102</v>
       </c>
-      <c r="D28" s="109"/>
+      <c r="D28" s="53"/>
       <c r="E28" s="39"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
+      <c r="G28" s="122"/>
+      <c r="H28" s="122"/>
+      <c r="I28" s="122"/>
       <c r="J28" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="L28" s="159" t="s">
+      <c r="L28" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="M28" s="160"/>
-      <c r="N28" s="161"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="70"/>
     </row>
     <row r="29" spans="1:15" ht="18" customHeight="1">
       <c r="A29" s="45" t="s">
@@ -2795,20 +2805,20 @@
         <f>SUM(B10+B17+B24)</f>
         <v>62</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="109"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="53"/>
       <c r="G29" s="48"/>
       <c r="J29" s="20"/>
-      <c r="L29" s="157" t="s">
+      <c r="L29" s="64" t="s">
         <v>39</v>
       </c>
       <c r="M29" s="35">
         <f>SUM(C3)</f>
         <v>25</v>
       </c>
-      <c r="N29" s="158">
+      <c r="N29" s="97">
         <f>SUM(M29:M32)</f>
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="28.5">
@@ -2819,22 +2829,22 @@
         <f>SUM(B8+B15+B22)</f>
         <v>42</v>
       </c>
-      <c r="C30" s="82">
+      <c r="C30" s="75">
         <f>SUM(B30+B31)</f>
         <v>71</v>
       </c>
-      <c r="D30" s="110">
+      <c r="D30" s="54">
         <f>SUM(C28)</f>
         <v>102</v>
       </c>
-      <c r="L30" s="117" t="s">
+      <c r="L30" s="59" t="s">
         <v>11</v>
       </c>
       <c r="M30" s="25">
         <f>SUM(C6+I3+I6)</f>
         <v>99</v>
       </c>
-      <c r="N30" s="137"/>
+      <c r="N30" s="98"/>
     </row>
     <row r="31" spans="1:15" ht="28.5">
       <c r="A31" s="30" t="s">
@@ -2844,84 +2854,64 @@
         <f>SUM(B7+B14+B21)</f>
         <v>29</v>
       </c>
-      <c r="C31" s="98"/>
-      <c r="D31" s="110"/>
-      <c r="L31" s="116" t="s">
+      <c r="C31" s="102"/>
+      <c r="D31" s="54"/>
+      <c r="L31" s="58" t="s">
         <v>25</v>
       </c>
       <c r="M31" s="24">
         <f>SUM(C13+I13)</f>
         <v>73</v>
       </c>
-      <c r="N31" s="137"/>
+      <c r="N31" s="98"/>
     </row>
     <row r="32" spans="1:15" ht="28.5">
       <c r="A32" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="162">
+      <c r="B32" s="65">
         <f>SUM(B16+B23)</f>
         <v>11</v>
       </c>
-      <c r="C32" s="96">
+      <c r="C32" s="52">
         <f>SUM(B32)</f>
         <v>11</v>
       </c>
-      <c r="L32" s="117" t="s">
+      <c r="L32" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="M32" s="114">
+      <c r="M32" s="56">
         <f>SUM(C20+I20+I27)</f>
-        <v>64</v>
-      </c>
-      <c r="N32" s="138"/>
+        <v>62</v>
+      </c>
+      <c r="N32" s="99"/>
     </row>
     <row r="33" spans="12:16" ht="31.5">
-      <c r="L33" s="118" t="s">
+      <c r="L33" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="M33" s="115">
+      <c r="M33" s="57">
         <f>SUM(O22)</f>
-        <v>284</v>
-      </c>
-      <c r="N33" s="139">
+        <v>268</v>
+      </c>
+      <c r="N33" s="62">
         <f>SUM(M33)</f>
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="P33" s="38"/>
     </row>
     <row r="34" spans="12:16" ht="46.5">
-      <c r="L34" s="141" t="s">
+      <c r="L34" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="M34" s="140">
+      <c r="M34" s="66">
         <v>545</v>
       </c>
-      <c r="N34" s="52"/>
+      <c r="N34" s="67"/>
     </row>
     <row r="37" spans="12:16" ht="62.1" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="L22:N23"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="N29:N32"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
     <mergeCell ref="O3:O13"/>
     <mergeCell ref="O15:O20"/>
     <mergeCell ref="O22:O23"/>
@@ -2931,7 +2921,6 @@
     <mergeCell ref="C20:C24"/>
     <mergeCell ref="L15:L16"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="G28:I28"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="G4:I4"/>
@@ -2939,25 +2928,46 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="I20:I25"/>
     <mergeCell ref="L19:L20"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="N29:N32"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="G28:I28"/>
     <mergeCell ref="M19:M20"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="D6:D10"/>
     <mergeCell ref="D13:D17"/>
     <mergeCell ref="D20:D24"/>
-    <mergeCell ref="M7:M8"/>
     <mergeCell ref="L10:L11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="I13:I17"/>
     <mergeCell ref="J3:J27"/>
     <mergeCell ref="G19:I19"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="L22:N23"/>
     <mergeCell ref="M12:M13"/>
     <mergeCell ref="L17:L18"/>
     <mergeCell ref="M17:M18"/>
     <mergeCell ref="M21:O21"/>
     <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L9:M9"/>
     <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M5:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/docs/comp_student_numbers_2022.xlsx
+++ b/docs/comp_student_numbers_2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssu-my.sharepoint.com/personal/martin_reid_solent_ac_uk/Documents/solent_store/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="497" documentId="8_{2550F169-BEF9-40D9-8733-B8C7482F9540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D62CFC3-E960-4B4E-A68A-D5B2B698BFD3}"/>
+  <xr:revisionPtr revIDLastSave="533" documentId="8_{2550F169-BEF9-40D9-8733-B8C7482F9540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FAD0E01-CB96-4A20-A839-EA487985D63A}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="600" windowWidth="51200" windowHeight="28340" xr2:uid="{145B23FD-6B6F-4D33-A52C-2CE972592F2A}"/>
   </bookViews>
@@ -149,7 +149,7 @@
     <t>EPA</t>
   </si>
   <si>
-    <t>Updated (07-7-23)</t>
+    <t>Updated (17-8-23)</t>
   </si>
   <si>
     <t>All Level Totals</t>
@@ -1492,6 +1492,231 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1507,9 +1732,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1517,18 +1739,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1549,209 +1759,11 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1772,18 +1784,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2103,7 +2103,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12:L13"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2183,9 +2183,9 @@
         <f>SUM(C3/20)</f>
         <v>1.25</v>
       </c>
-      <c r="E3" s="109">
+      <c r="E3" s="72">
         <f>SUM(C3+C6+C13+C20)</f>
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>9</v>
@@ -2197,9 +2197,9 @@
         <f>SUM(H3)</f>
         <v>9</v>
       </c>
-      <c r="J3" s="149">
+      <c r="J3" s="124">
         <f>SUM(I3+I6+I13+I20+I27)</f>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L3" s="37" t="s">
         <v>10</v>
@@ -2211,133 +2211,133 @@
         <f>SUM(M3/25)</f>
         <v>0.44</v>
       </c>
-      <c r="O3" s="103">
+      <c r="O3" s="66">
         <f>SUM(M3+M5+M7+M10+M12)</f>
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A4" s="85"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="110"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="104"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="121"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="73"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="67"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
       <c r="N4" s="10"/>
-      <c r="O4" s="104"/>
+      <c r="O4" s="67"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="111"/>
-      <c r="G5" s="123" t="s">
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="74"/>
+      <c r="G5" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="124"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="104"/>
-      <c r="L5" s="139" t="s">
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="67"/>
+      <c r="L5" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="160">
+      <c r="M5" s="139">
         <v>13</v>
       </c>
-      <c r="N5" s="90">
+      <c r="N5" s="131">
         <f>SUM(M5/25)</f>
         <v>0.52</v>
       </c>
-      <c r="O5" s="105"/>
+      <c r="O5" s="68"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1">
       <c r="A6" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="18">
-        <v>19</v>
-      </c>
-      <c r="C6" s="113">
+        <v>0</v>
+      </c>
+      <c r="C6" s="76">
         <f>SUM(B6:B10)</f>
-        <v>79</v>
-      </c>
-      <c r="D6" s="102">
+        <v>0</v>
+      </c>
+      <c r="D6" s="111">
         <f>SUM(C6/20)</f>
-        <v>3.95</v>
-      </c>
-      <c r="E6" s="111"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="74"/>
       <c r="G6" s="27" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="25">
         <v>0</v>
       </c>
-      <c r="I6" s="87">
+      <c r="I6" s="128">
         <f>SUM(H6:H11)</f>
         <v>11</v>
       </c>
-      <c r="J6" s="104"/>
-      <c r="L6" s="140"/>
-      <c r="M6" s="161"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="105"/>
+      <c r="J6" s="67"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="132"/>
+      <c r="O6" s="68"/>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="3">
-        <v>15</v>
-      </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="111"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="77"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="74"/>
       <c r="G7" s="26" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="24">
         <v>1</v>
       </c>
-      <c r="I7" s="88"/>
-      <c r="J7" s="104"/>
-      <c r="L7" s="130" t="s">
+      <c r="I7" s="129"/>
+      <c r="J7" s="67"/>
+      <c r="L7" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="143">
+      <c r="M7" s="137">
         <v>0</v>
       </c>
-      <c r="N7" s="77"/>
-      <c r="O7" s="105"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="68"/>
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="4">
-        <v>28</v>
-      </c>
-      <c r="C8" s="114"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="111"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="77"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="74"/>
       <c r="G8" s="27" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="25">
         <v>3</v>
       </c>
-      <c r="I8" s="88"/>
-      <c r="J8" s="104"/>
-      <c r="L8" s="131"/>
-      <c r="M8" s="144"/>
-      <c r="N8" s="78"/>
-      <c r="O8" s="105"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="67"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="138"/>
+      <c r="N8" s="134"/>
+      <c r="O8" s="68"/>
     </row>
     <row r="9" spans="1:15" ht="15" customHeight="1">
       <c r="A9" s="51" t="s">
@@ -2346,136 +2346,136 @@
       <c r="B9" s="3">
         <v>0</v>
       </c>
-      <c r="C9" s="114"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="111"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="74"/>
       <c r="G9" s="28" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="29">
         <v>7</v>
       </c>
-      <c r="I9" s="89"/>
-      <c r="J9" s="104"/>
-      <c r="L9" s="122"/>
-      <c r="M9" s="122"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="67"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="112"/>
       <c r="N9" s="50"/>
-      <c r="O9" s="104"/>
+      <c r="O9" s="67"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="8">
-        <v>17</v>
-      </c>
-      <c r="C10" s="115"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="111"/>
+        <v>0</v>
+      </c>
+      <c r="C10" s="78"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="74"/>
       <c r="I10" s="55"/>
-      <c r="J10" s="104"/>
-      <c r="L10" s="139" t="s">
+      <c r="J10" s="67"/>
+      <c r="L10" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="145">
+      <c r="M10" s="120">
         <v>19</v>
       </c>
-      <c r="N10" s="71">
+      <c r="N10" s="135">
         <f>SUM(M10/25)</f>
         <v>0.76</v>
       </c>
-      <c r="O10" s="105"/>
+      <c r="O10" s="68"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A11" s="85"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="110"/>
+      <c r="A11" s="103"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="73"/>
       <c r="G11" s="12"/>
       <c r="H11" s="13"/>
       <c r="I11" s="21"/>
-      <c r="J11" s="104"/>
-      <c r="L11" s="140"/>
-      <c r="M11" s="146"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="105"/>
+      <c r="J11" s="67"/>
+      <c r="L11" s="119"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="136"/>
+      <c r="O11" s="68"/>
     </row>
     <row r="12" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A12" s="93" t="s">
+      <c r="A12" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="111"/>
-      <c r="G12" s="125" t="s">
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="74"/>
+      <c r="G12" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="126"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="104"/>
-      <c r="L12" s="128" t="s">
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="67"/>
+      <c r="L12" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="162">
+      <c r="M12" s="155">
         <v>0</v>
       </c>
-      <c r="N12" s="71"/>
-      <c r="O12" s="105"/>
+      <c r="N12" s="135"/>
+      <c r="O12" s="68"/>
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1">
       <c r="A13" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="18">
-        <v>11</v>
-      </c>
-      <c r="C13" s="113">
+        <v>19</v>
+      </c>
+      <c r="C13" s="76">
         <f>SUM(B13:B17)</f>
-        <v>58</v>
-      </c>
-      <c r="D13" s="75">
+        <v>79</v>
+      </c>
+      <c r="D13" s="110">
         <f>SUM(C13/20)</f>
-        <v>2.9</v>
-      </c>
-      <c r="E13" s="111"/>
+        <v>3.95</v>
+      </c>
+      <c r="E13" s="74"/>
       <c r="G13" s="27" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="23">
         <v>1</v>
       </c>
-      <c r="I13" s="147">
+      <c r="I13" s="122">
         <f>SUM(H13:H17)</f>
         <v>15</v>
       </c>
-      <c r="J13" s="104"/>
-      <c r="L13" s="129"/>
-      <c r="M13" s="163"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="106"/>
+      <c r="J13" s="67"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="156"/>
+      <c r="N13" s="146"/>
+      <c r="O13" s="69"/>
     </row>
     <row r="14" spans="1:15" ht="15" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="3">
-        <v>8</v>
-      </c>
-      <c r="C14" s="114"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="111"/>
+        <v>15</v>
+      </c>
+      <c r="C14" s="77"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="74"/>
       <c r="G14" s="26" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="22">
         <v>1</v>
       </c>
-      <c r="I14" s="147"/>
-      <c r="J14" s="104"/>
-      <c r="L14" s="122"/>
-      <c r="M14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="67"/>
+      <c r="L14" s="112"/>
+      <c r="M14" s="112"/>
       <c r="N14" s="50"/>
       <c r="O14" s="36"/>
     </row>
@@ -2484,203 +2484,203 @@
         <v>19</v>
       </c>
       <c r="B15" s="4">
-        <v>10</v>
-      </c>
-      <c r="C15" s="114"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="111"/>
+        <v>28</v>
+      </c>
+      <c r="C15" s="77"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="74"/>
       <c r="G15" s="27" t="s">
         <v>27</v>
       </c>
       <c r="H15" s="23">
         <v>1</v>
       </c>
-      <c r="I15" s="147"/>
-      <c r="J15" s="104"/>
-      <c r="L15" s="119" t="s">
+      <c r="I15" s="122"/>
+      <c r="J15" s="67"/>
+      <c r="L15" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="M15" s="158">
+      <c r="M15" s="162">
         <v>58</v>
       </c>
-      <c r="N15" s="73">
+      <c r="N15" s="147">
         <f>SUM(M15/25)</f>
         <v>2.3199999999999998</v>
       </c>
-      <c r="O15" s="103">
+      <c r="O15" s="66">
         <f>SUM(M15:M20)</f>
         <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="51" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="3">
-        <v>4</v>
-      </c>
-      <c r="C16" s="114"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="111"/>
+        <v>0</v>
+      </c>
+      <c r="C16" s="77"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="74"/>
       <c r="G16" s="26" t="s">
         <v>20</v>
       </c>
       <c r="H16" s="22">
         <v>2</v>
       </c>
-      <c r="I16" s="147"/>
-      <c r="J16" s="104"/>
-      <c r="L16" s="120"/>
-      <c r="M16" s="159"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="105"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="67"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="163"/>
+      <c r="N16" s="148"/>
+      <c r="O16" s="68"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="8">
-        <v>25</v>
-      </c>
-      <c r="C17" s="115"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="111"/>
+        <v>17</v>
+      </c>
+      <c r="C17" s="78"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="74"/>
       <c r="G17" s="30" t="s">
         <v>22</v>
       </c>
       <c r="H17" s="31">
         <v>10</v>
       </c>
-      <c r="I17" s="148"/>
-      <c r="J17" s="104"/>
-      <c r="L17" s="153" t="s">
+      <c r="I17" s="123"/>
+      <c r="J17" s="67"/>
+      <c r="L17" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="M17" s="154">
+      <c r="M17" s="158">
         <v>60</v>
       </c>
-      <c r="N17" s="75">
+      <c r="N17" s="110">
         <f>SUM(M17/25)</f>
         <v>2.4</v>
       </c>
-      <c r="O17" s="105"/>
+      <c r="O17" s="68"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A18" s="85"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="110"/>
-      <c r="J18" s="104"/>
-      <c r="L18" s="120"/>
-      <c r="M18" s="155"/>
-      <c r="N18" s="76"/>
-      <c r="O18" s="105"/>
+      <c r="A18" s="103"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="73"/>
+      <c r="J18" s="67"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="159"/>
+      <c r="N18" s="115"/>
+      <c r="O18" s="68"/>
     </row>
     <row r="19" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A19" s="93" t="s">
+      <c r="A19" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="94"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="111"/>
-      <c r="G19" s="151" t="s">
+      <c r="B19" s="100"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="74"/>
+      <c r="G19" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="152"/>
-      <c r="I19" s="152"/>
-      <c r="J19" s="104"/>
-      <c r="L19" s="135" t="s">
+      <c r="H19" s="127"/>
+      <c r="I19" s="127"/>
+      <c r="J19" s="67"/>
+      <c r="L19" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="M19" s="137">
+      <c r="M19" s="113">
         <v>107</v>
       </c>
-      <c r="N19" s="77">
+      <c r="N19" s="133">
         <f>SUM(M19/25)</f>
         <v>4.28</v>
       </c>
-      <c r="O19" s="105"/>
+      <c r="O19" s="68"/>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1">
       <c r="A20" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="18">
-        <v>10</v>
-      </c>
-      <c r="C20" s="116">
+        <v>11</v>
+      </c>
+      <c r="C20" s="79">
         <f>SUM(B20:B24)</f>
-        <v>47</v>
-      </c>
-      <c r="D20" s="141">
+        <v>58</v>
+      </c>
+      <c r="D20" s="116">
         <f>SUM(C20/20)</f>
-        <v>2.35</v>
-      </c>
-      <c r="E20" s="110"/>
+        <v>2.9</v>
+      </c>
+      <c r="E20" s="73"/>
       <c r="G20" s="17" t="s">
         <v>33</v>
       </c>
       <c r="H20" s="18">
         <v>0</v>
       </c>
-      <c r="I20" s="132">
+      <c r="I20" s="94">
         <f>SUM(H20:H25)</f>
         <v>6</v>
       </c>
-      <c r="J20" s="104"/>
-      <c r="L20" s="136"/>
-      <c r="M20" s="138"/>
-      <c r="N20" s="78"/>
-      <c r="O20" s="106"/>
+      <c r="J20" s="67"/>
+      <c r="L20" s="98"/>
+      <c r="M20" s="114"/>
+      <c r="N20" s="134"/>
+      <c r="O20" s="69"/>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="3">
-        <v>6</v>
-      </c>
-      <c r="C21" s="117"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="110"/>
+        <v>8</v>
+      </c>
+      <c r="C21" s="80"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="73"/>
       <c r="G21" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H21" s="3">
         <v>1</v>
       </c>
-      <c r="I21" s="133"/>
-      <c r="J21" s="104"/>
-      <c r="M21" s="156"/>
-      <c r="N21" s="157"/>
-      <c r="O21" s="156"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="67"/>
+      <c r="M21" s="160"/>
+      <c r="N21" s="161"/>
+      <c r="O21" s="160"/>
     </row>
     <row r="22" spans="1:15" ht="15" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="4">
-        <v>4</v>
-      </c>
-      <c r="C22" s="117"/>
-      <c r="D22" s="141"/>
-      <c r="E22" s="110"/>
+        <v>10</v>
+      </c>
+      <c r="C22" s="80"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="73"/>
       <c r="G22" s="5" t="s">
         <v>17</v>
       </c>
       <c r="H22" s="4">
         <v>1</v>
       </c>
-      <c r="I22" s="133"/>
-      <c r="J22" s="104"/>
-      <c r="L22" s="79" t="s">
+      <c r="I22" s="95"/>
+      <c r="J22" s="67"/>
+      <c r="L22" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="M22" s="80"/>
-      <c r="N22" s="81"/>
-      <c r="O22" s="107">
+      <c r="M22" s="150"/>
+      <c r="N22" s="151"/>
+      <c r="O22" s="70">
         <f>SUM(O3:O20)</f>
         <v>268</v>
       </c>
@@ -2690,42 +2690,42 @@
         <v>21</v>
       </c>
       <c r="B23" s="3">
-        <v>7</v>
-      </c>
-      <c r="C23" s="117"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="110"/>
+        <v>4</v>
+      </c>
+      <c r="C23" s="80"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="73"/>
       <c r="G23" s="6" t="s">
         <v>27</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
-      <c r="I23" s="133"/>
-      <c r="J23" s="104"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="83"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="108"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="67"/>
+      <c r="L23" s="152"/>
+      <c r="M23" s="153"/>
+      <c r="N23" s="154"/>
+      <c r="O23" s="71"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1">
       <c r="A24" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="8">
-        <v>20</v>
-      </c>
-      <c r="C24" s="118"/>
-      <c r="D24" s="142"/>
-      <c r="E24" s="112"/>
+        <v>25</v>
+      </c>
+      <c r="C24" s="81"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="75"/>
       <c r="G24" s="5" t="s">
         <v>20</v>
       </c>
       <c r="H24" s="4">
         <v>2</v>
       </c>
-      <c r="I24" s="133"/>
-      <c r="J24" s="104"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="67"/>
       <c r="L24" s="12"/>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
@@ -2738,14 +2738,14 @@
       <c r="H25" s="15">
         <v>2</v>
       </c>
-      <c r="I25" s="134"/>
-      <c r="J25" s="104"/>
+      <c r="I25" s="96"/>
+      <c r="J25" s="67"/>
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
       <c r="O25" s="20"/>
     </row>
     <row r="26" spans="1:15" ht="15" customHeight="1">
-      <c r="J26" s="104"/>
+      <c r="J26" s="67"/>
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
       <c r="O26" s="20"/>
@@ -2759,13 +2759,13 @@
         <v>36</v>
       </c>
       <c r="H27" s="33">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I27" s="34">
         <f>SUM(H27)</f>
-        <v>9</v>
-      </c>
-      <c r="J27" s="150"/>
+        <v>4</v>
+      </c>
+      <c r="J27" s="125"/>
       <c r="L27" s="12"/>
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
@@ -2777,25 +2777,25 @@
       </c>
       <c r="B28" s="41">
         <f>SUM(B6+B13+B20)</f>
-        <v>40</v>
-      </c>
-      <c r="C28" s="100">
+        <v>30</v>
+      </c>
+      <c r="C28" s="108">
         <f>SUM(B28+B29)</f>
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="D28" s="53"/>
       <c r="E28" s="39"/>
-      <c r="G28" s="122"/>
-      <c r="H28" s="122"/>
-      <c r="I28" s="122"/>
+      <c r="G28" s="112"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="112"/>
       <c r="J28" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="L28" s="68" t="s">
+      <c r="L28" s="143" t="s">
         <v>38</v>
       </c>
-      <c r="M28" s="69"/>
-      <c r="N28" s="70"/>
+      <c r="M28" s="144"/>
+      <c r="N28" s="145"/>
     </row>
     <row r="29" spans="1:15" ht="18" customHeight="1">
       <c r="A29" s="45" t="s">
@@ -2803,9 +2803,9 @@
       </c>
       <c r="B29" s="46">
         <f>SUM(B10+B17+B24)</f>
-        <v>62</v>
-      </c>
-      <c r="C29" s="101"/>
+        <v>42</v>
+      </c>
+      <c r="C29" s="109"/>
       <c r="D29" s="53"/>
       <c r="G29" s="48"/>
       <c r="J29" s="20"/>
@@ -2816,9 +2816,9 @@
         <f>SUM(C3)</f>
         <v>25</v>
       </c>
-      <c r="N29" s="97">
+      <c r="N29" s="105">
         <f>SUM(M29:M32)</f>
-        <v>259</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="28.5">
@@ -2827,24 +2827,24 @@
       </c>
       <c r="B30" s="41">
         <f>SUM(B8+B15+B22)</f>
-        <v>42</v>
-      </c>
-      <c r="C30" s="75">
+        <v>38</v>
+      </c>
+      <c r="C30" s="110">
         <f>SUM(B30+B31)</f>
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D30" s="54">
         <f>SUM(C28)</f>
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="L30" s="59" t="s">
         <v>11</v>
       </c>
       <c r="M30" s="25">
         <f>SUM(C6+I3+I6)</f>
-        <v>99</v>
-      </c>
-      <c r="N30" s="98"/>
+        <v>20</v>
+      </c>
+      <c r="N30" s="106"/>
     </row>
     <row r="31" spans="1:15" ht="28.5">
       <c r="A31" s="30" t="s">
@@ -2852,18 +2852,18 @@
       </c>
       <c r="B31" s="44">
         <f>SUM(B7+B14+B21)</f>
-        <v>29</v>
-      </c>
-      <c r="C31" s="102"/>
+        <v>23</v>
+      </c>
+      <c r="C31" s="111"/>
       <c r="D31" s="54"/>
       <c r="L31" s="58" t="s">
         <v>25</v>
       </c>
       <c r="M31" s="24">
         <f>SUM(C13+I13)</f>
-        <v>73</v>
-      </c>
-      <c r="N31" s="98"/>
+        <v>94</v>
+      </c>
+      <c r="N31" s="106"/>
     </row>
     <row r="32" spans="1:15" ht="28.5">
       <c r="A32" s="47" t="s">
@@ -2871,20 +2871,20 @@
       </c>
       <c r="B32" s="65">
         <f>SUM(B16+B23)</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C32" s="52">
         <f>SUM(B32)</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="L32" s="59" t="s">
         <v>30</v>
       </c>
       <c r="M32" s="56">
         <f>SUM(C20+I20+I27)</f>
-        <v>62</v>
-      </c>
-      <c r="N32" s="99"/>
+        <v>68</v>
+      </c>
+      <c r="N32" s="107"/>
     </row>
     <row r="33" spans="12:16" ht="31.5">
       <c r="L33" s="60" t="s">
@@ -2904,14 +2904,54 @@
       <c r="L34" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="M34" s="66">
+      <c r="M34" s="141">
         <v>545</v>
       </c>
-      <c r="N34" s="67"/>
+      <c r="N34" s="142"/>
     </row>
     <row r="37" spans="12:16" ht="62.1" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="L22:N23"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="N29:N32"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="I13:I17"/>
+    <mergeCell ref="J3:J27"/>
+    <mergeCell ref="G19:I19"/>
     <mergeCell ref="O3:O13"/>
     <mergeCell ref="O15:O20"/>
     <mergeCell ref="O22:O23"/>
@@ -2928,46 +2968,6 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="I20:I25"/>
     <mergeCell ref="L19:L20"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="N29:N32"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="I13:I17"/>
-    <mergeCell ref="J3:J27"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="L22:N23"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="M15:M16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/docs/comp_student_numbers_2022.xlsx
+++ b/docs/comp_student_numbers_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssu-my.sharepoint.com/personal/martin_reid_solent_ac_uk/Documents/solent_store/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="820" documentId="8_{2550F169-BEF9-40D9-8733-B8C7482F9540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{795594C1-342C-4286-B0D3-413B4BB6CEB6}"/>
+  <xr:revisionPtr revIDLastSave="838" documentId="8_{2550F169-BEF9-40D9-8733-B8C7482F9540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EA14687-26C4-44A7-AA62-83441BB21F6B}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="600" windowWidth="51200" windowHeight="28340" xr2:uid="{145B23FD-6B6F-4D33-A52C-2CE972592F2A}"/>
   </bookViews>
@@ -152,7 +152,7 @@
     <t>UG Course Totals</t>
   </si>
   <si>
-    <t>Updated (9-9-23)</t>
+    <t>Updated (12-9-23)</t>
   </si>
   <si>
     <t>All Level Totals</t>
@@ -307,13 +307,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <u/>
       <sz val="14"/>
@@ -332,6 +325,13 @@
       <b/>
       <sz val="18"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1111,7 +1111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1237,7 +1237,319 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1249,22 +1561,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1279,321 +1576,25 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1908,10 +1909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61D71A9-822A-40B0-B2DC-F9E13A183401}">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:I9"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1930,7 +1931,7 @@
     <col min="15" max="15" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="32.25" customHeight="1">
+    <row r="1" spans="1:20" ht="32.25" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1971,29 +1972,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:20">
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:15" ht="29.25" customHeight="1">
+    <row r="3" spans="1:20" ht="29.25" customHeight="1">
       <c r="A3" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="9">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C3" s="14">
         <f>SUM(B3)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D3" s="34">
         <f>SUM(C3/20)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="75">
+        <v>0.7</v>
+      </c>
+      <c r="E3" s="138">
         <f>SUM(C3+C6+C13+C20)</f>
-        <v>137</v>
+        <v>215</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>9</v>
@@ -2005,332 +2006,337 @@
         <f>SUM(H3)</f>
         <v>7</v>
       </c>
-      <c r="J3" s="69">
+      <c r="J3" s="80">
         <f>SUM(I3+I6+I12+I18+I24)</f>
         <v>69</v>
       </c>
-      <c r="L3" s="101" t="s">
+      <c r="L3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="104">
+      <c r="M3" s="45">
         <v>11</v>
       </c>
-      <c r="N3" s="104">
+      <c r="N3" s="45">
         <f>SUM(M3/25)</f>
         <v>0.44</v>
       </c>
-      <c r="O3" s="69">
+      <c r="O3" s="80">
         <f>SUM(M3:M15)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="76"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="70"/>
-      <c r="L4" s="102" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A4" s="133"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="139"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="81"/>
+      <c r="L4" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="150"/>
-      <c r="N4" s="90">
+      <c r="M4" s="160">
+        <v>5</v>
+      </c>
+      <c r="N4" s="92">
         <f t="shared" ref="N4" si="0">SUM(M4/25)</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="73"/>
-    </row>
-    <row r="5" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A5" s="60" t="s">
+        <v>0.2</v>
+      </c>
+      <c r="O4" s="90"/>
+    </row>
+    <row r="5" spans="1:20" ht="16.5" customHeight="1">
+      <c r="A5" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="77"/>
-      <c r="G5" s="85" t="s">
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="140"/>
+      <c r="G5" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="86"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="70"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="151"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="73"/>
-    </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1">
+      <c r="H5" s="123"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="81"/>
+      <c r="L5" s="121"/>
+      <c r="M5" s="161"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="90"/>
+    </row>
+    <row r="6" spans="1:20" ht="15" customHeight="1">
       <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16">
-        <v>0</v>
-      </c>
-      <c r="C6" s="79">
+        <v>17</v>
+      </c>
+      <c r="C6" s="142">
         <f>SUM(B6:B10)</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="64">
+        <v>78</v>
+      </c>
+      <c r="D6" s="135">
         <f>SUM(C6/20)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="77"/>
+        <v>3.9</v>
+      </c>
+      <c r="E6" s="140"/>
       <c r="G6" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="19">
         <v>2</v>
       </c>
-      <c r="I6" s="95">
+      <c r="I6" s="70">
         <f>SUM(H6:H10)</f>
         <v>21</v>
       </c>
-      <c r="J6" s="70"/>
-      <c r="O6" s="70"/>
-    </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1">
+      <c r="J6" s="81"/>
+      <c r="O6" s="81"/>
+    </row>
+    <row r="7" spans="1:20" ht="15" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="77"/>
+        <v>12</v>
+      </c>
+      <c r="C7" s="143"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="140"/>
       <c r="G7" s="20" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="18">
         <v>0</v>
       </c>
-      <c r="I7" s="96"/>
-      <c r="J7" s="70"/>
-      <c r="L7" s="105" t="s">
+      <c r="I7" s="58"/>
+      <c r="J7" s="81"/>
+      <c r="L7" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="47">
+      <c r="M7" s="98">
         <v>16</v>
       </c>
-      <c r="N7" s="115">
+      <c r="N7" s="100">
         <f>SUM(M7/25)</f>
         <v>0.64</v>
       </c>
-      <c r="O7" s="70"/>
-    </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1">
+      <c r="O7" s="81"/>
+    </row>
+    <row r="8" spans="1:20" ht="15" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="4">
-        <v>0</v>
-      </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="77"/>
+        <v>21</v>
+      </c>
+      <c r="C8" s="143"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="140"/>
       <c r="G8" s="21" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="19">
         <v>3</v>
       </c>
-      <c r="I8" s="96"/>
-      <c r="J8" s="70"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="70"/>
-    </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1">
+      <c r="I8" s="58"/>
+      <c r="J8" s="81"/>
+      <c r="L8" s="128"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="81"/>
+      <c r="T8" s="162"/>
+    </row>
+    <row r="9" spans="1:20" ht="15" customHeight="1">
       <c r="A9" s="33" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
       </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="77"/>
+      <c r="C9" s="143"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="140"/>
       <c r="G9" s="22" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="23">
         <v>16</v>
       </c>
-      <c r="I9" s="118"/>
-      <c r="J9" s="70"/>
-      <c r="L9" s="107" t="s">
+      <c r="I9" s="71"/>
+      <c r="J9" s="81"/>
+      <c r="L9" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="90"/>
-      <c r="N9" s="114">
+      <c r="M9" s="92">
+        <v>11</v>
+      </c>
+      <c r="N9" s="104">
         <f>SUM(M9/25)</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="70"/>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+        <v>0.44</v>
+      </c>
+      <c r="O9" s="81"/>
+    </row>
+    <row r="10" spans="1:20" ht="15.75" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="8">
-        <v>0</v>
-      </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="77"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="70"/>
-      <c r="L10" s="108"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="70"/>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A11" s="57"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="76"/>
-      <c r="G11" s="128" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="144"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="140"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="81"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="81"/>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A11" s="133"/>
+      <c r="B11" s="133"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="139"/>
+      <c r="G11" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="126"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="70"/>
-      <c r="L11" s="92"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="81"/>
+      <c r="L11" s="43"/>
       <c r="M11" s="32"/>
       <c r="N11" s="32"/>
-      <c r="O11" s="70"/>
-    </row>
-    <row r="12" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A12" s="60" t="s">
+      <c r="O11" s="81"/>
+    </row>
+    <row r="12" spans="1:20" ht="16.5" customHeight="1">
+      <c r="A12" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="77"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="140"/>
       <c r="G12" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="19">
         <v>0</v>
       </c>
-      <c r="I12" s="95">
+      <c r="I12" s="70">
         <f>SUM(H12:H15)</f>
         <v>13</v>
       </c>
-      <c r="J12" s="70"/>
-      <c r="L12" s="91" t="s">
+      <c r="J12" s="81"/>
+      <c r="L12" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="M12" s="49">
+      <c r="M12" s="110">
         <v>19</v>
       </c>
-      <c r="N12" s="95">
+      <c r="N12" s="70">
         <f>SUM(M12/25)</f>
         <v>0.76</v>
       </c>
-      <c r="O12" s="70"/>
-    </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1">
+      <c r="O12" s="81"/>
+    </row>
+    <row r="13" spans="1:20" ht="15" customHeight="1">
       <c r="A13" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="16">
         <v>19</v>
       </c>
-      <c r="C13" s="79">
+      <c r="C13" s="142">
         <f>SUM(B13:B17)</f>
-        <v>79</v>
-      </c>
-      <c r="D13" s="49">
+        <v>73</v>
+      </c>
+      <c r="D13" s="110">
         <f>SUM(C13/20)</f>
-        <v>3.95</v>
-      </c>
-      <c r="E13" s="77"/>
+        <v>3.65</v>
+      </c>
+      <c r="E13" s="140"/>
       <c r="G13" s="20" t="s">
         <v>17</v>
       </c>
       <c r="H13" s="18">
         <v>1</v>
       </c>
-      <c r="I13" s="96"/>
-      <c r="J13" s="70"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="70"/>
-    </row>
-    <row r="14" spans="1:15" ht="15" customHeight="1">
+      <c r="I13" s="58"/>
+      <c r="J13" s="81"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="135"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="81"/>
+    </row>
+    <row r="14" spans="1:20" ht="15" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="3">
         <v>15</v>
       </c>
-      <c r="C14" s="80"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="77"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="140"/>
       <c r="G14" s="20" t="s">
         <v>20</v>
       </c>
       <c r="H14" s="18">
         <v>3</v>
       </c>
-      <c r="I14" s="96"/>
-      <c r="J14" s="70"/>
-      <c r="L14" s="99" t="s">
+      <c r="I14" s="58"/>
+      <c r="J14" s="81"/>
+      <c r="L14" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="M14" s="97">
-        <v>0</v>
-      </c>
-      <c r="N14" s="49">
+      <c r="M14" s="108">
+        <v>13</v>
+      </c>
+      <c r="N14" s="110">
         <f>SUM(M14/25)</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="73"/>
-    </row>
-    <row r="15" spans="1:15" ht="15" customHeight="1">
+        <v>0.52</v>
+      </c>
+      <c r="O14" s="90"/>
+    </row>
+    <row r="15" spans="1:20" ht="15" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="4">
-        <v>28</v>
-      </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="77"/>
+        <v>22</v>
+      </c>
+      <c r="C15" s="143"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="140"/>
       <c r="G15" s="24" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="29">
         <v>9</v>
       </c>
-      <c r="I15" s="118"/>
-      <c r="J15" s="70"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="119"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="74"/>
-    </row>
-    <row r="16" spans="1:15" ht="15" customHeight="1">
+      <c r="I15" s="71"/>
+      <c r="J15" s="81"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="109"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="91"/>
+    </row>
+    <row r="16" spans="1:20" ht="15" customHeight="1">
       <c r="A16" s="33" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
       </c>
-      <c r="C16" s="80"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="77"/>
-      <c r="J16" s="70"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="140"/>
+      <c r="J16" s="81"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="7" t="s">
@@ -2339,108 +2345,108 @@
       <c r="B17" s="8">
         <v>17</v>
       </c>
-      <c r="C17" s="81"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="77"/>
-      <c r="G17" s="129" t="s">
+      <c r="C17" s="144"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="140"/>
+      <c r="G17" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="127"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="70"/>
-      <c r="L17" s="109" t="s">
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="81"/>
+      <c r="L17" s="156" t="s">
         <v>29</v>
       </c>
-      <c r="M17" s="95">
+      <c r="M17" s="70">
         <v>60</v>
       </c>
-      <c r="N17" s="49">
+      <c r="N17" s="110">
         <f>SUM(M17/25)</f>
         <v>2.4</v>
       </c>
-      <c r="O17" s="72">
+      <c r="O17" s="89">
         <f>SUM(M17:M23)</f>
-        <v>167</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A18" s="57"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="76"/>
+      <c r="A18" s="133"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="133"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="139"/>
       <c r="G18" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
       </c>
-      <c r="I18" s="95">
+      <c r="I18" s="70">
         <f>SUM(H18:H22)</f>
         <v>15</v>
       </c>
-      <c r="J18" s="70"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="73"/>
+      <c r="J18" s="81"/>
+      <c r="L18" s="157"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="135"/>
+      <c r="O18" s="90"/>
     </row>
     <row r="19" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="129" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="77"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="140"/>
       <c r="G19" s="5" t="s">
         <v>17</v>
       </c>
       <c r="H19" s="4">
         <v>1</v>
       </c>
-      <c r="I19" s="96"/>
-      <c r="J19" s="70"/>
-      <c r="L19" s="111" t="s">
+      <c r="I19" s="58"/>
+      <c r="J19" s="81"/>
+      <c r="L19" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="M19" s="97">
+      <c r="M19" s="108">
         <v>107</v>
       </c>
-      <c r="N19" s="90">
+      <c r="N19" s="92">
         <f>SUM(M19/25)</f>
         <v>4.28</v>
       </c>
-      <c r="O19" s="73"/>
+      <c r="O19" s="90"/>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1">
       <c r="A20" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="16">
-        <v>11</v>
-      </c>
-      <c r="C20" s="82">
+        <v>14</v>
+      </c>
+      <c r="C20" s="145">
         <f>SUM(B20:B24)</f>
-        <v>58</v>
-      </c>
-      <c r="D20" s="66">
+        <v>50</v>
+      </c>
+      <c r="D20" s="136">
         <f>SUM(C20/20)</f>
-        <v>2.9</v>
-      </c>
-      <c r="E20" s="76"/>
+        <v>2.5</v>
+      </c>
+      <c r="E20" s="139"/>
       <c r="G20" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H20" s="3">
         <v>1</v>
       </c>
-      <c r="I20" s="96"/>
-      <c r="J20" s="70"/>
-      <c r="L20" s="112"/>
-      <c r="M20" s="98"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="73"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="81"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="116"/>
+      <c r="N20" s="151"/>
+      <c r="O20" s="90"/>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1">
       <c r="A21" s="6" t="s">
@@ -2449,26 +2455,28 @@
       <c r="B21" s="3">
         <v>8</v>
       </c>
-      <c r="C21" s="83"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="76"/>
+      <c r="C21" s="146"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="139"/>
       <c r="G21" s="5" t="s">
         <v>20</v>
       </c>
       <c r="H21" s="4">
         <v>2</v>
       </c>
-      <c r="I21" s="96"/>
-      <c r="J21" s="70"/>
-      <c r="L21" s="63" t="s">
+      <c r="I21" s="58"/>
+      <c r="J21" s="81"/>
+      <c r="L21" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="146"/>
-      <c r="N21" s="47">
+      <c r="M21" s="117">
+        <v>157</v>
+      </c>
+      <c r="N21" s="98">
         <f t="shared" ref="N21" si="1">SUM(M21/25)</f>
-        <v>0</v>
-      </c>
-      <c r="O21" s="73"/>
+        <v>6.28</v>
+      </c>
+      <c r="O21" s="90"/>
     </row>
     <row r="22" spans="1:15" ht="15" customHeight="1">
       <c r="A22" s="5" t="s">
@@ -2477,21 +2485,21 @@
       <c r="B22" s="4">
         <v>10</v>
       </c>
-      <c r="C22" s="83"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="76"/>
+      <c r="C22" s="146"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="139"/>
       <c r="G22" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H22" s="13">
         <v>10</v>
       </c>
-      <c r="I22" s="118"/>
-      <c r="J22" s="70"/>
-      <c r="L22" s="113"/>
-      <c r="M22" s="147"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="73"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="81"/>
+      <c r="L22" s="115"/>
+      <c r="M22" s="118"/>
+      <c r="N22" s="119"/>
+      <c r="O22" s="90"/>
     </row>
     <row r="23" spans="1:15" ht="15" customHeight="1">
       <c r="A23" s="6" t="s">
@@ -2500,102 +2508,102 @@
       <c r="B23" s="3">
         <v>4</v>
       </c>
-      <c r="C23" s="83"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="76"/>
-      <c r="J23" s="70"/>
-      <c r="L23" s="102" t="s">
+      <c r="C23" s="146"/>
+      <c r="D23" s="136"/>
+      <c r="E23" s="139"/>
+      <c r="J23" s="81"/>
+      <c r="L23" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="M23" s="148"/>
-      <c r="N23" s="90">
+      <c r="M23" s="94"/>
+      <c r="N23" s="92">
         <f t="shared" ref="N23" si="2">SUM(M23/25)</f>
         <v>0</v>
       </c>
-      <c r="O23" s="73"/>
+      <c r="O23" s="90"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1">
       <c r="A24" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="8">
-        <v>25</v>
-      </c>
-      <c r="C24" s="84"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="78"/>
-      <c r="G24" s="130" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="147"/>
+      <c r="D24" s="137"/>
+      <c r="E24" s="141"/>
+      <c r="G24" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="131">
+      <c r="H24" s="76">
         <v>13</v>
       </c>
-      <c r="I24" s="134">
+      <c r="I24" s="78">
         <f>SUM(H24)</f>
         <v>13</v>
       </c>
-      <c r="J24" s="70"/>
-      <c r="L24" s="103"/>
-      <c r="M24" s="149"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="74"/>
+      <c r="J24" s="81"/>
+      <c r="L24" s="121"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="91"/>
     </row>
     <row r="25" spans="1:15" ht="15" customHeight="1">
-      <c r="G25" s="132"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="71"/>
-      <c r="O25" s="93"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="82"/>
+      <c r="O25" s="44"/>
     </row>
     <row r="26" spans="1:15" ht="15" customHeight="1">
-      <c r="J26" s="93"/>
-      <c r="L26" s="53" t="s">
+      <c r="J26" s="44"/>
+      <c r="L26" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="120">
+      <c r="M26" s="153"/>
+      <c r="N26" s="153"/>
+      <c r="O26" s="158">
         <f>SUM(O3+O17)</f>
-        <v>213</v>
+        <v>399</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="26.25" customHeight="1">
-      <c r="A27" s="142" t="s">
+      <c r="A27" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="143"/>
-      <c r="C27" s="143"/>
-      <c r="D27" s="143"/>
-      <c r="E27" s="144"/>
-      <c r="J27" s="93"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="121"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="64"/>
+      <c r="J27" s="44"/>
+      <c r="L27" s="154"/>
+      <c r="M27" s="155"/>
+      <c r="N27" s="155"/>
+      <c r="O27" s="159"/>
     </row>
     <row r="28" spans="1:15" ht="18" customHeight="1">
-      <c r="A28" s="145" t="s">
+      <c r="A28" s="48" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="25">
         <f>SUM(B6+B13+B20)</f>
-        <v>30</v>
-      </c>
-      <c r="C28" s="141">
+        <v>50</v>
+      </c>
+      <c r="C28" s="54">
         <f>SUM(B28+B29)</f>
-        <v>72</v>
-      </c>
-      <c r="D28" s="152"/>
-      <c r="E28" s="154">
+        <v>109</v>
+      </c>
+      <c r="D28" s="55"/>
+      <c r="E28" s="52">
         <f>SUM(C28)</f>
-        <v>72</v>
-      </c>
-      <c r="G28" s="136" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="H28" s="135"/>
-      <c r="I28" s="135"/>
-      <c r="J28" s="137"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="85"/>
     </row>
     <row r="29" spans="1:15" ht="18" customHeight="1">
       <c r="A29" s="30" t="s">
@@ -2603,15 +2611,15 @@
       </c>
       <c r="B29" s="31">
         <f>SUM(B10+B17+B24)</f>
-        <v>42</v>
-      </c>
-      <c r="C29" s="155"/>
-      <c r="D29" s="156"/>
-      <c r="E29" s="154"/>
-      <c r="G29" s="138"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="139"/>
-      <c r="J29" s="140"/>
+        <v>59</v>
+      </c>
+      <c r="C29" s="56"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="52"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="87"/>
+      <c r="J29" s="88"/>
     </row>
     <row r="30" spans="1:15" ht="28.5" customHeight="1">
       <c r="A30" s="27" t="s">
@@ -2619,65 +2627,65 @@
       </c>
       <c r="B30" s="28">
         <f>SUM(B8+B15+B22)</f>
-        <v>38</v>
-      </c>
-      <c r="C30" s="96">
+        <v>53</v>
+      </c>
+      <c r="C30" s="58">
         <f>SUM(B30+B31)</f>
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="D30" s="59"/>
-      <c r="E30" s="154"/>
-      <c r="L30" s="44" t="s">
+      <c r="E30" s="52"/>
+      <c r="L30" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="M30" s="45"/>
-      <c r="N30" s="46"/>
+      <c r="M30" s="149"/>
+      <c r="N30" s="150"/>
     </row>
     <row r="31" spans="1:15" ht="28.5" customHeight="1">
-      <c r="A31" s="161" t="s">
+      <c r="A31" s="51" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="35">
         <f>SUM(B7+B14+B21)</f>
-        <v>23</v>
-      </c>
-      <c r="C31" s="96"/>
+        <v>35</v>
+      </c>
+      <c r="C31" s="58"/>
       <c r="D31" s="59"/>
-      <c r="E31" s="154"/>
+      <c r="E31" s="52"/>
       <c r="L31" s="42" t="s">
         <v>40</v>
       </c>
       <c r="M31" s="25">
         <f>SUM(C3)</f>
-        <v>0</v>
-      </c>
-      <c r="N31" s="122">
+        <v>14</v>
+      </c>
+      <c r="N31" s="65">
         <f>SUM(M31:M34)</f>
-        <v>206</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="28.5" customHeight="1">
-      <c r="A32" s="159" t="s">
+      <c r="A32" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="160">
+      <c r="B32" s="50">
         <f>SUM(B16+B23)</f>
         <v>4</v>
       </c>
-      <c r="C32" s="153">
+      <c r="C32" s="60">
         <f>SUM(B32)</f>
         <v>4</v>
       </c>
-      <c r="D32" s="157"/>
-      <c r="E32" s="158"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="53"/>
       <c r="L32" s="38" t="s">
         <v>12</v>
       </c>
       <c r="M32" s="19">
         <f>SUM(C6+I3+I6)</f>
-        <v>28</v>
-      </c>
-      <c r="N32" s="123"/>
+        <v>106</v>
+      </c>
+      <c r="N32" s="66"/>
     </row>
     <row r="33" spans="12:16" ht="31.5" customHeight="1">
       <c r="L33" s="37" t="s">
@@ -2685,9 +2693,9 @@
       </c>
       <c r="M33" s="18">
         <f>SUM(C13+I12)</f>
-        <v>92</v>
-      </c>
-      <c r="N33" s="123"/>
+        <v>86</v>
+      </c>
+      <c r="N33" s="66"/>
       <c r="P33" s="26"/>
     </row>
     <row r="34" spans="12:16" ht="31.5" customHeight="1">
@@ -2696,9 +2704,9 @@
       </c>
       <c r="M34" s="35">
         <f>SUM(C20+I18+I24)</f>
-        <v>86</v>
-      </c>
-      <c r="N34" s="124"/>
+        <v>78</v>
+      </c>
+      <c r="N34" s="67"/>
     </row>
     <row r="35" spans="12:16" ht="31.5">
       <c r="L35" s="39" t="s">
@@ -2706,45 +2714,45 @@
       </c>
       <c r="M35" s="36">
         <f>SUM(O26)</f>
-        <v>213</v>
+        <v>399</v>
       </c>
       <c r="N35" s="40">
         <f>SUM(M35)</f>
-        <v>213</v>
+        <v>399</v>
       </c>
     </row>
     <row r="36" spans="12:16" ht="46.5">
       <c r="L36" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="M36" s="88">
-        <v>545</v>
-      </c>
-      <c r="N36" s="43"/>
+      <c r="M36" s="96">
+        <f>SUM(N31:N35)</f>
+        <v>683</v>
+      </c>
+      <c r="N36" s="97"/>
     </row>
     <row r="37" spans="12:16" ht="62.1" customHeight="1"/>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="E28:E32"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="N31:N34"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="I18:I22"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J3:J25"/>
-    <mergeCell ref="G28:J29"/>
-    <mergeCell ref="O17:O24"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="L26:N27"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="E3:E24"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="D13:D17"/>
     <mergeCell ref="M36:N36"/>
     <mergeCell ref="O3:O15"/>
     <mergeCell ref="M7:M8"/>
@@ -2761,34 +2769,35 @@
     <mergeCell ref="M21:M22"/>
     <mergeCell ref="N21:N22"/>
     <mergeCell ref="L23:L24"/>
+    <mergeCell ref="O17:O24"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="N31:N34"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="I18:I22"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J3:J25"/>
+    <mergeCell ref="G28:J29"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="L12:L13"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="E3:E24"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="C20:C24"/>
     <mergeCell ref="L30:N30"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="L26:N27"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="A27:E27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/docs/comp_student_numbers_2022.xlsx
+++ b/docs/comp_student_numbers_2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26903"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssu-my.sharepoint.com/personal/martin_reid_solent_ac_uk/Documents/solent_store/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="838" documentId="8_{2550F169-BEF9-40D9-8733-B8C7482F9540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EA14687-26C4-44A7-AA62-83441BB21F6B}"/>
+  <xr:revisionPtr revIDLastSave="851" documentId="8_{2550F169-BEF9-40D9-8733-B8C7482F9540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23E0B616-8DA4-4195-95DE-0E60AB0CA190}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="600" windowWidth="51200" windowHeight="28340" xr2:uid="{145B23FD-6B6F-4D33-A52C-2CE972592F2A}"/>
   </bookViews>
@@ -149,10 +149,10 @@
     <t>Total Level</t>
   </si>
   <si>
-    <t>UG Course Totals</t>
-  </si>
-  <si>
-    <t>Updated (12-9-23)</t>
+    <t>UG BSc Course Breakdown Totals</t>
+  </si>
+  <si>
+    <t>Updated (14-9-23)</t>
   </si>
   <si>
     <t>All Level Totals</t>
@@ -1264,88 +1264,116 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1354,35 +1382,23 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1390,36 +1406,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1436,12 +1422,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1474,6 +1454,81 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1494,63 +1549,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1561,40 +1559,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1912,7 +1912,7 @@
   <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1992,9 +1992,9 @@
         <f>SUM(C3/20)</f>
         <v>0.7</v>
       </c>
-      <c r="E3" s="138">
+      <c r="E3" s="77">
         <f>SUM(C3+C6+C13+C20)</f>
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>9</v>
@@ -2006,7 +2006,7 @@
         <f>SUM(H3)</f>
         <v>7</v>
       </c>
-      <c r="J3" s="80">
+      <c r="J3" s="90">
         <f>SUM(I3+I6+I12+I18+I24)</f>
         <v>69</v>
       </c>
@@ -2020,51 +2020,51 @@
         <f>SUM(M3/25)</f>
         <v>0.44</v>
       </c>
-      <c r="O3" s="80">
+      <c r="O3" s="90">
         <f>SUM(M3:M15)</f>
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A4" s="133"/>
-      <c r="B4" s="133"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="139"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="81"/>
-      <c r="L4" s="120" t="s">
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="78"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="91"/>
+      <c r="L4" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="160">
-        <v>5</v>
-      </c>
-      <c r="N4" s="92">
+      <c r="M4" s="116">
+        <v>9</v>
+      </c>
+      <c r="N4" s="98">
         <f t="shared" ref="N4" si="0">SUM(M4/25)</f>
-        <v>0.2</v>
-      </c>
-      <c r="O4" s="90"/>
+        <v>0.36</v>
+      </c>
+      <c r="O4" s="66"/>
     </row>
     <row r="5" spans="1:20" ht="16.5" customHeight="1">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="140"/>
-      <c r="G5" s="122" t="s">
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="79"/>
+      <c r="G5" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="123"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="81"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="161"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="90"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="91"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="66"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1">
       <c r="A6" s="15" t="s">
@@ -2073,27 +2073,27 @@
       <c r="B6" s="16">
         <v>17</v>
       </c>
-      <c r="C6" s="142">
+      <c r="C6" s="81">
         <f>SUM(B6:B10)</f>
-        <v>78</v>
-      </c>
-      <c r="D6" s="135">
+        <v>79</v>
+      </c>
+      <c r="D6" s="58">
         <f>SUM(C6/20)</f>
-        <v>3.9</v>
-      </c>
-      <c r="E6" s="140"/>
+        <v>3.95</v>
+      </c>
+      <c r="E6" s="79"/>
       <c r="G6" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="19">
         <v>2</v>
       </c>
-      <c r="I6" s="70">
+      <c r="I6" s="61">
         <f>SUM(H6:H10)</f>
         <v>21</v>
       </c>
-      <c r="J6" s="81"/>
-      <c r="O6" s="81"/>
+      <c r="J6" s="91"/>
+      <c r="O6" s="91"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1">
       <c r="A7" s="6" t="s">
@@ -2102,28 +2102,28 @@
       <c r="B7" s="3">
         <v>12</v>
       </c>
-      <c r="C7" s="143"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="140"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="79"/>
       <c r="G7" s="20" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="18">
         <v>0</v>
       </c>
-      <c r="I7" s="58"/>
-      <c r="J7" s="81"/>
-      <c r="L7" s="127" t="s">
+      <c r="I7" s="62"/>
+      <c r="J7" s="91"/>
+      <c r="L7" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="98">
+      <c r="M7" s="92">
         <v>16</v>
       </c>
-      <c r="N7" s="100">
+      <c r="N7" s="94">
         <f>SUM(M7/25)</f>
         <v>0.64</v>
       </c>
-      <c r="O7" s="81"/>
+      <c r="O7" s="91"/>
     </row>
     <row r="8" spans="1:20" ht="15" customHeight="1">
       <c r="A8" s="5" t="s">
@@ -2132,22 +2132,22 @@
       <c r="B8" s="4">
         <v>21</v>
       </c>
-      <c r="C8" s="143"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="140"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="79"/>
       <c r="G8" s="21" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="19">
         <v>3</v>
       </c>
-      <c r="I8" s="58"/>
-      <c r="J8" s="81"/>
-      <c r="L8" s="128"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="81"/>
-      <c r="T8" s="162"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="91"/>
+      <c r="L8" s="147"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="91"/>
+      <c r="T8" s="52"/>
     </row>
     <row r="9" spans="1:20" ht="15" customHeight="1">
       <c r="A9" s="33" t="s">
@@ -2156,93 +2156,97 @@
       <c r="B9" s="3">
         <v>0</v>
       </c>
-      <c r="C9" s="143"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="140"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="79"/>
       <c r="G9" s="22" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="23">
         <v>16</v>
       </c>
-      <c r="I9" s="71"/>
-      <c r="J9" s="81"/>
-      <c r="L9" s="102" t="s">
+      <c r="I9" s="72"/>
+      <c r="J9" s="91"/>
+      <c r="L9" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="92">
+      <c r="M9" s="98">
         <v>11</v>
       </c>
-      <c r="N9" s="104">
+      <c r="N9" s="100">
         <f>SUM(M9/25)</f>
         <v>0.44</v>
       </c>
-      <c r="O9" s="81"/>
+      <c r="O9" s="91"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="8">
-        <v>28</v>
-      </c>
-      <c r="C10" s="144"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="140"/>
+        <v>29</v>
+      </c>
+      <c r="C10" s="83"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="79"/>
       <c r="I10" s="47"/>
-      <c r="J10" s="81"/>
-      <c r="L10" s="103"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="105"/>
-      <c r="O10" s="81"/>
+      <c r="J10" s="91"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="91"/>
+      <c r="Q10">
+        <f>SUM(M3+M7+M12+M17)</f>
+        <v>106</v>
+      </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A11" s="133"/>
-      <c r="B11" s="133"/>
-      <c r="C11" s="133"/>
-      <c r="D11" s="134"/>
-      <c r="E11" s="139"/>
-      <c r="G11" s="68" t="s">
+      <c r="A11" s="70"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="78"/>
+      <c r="G11" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="81"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="91"/>
       <c r="L11" s="43"/>
       <c r="M11" s="32"/>
       <c r="N11" s="32"/>
-      <c r="O11" s="81"/>
+      <c r="O11" s="91"/>
     </row>
     <row r="12" spans="1:20" ht="16.5" customHeight="1">
-      <c r="A12" s="129" t="s">
+      <c r="A12" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="140"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="79"/>
       <c r="G12" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="19">
         <v>0</v>
       </c>
-      <c r="I12" s="70">
+      <c r="I12" s="61">
         <f>SUM(H12:H15)</f>
         <v>13</v>
       </c>
-      <c r="J12" s="81"/>
-      <c r="L12" s="125" t="s">
+      <c r="J12" s="91"/>
+      <c r="L12" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="M12" s="110">
+      <c r="M12" s="57">
         <v>19</v>
       </c>
-      <c r="N12" s="70">
+      <c r="N12" s="61">
         <f>SUM(M12/25)</f>
         <v>0.76</v>
       </c>
-      <c r="O12" s="81"/>
+      <c r="O12" s="91"/>
     </row>
     <row r="13" spans="1:20" ht="15" customHeight="1">
       <c r="A13" s="15" t="s">
@@ -2251,27 +2255,27 @@
       <c r="B13" s="16">
         <v>19</v>
       </c>
-      <c r="C13" s="142">
+      <c r="C13" s="81">
         <f>SUM(B13:B17)</f>
         <v>73</v>
       </c>
-      <c r="D13" s="110">
+      <c r="D13" s="57">
         <f>SUM(C13/20)</f>
         <v>3.65</v>
       </c>
-      <c r="E13" s="140"/>
+      <c r="E13" s="79"/>
       <c r="G13" s="20" t="s">
         <v>17</v>
       </c>
       <c r="H13" s="18">
         <v>1</v>
       </c>
-      <c r="I13" s="58"/>
-      <c r="J13" s="81"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="135"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="81"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="91"/>
+      <c r="L13" s="145"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="91"/>
     </row>
     <row r="14" spans="1:20" ht="15" customHeight="1">
       <c r="A14" s="6" t="s">
@@ -2280,28 +2284,28 @@
       <c r="B14" s="3">
         <v>15</v>
       </c>
-      <c r="C14" s="143"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="140"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="79"/>
       <c r="G14" s="20" t="s">
         <v>20</v>
       </c>
       <c r="H14" s="18">
         <v>3</v>
       </c>
-      <c r="I14" s="58"/>
-      <c r="J14" s="81"/>
-      <c r="L14" s="106" t="s">
+      <c r="I14" s="62"/>
+      <c r="J14" s="91"/>
+      <c r="L14" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="M14" s="108">
+      <c r="M14" s="104">
         <v>13</v>
       </c>
-      <c r="N14" s="110">
+      <c r="N14" s="57">
         <f>SUM(M14/25)</f>
         <v>0.52</v>
       </c>
-      <c r="O14" s="90"/>
+      <c r="O14" s="66"/>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1">
       <c r="A15" s="5" t="s">
@@ -2310,21 +2314,21 @@
       <c r="B15" s="4">
         <v>22</v>
       </c>
-      <c r="C15" s="143"/>
-      <c r="D15" s="135"/>
-      <c r="E15" s="140"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="79"/>
       <c r="G15" s="24" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="29">
         <v>9</v>
       </c>
-      <c r="I15" s="71"/>
-      <c r="J15" s="81"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="109"/>
-      <c r="N15" s="111"/>
-      <c r="O15" s="91"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="91"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="105"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="67"/>
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1">
       <c r="A16" s="33" t="s">
@@ -2333,10 +2337,10 @@
       <c r="B16" s="3">
         <v>0</v>
       </c>
-      <c r="C16" s="143"/>
-      <c r="D16" s="135"/>
-      <c r="E16" s="140"/>
-      <c r="J16" s="81"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="79"/>
+      <c r="J16" s="91"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="7" t="s">
@@ -2345,79 +2349,79 @@
       <c r="B17" s="8">
         <v>17</v>
       </c>
-      <c r="C17" s="144"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="140"/>
-      <c r="G17" s="72" t="s">
+      <c r="C17" s="83"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="79"/>
+      <c r="G17" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="81"/>
-      <c r="L17" s="156" t="s">
+      <c r="H17" s="127"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="91"/>
+      <c r="L17" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="M17" s="70">
+      <c r="M17" s="61">
         <v>60</v>
       </c>
-      <c r="N17" s="110">
+      <c r="N17" s="57">
         <f>SUM(M17/25)</f>
         <v>2.4</v>
       </c>
-      <c r="O17" s="89">
+      <c r="O17" s="65">
         <f>SUM(M17:M23)</f>
-        <v>324</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A18" s="133"/>
-      <c r="B18" s="133"/>
-      <c r="C18" s="133"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="139"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="78"/>
       <c r="G18" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
       </c>
-      <c r="I18" s="70">
+      <c r="I18" s="61">
         <f>SUM(H18:H22)</f>
         <v>15</v>
       </c>
-      <c r="J18" s="81"/>
-      <c r="L18" s="157"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="135"/>
-      <c r="O18" s="90"/>
+      <c r="J18" s="91"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="66"/>
     </row>
     <row r="19" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A19" s="129" t="s">
+      <c r="A19" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="130"/>
-      <c r="C19" s="130"/>
-      <c r="D19" s="132"/>
-      <c r="E19" s="140"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="79"/>
       <c r="G19" s="5" t="s">
         <v>17</v>
       </c>
       <c r="H19" s="4">
         <v>1</v>
       </c>
-      <c r="I19" s="58"/>
-      <c r="J19" s="81"/>
-      <c r="L19" s="112" t="s">
+      <c r="I19" s="62"/>
+      <c r="J19" s="91"/>
+      <c r="L19" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="M19" s="108">
+      <c r="M19" s="104">
         <v>107</v>
       </c>
-      <c r="N19" s="92">
+      <c r="N19" s="98">
         <f>SUM(M19/25)</f>
         <v>4.28</v>
       </c>
-      <c r="O19" s="90"/>
+      <c r="O19" s="66"/>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1">
       <c r="A20" s="15" t="s">
@@ -2426,27 +2430,27 @@
       <c r="B20" s="16">
         <v>14</v>
       </c>
-      <c r="C20" s="145">
+      <c r="C20" s="84">
         <f>SUM(B20:B24)</f>
         <v>50</v>
       </c>
-      <c r="D20" s="136">
+      <c r="D20" s="68">
         <f>SUM(C20/20)</f>
         <v>2.5</v>
       </c>
-      <c r="E20" s="139"/>
+      <c r="E20" s="78"/>
       <c r="G20" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H20" s="3">
         <v>1</v>
       </c>
-      <c r="I20" s="58"/>
-      <c r="J20" s="81"/>
-      <c r="L20" s="113"/>
-      <c r="M20" s="116"/>
-      <c r="N20" s="151"/>
-      <c r="O20" s="90"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="91"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="110"/>
+      <c r="N20" s="120"/>
+      <c r="O20" s="66"/>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1">
       <c r="A21" s="6" t="s">
@@ -2455,28 +2459,28 @@
       <c r="B21" s="3">
         <v>8</v>
       </c>
-      <c r="C21" s="146"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="139"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="78"/>
       <c r="G21" s="5" t="s">
         <v>20</v>
       </c>
       <c r="H21" s="4">
         <v>2</v>
       </c>
-      <c r="I21" s="58"/>
-      <c r="J21" s="81"/>
-      <c r="L21" s="114" t="s">
+      <c r="I21" s="62"/>
+      <c r="J21" s="91"/>
+      <c r="L21" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="117">
-        <v>157</v>
-      </c>
-      <c r="N21" s="98">
+      <c r="M21" s="111">
+        <v>100</v>
+      </c>
+      <c r="N21" s="92">
         <f t="shared" ref="N21" si="1">SUM(M21/25)</f>
-        <v>6.28</v>
-      </c>
-      <c r="O21" s="90"/>
+        <v>4</v>
+      </c>
+      <c r="O21" s="66"/>
     </row>
     <row r="22" spans="1:15" ht="15" customHeight="1">
       <c r="A22" s="5" t="s">
@@ -2485,21 +2489,21 @@
       <c r="B22" s="4">
         <v>10</v>
       </c>
-      <c r="C22" s="146"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="139"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="78"/>
       <c r="G22" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H22" s="13">
         <v>10</v>
       </c>
-      <c r="I22" s="71"/>
-      <c r="J22" s="81"/>
-      <c r="L22" s="115"/>
-      <c r="M22" s="118"/>
-      <c r="N22" s="119"/>
-      <c r="O22" s="90"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="91"/>
+      <c r="L22" s="109"/>
+      <c r="M22" s="112"/>
+      <c r="N22" s="113"/>
+      <c r="O22" s="66"/>
     </row>
     <row r="23" spans="1:15" ht="15" customHeight="1">
       <c r="A23" s="6" t="s">
@@ -2508,19 +2512,19 @@
       <c r="B23" s="3">
         <v>4</v>
       </c>
-      <c r="C23" s="146"/>
-      <c r="D23" s="136"/>
-      <c r="E23" s="139"/>
-      <c r="J23" s="81"/>
-      <c r="L23" s="120" t="s">
+      <c r="C23" s="85"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="78"/>
+      <c r="J23" s="91"/>
+      <c r="L23" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="M23" s="94"/>
-      <c r="N23" s="92">
+      <c r="M23" s="118"/>
+      <c r="N23" s="98">
         <f t="shared" ref="N23" si="2">SUM(M23/25)</f>
         <v>0</v>
       </c>
-      <c r="O23" s="90"/>
+      <c r="O23" s="66"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1">
       <c r="A24" s="7" t="s">
@@ -2529,57 +2533,57 @@
       <c r="B24" s="8">
         <v>14</v>
       </c>
-      <c r="C24" s="147"/>
-      <c r="D24" s="137"/>
-      <c r="E24" s="141"/>
-      <c r="G24" s="74" t="s">
+      <c r="C24" s="86"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="80"/>
+      <c r="G24" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="76">
+      <c r="H24" s="130">
         <v>13</v>
       </c>
-      <c r="I24" s="78">
+      <c r="I24" s="132">
         <f>SUM(H24)</f>
         <v>13</v>
       </c>
-      <c r="J24" s="81"/>
-      <c r="L24" s="121"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="91"/>
+      <c r="J24" s="91"/>
+      <c r="L24" s="115"/>
+      <c r="M24" s="119"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="67"/>
     </row>
     <row r="25" spans="1:15" ht="15" customHeight="1">
-      <c r="G25" s="75"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="82"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="131"/>
+      <c r="I25" s="133"/>
+      <c r="J25" s="134"/>
       <c r="O25" s="44"/>
     </row>
     <row r="26" spans="1:15" ht="15" customHeight="1">
       <c r="J26" s="44"/>
-      <c r="L26" s="152" t="s">
+      <c r="L26" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="153"/>
-      <c r="N26" s="153"/>
-      <c r="O26" s="158">
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="63">
         <f>SUM(O3+O17)</f>
-        <v>399</v>
+        <v>346</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="26.25" customHeight="1">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="64"/>
+      <c r="B27" s="161"/>
+      <c r="C27" s="161"/>
+      <c r="D27" s="161"/>
+      <c r="E27" s="162"/>
       <c r="J27" s="44"/>
-      <c r="L27" s="154"/>
-      <c r="M27" s="155"/>
-      <c r="N27" s="155"/>
-      <c r="O27" s="159"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="64"/>
     </row>
     <row r="28" spans="1:15" ht="18" customHeight="1">
       <c r="A28" s="48" t="s">
@@ -2589,21 +2593,21 @@
         <f>SUM(B6+B13+B20)</f>
         <v>50</v>
       </c>
-      <c r="C28" s="54">
+      <c r="C28" s="153">
         <f>SUM(B28+B29)</f>
-        <v>109</v>
-      </c>
-      <c r="D28" s="55"/>
-      <c r="E28" s="52">
-        <f>SUM(C28)</f>
-        <v>109</v>
-      </c>
-      <c r="G28" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="154"/>
+      <c r="E28" s="151">
+        <f>SUM(C28:C32)</f>
+        <v>202</v>
+      </c>
+      <c r="G28" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="85"/>
+      <c r="H28" s="136"/>
+      <c r="I28" s="136"/>
+      <c r="J28" s="137"/>
     </row>
     <row r="29" spans="1:15" ht="18" customHeight="1">
       <c r="A29" s="30" t="s">
@@ -2611,15 +2615,15 @@
       </c>
       <c r="B29" s="31">
         <f>SUM(B10+B17+B24)</f>
-        <v>59</v>
-      </c>
-      <c r="C29" s="56"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="52"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="88"/>
+        <v>60</v>
+      </c>
+      <c r="C29" s="155"/>
+      <c r="D29" s="156"/>
+      <c r="E29" s="151"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="139"/>
+      <c r="I29" s="139"/>
+      <c r="J29" s="140"/>
     </row>
     <row r="30" spans="1:15" ht="28.5" customHeight="1">
       <c r="A30" s="27" t="s">
@@ -2629,12 +2633,12 @@
         <f>SUM(B8+B15+B22)</f>
         <v>53</v>
       </c>
-      <c r="C30" s="58">
+      <c r="C30" s="62">
         <f>SUM(B30+B31)</f>
         <v>88</v>
       </c>
-      <c r="D30" s="59"/>
-      <c r="E30" s="52"/>
+      <c r="D30" s="157"/>
+      <c r="E30" s="151"/>
       <c r="L30" s="148" t="s">
         <v>39</v>
       </c>
@@ -2649,9 +2653,9 @@
         <f>SUM(B7+B14+B21)</f>
         <v>35</v>
       </c>
-      <c r="C31" s="58"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="52"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="151"/>
       <c r="L31" s="42" t="s">
         <v>40</v>
       </c>
@@ -2659,9 +2663,9 @@
         <f>SUM(C3)</f>
         <v>14</v>
       </c>
-      <c r="N31" s="65">
+      <c r="N31" s="121">
         <f>SUM(M31:M34)</f>
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="28.5" customHeight="1">
@@ -2672,20 +2676,20 @@
         <f>SUM(B16+B23)</f>
         <v>4</v>
       </c>
-      <c r="C32" s="60">
+      <c r="C32" s="158">
         <f>SUM(B32)</f>
         <v>4</v>
       </c>
-      <c r="D32" s="61"/>
-      <c r="E32" s="53"/>
+      <c r="D32" s="159"/>
+      <c r="E32" s="152"/>
       <c r="L32" s="38" t="s">
         <v>12</v>
       </c>
       <c r="M32" s="19">
         <f>SUM(C6+I3+I6)</f>
-        <v>106</v>
-      </c>
-      <c r="N32" s="66"/>
+        <v>107</v>
+      </c>
+      <c r="N32" s="122"/>
     </row>
     <row r="33" spans="12:16" ht="31.5" customHeight="1">
       <c r="L33" s="37" t="s">
@@ -2695,7 +2699,7 @@
         <f>SUM(C13+I12)</f>
         <v>86</v>
       </c>
-      <c r="N33" s="66"/>
+      <c r="N33" s="122"/>
       <c r="P33" s="26"/>
     </row>
     <row r="34" spans="12:16" ht="31.5" customHeight="1">
@@ -2706,7 +2710,7 @@
         <f>SUM(C20+I18+I24)</f>
         <v>78</v>
       </c>
-      <c r="N34" s="67"/>
+      <c r="N34" s="123"/>
     </row>
     <row r="35" spans="12:16" ht="31.5">
       <c r="L35" s="39" t="s">
@@ -2714,45 +2718,54 @@
       </c>
       <c r="M35" s="36">
         <f>SUM(O26)</f>
-        <v>399</v>
+        <v>346</v>
       </c>
       <c r="N35" s="40">
         <f>SUM(M35)</f>
-        <v>399</v>
+        <v>346</v>
       </c>
     </row>
     <row r="36" spans="12:16" ht="46.5">
       <c r="L36" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="M36" s="96">
+      <c r="M36" s="88">
         <f>SUM(N31:N35)</f>
-        <v>683</v>
-      </c>
-      <c r="N36" s="97"/>
+        <v>631</v>
+      </c>
+      <c r="N36" s="89"/>
     </row>
     <row r="37" spans="12:16" ht="62.1" customHeight="1"/>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="L26:N27"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="E3:E24"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="N31:N34"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="I18:I22"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J3:J25"/>
+    <mergeCell ref="G28:J29"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="N19:N20"/>
     <mergeCell ref="M36:N36"/>
     <mergeCell ref="O3:O15"/>
     <mergeCell ref="M7:M8"/>
@@ -2769,35 +2782,26 @@
     <mergeCell ref="M21:M22"/>
     <mergeCell ref="N21:N22"/>
     <mergeCell ref="L23:L24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="E3:E24"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="L26:N27"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="O26:O27"/>
     <mergeCell ref="O17:O24"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="N31:N34"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="I18:I22"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J3:J25"/>
-    <mergeCell ref="G28:J29"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="E28:E32"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="A27:E27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/docs/comp_student_numbers_2022.xlsx
+++ b/docs/comp_student_numbers_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssu-my.sharepoint.com/personal/martin_reid_solent_ac_uk/Documents/solent_store/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="851" documentId="8_{2550F169-BEF9-40D9-8733-B8C7482F9540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23E0B616-8DA4-4195-95DE-0E60AB0CA190}"/>
+  <xr:revisionPtr revIDLastSave="852" documentId="8_{2550F169-BEF9-40D9-8733-B8C7482F9540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD44DD96-A5FA-4D90-BD6C-7E4BE89BCEF2}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="600" windowWidth="51200" windowHeight="28340" xr2:uid="{145B23FD-6B6F-4D33-A52C-2CE972592F2A}"/>
   </bookViews>
@@ -1265,6 +1265,309 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1277,24 +1580,12 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1303,297 +1594,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1912,7 +1912,7 @@
   <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1982,19 +1982,19 @@
         <v>8</v>
       </c>
       <c r="B3" s="9">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C3" s="14">
         <f>SUM(B3)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D3" s="34">
         <f>SUM(C3/20)</f>
-        <v>0.7</v>
-      </c>
-      <c r="E3" s="77">
+        <v>0.95</v>
+      </c>
+      <c r="E3" s="143">
         <f>SUM(C3+C6+C13+C20)</f>
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>9</v>
@@ -2006,7 +2006,7 @@
         <f>SUM(H3)</f>
         <v>7</v>
       </c>
-      <c r="J3" s="90">
+      <c r="J3" s="81">
         <f>SUM(I3+I6+I12+I18+I24)</f>
         <v>69</v>
       </c>
@@ -2020,51 +2020,51 @@
         <f>SUM(M3/25)</f>
         <v>0.44</v>
       </c>
-      <c r="O3" s="90">
+      <c r="O3" s="81">
         <f>SUM(M3:M15)</f>
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A4" s="70"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="78"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143"/>
-      <c r="J4" s="91"/>
-      <c r="L4" s="114" t="s">
+      <c r="A4" s="138"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="144"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="82"/>
+      <c r="L4" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="116">
+      <c r="M4" s="102">
         <v>9</v>
       </c>
-      <c r="N4" s="98">
+      <c r="N4" s="104">
         <f t="shared" ref="N4" si="0">SUM(M4/25)</f>
         <v>0.36</v>
       </c>
-      <c r="O4" s="66"/>
+      <c r="O4" s="113"/>
     </row>
     <row r="5" spans="1:20" ht="16.5" customHeight="1">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="79"/>
-      <c r="G5" s="141" t="s">
+      <c r="B5" s="141"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="145"/>
+      <c r="G5" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="142"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="91"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="66"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="82"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="113"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1">
       <c r="A6" s="15" t="s">
@@ -2073,27 +2073,27 @@
       <c r="B6" s="16">
         <v>17</v>
       </c>
-      <c r="C6" s="81">
+      <c r="C6" s="147">
         <f>SUM(B6:B10)</f>
         <v>79</v>
       </c>
-      <c r="D6" s="58">
+      <c r="D6" s="109">
         <f>SUM(C6/20)</f>
         <v>3.95</v>
       </c>
-      <c r="E6" s="79"/>
+      <c r="E6" s="145"/>
       <c r="G6" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="19">
         <v>2</v>
       </c>
-      <c r="I6" s="61">
+      <c r="I6" s="71">
         <f>SUM(H6:H10)</f>
         <v>21</v>
       </c>
-      <c r="J6" s="91"/>
-      <c r="O6" s="91"/>
+      <c r="J6" s="82"/>
+      <c r="O6" s="82"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1">
       <c r="A7" s="6" t="s">
@@ -2102,28 +2102,28 @@
       <c r="B7" s="3">
         <v>12</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="79"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="145"/>
       <c r="G7" s="20" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="18">
         <v>0</v>
       </c>
-      <c r="I7" s="62"/>
-      <c r="J7" s="91"/>
-      <c r="L7" s="146" t="s">
+      <c r="I7" s="59"/>
+      <c r="J7" s="82"/>
+      <c r="L7" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="92">
+      <c r="M7" s="115">
         <v>16</v>
       </c>
-      <c r="N7" s="94">
+      <c r="N7" s="117">
         <f>SUM(M7/25)</f>
         <v>0.64</v>
       </c>
-      <c r="O7" s="91"/>
+      <c r="O7" s="82"/>
     </row>
     <row r="8" spans="1:20" ht="15" customHeight="1">
       <c r="A8" s="5" t="s">
@@ -2132,21 +2132,21 @@
       <c r="B8" s="4">
         <v>21</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="79"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="145"/>
       <c r="G8" s="21" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="19">
         <v>3</v>
       </c>
-      <c r="I8" s="62"/>
-      <c r="J8" s="91"/>
-      <c r="L8" s="147"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="91"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="82"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="118"/>
+      <c r="O8" s="82"/>
       <c r="T8" s="52"/>
     </row>
     <row r="9" spans="1:20" ht="15" customHeight="1">
@@ -2156,9 +2156,9 @@
       <c r="B9" s="3">
         <v>0</v>
       </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="79"/>
+      <c r="C9" s="148"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="145"/>
       <c r="G9" s="22" t="s">
         <v>22</v>
       </c>
@@ -2166,18 +2166,18 @@
         <v>16</v>
       </c>
       <c r="I9" s="72"/>
-      <c r="J9" s="91"/>
-      <c r="L9" s="96" t="s">
+      <c r="J9" s="82"/>
+      <c r="L9" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="98">
+      <c r="M9" s="104">
         <v>11</v>
       </c>
-      <c r="N9" s="100">
+      <c r="N9" s="121">
         <f>SUM(M9/25)</f>
         <v>0.44</v>
       </c>
-      <c r="O9" s="91"/>
+      <c r="O9" s="82"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
       <c r="A10" s="7" t="s">
@@ -2186,67 +2186,67 @@
       <c r="B10" s="8">
         <v>29</v>
       </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="79"/>
+      <c r="C10" s="149"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="145"/>
       <c r="I10" s="47"/>
-      <c r="J10" s="91"/>
-      <c r="L10" s="97"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="91"/>
+      <c r="J10" s="82"/>
+      <c r="L10" s="120"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="82"/>
       <c r="Q10">
         <f>SUM(M3+M7+M12+M17)</f>
         <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A11" s="70"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="78"/>
-      <c r="G11" s="124" t="s">
+      <c r="A11" s="138"/>
+      <c r="B11" s="138"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="144"/>
+      <c r="G11" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="125"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="91"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="82"/>
       <c r="L11" s="43"/>
       <c r="M11" s="32"/>
       <c r="N11" s="32"/>
-      <c r="O11" s="91"/>
+      <c r="O11" s="82"/>
     </row>
     <row r="12" spans="1:20" ht="16.5" customHeight="1">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="79"/>
+      <c r="B12" s="141"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="153"/>
+      <c r="E12" s="145"/>
       <c r="G12" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="19">
         <v>0</v>
       </c>
-      <c r="I12" s="61">
+      <c r="I12" s="71">
         <f>SUM(H12:H15)</f>
         <v>13</v>
       </c>
-      <c r="J12" s="91"/>
-      <c r="L12" s="144" t="s">
+      <c r="J12" s="82"/>
+      <c r="L12" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="M12" s="57">
+      <c r="M12" s="108">
         <v>19</v>
       </c>
-      <c r="N12" s="61">
+      <c r="N12" s="71">
         <f>SUM(M12/25)</f>
         <v>0.76</v>
       </c>
-      <c r="O12" s="91"/>
+      <c r="O12" s="82"/>
     </row>
     <row r="13" spans="1:20" ht="15" customHeight="1">
       <c r="A13" s="15" t="s">
@@ -2255,27 +2255,27 @@
       <c r="B13" s="16">
         <v>19</v>
       </c>
-      <c r="C13" s="81">
+      <c r="C13" s="147">
         <f>SUM(B13:B17)</f>
         <v>73</v>
       </c>
-      <c r="D13" s="57">
+      <c r="D13" s="108">
         <f>SUM(C13/20)</f>
         <v>3.65</v>
       </c>
-      <c r="E13" s="79"/>
+      <c r="E13" s="145"/>
       <c r="G13" s="20" t="s">
         <v>17</v>
       </c>
       <c r="H13" s="18">
         <v>1</v>
       </c>
-      <c r="I13" s="62"/>
-      <c r="J13" s="91"/>
-      <c r="L13" s="145"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="91"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="82"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="109"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="82"/>
     </row>
     <row r="14" spans="1:20" ht="15" customHeight="1">
       <c r="A14" s="6" t="s">
@@ -2284,28 +2284,28 @@
       <c r="B14" s="3">
         <v>15</v>
       </c>
-      <c r="C14" s="82"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="79"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="145"/>
       <c r="G14" s="20" t="s">
         <v>20</v>
       </c>
       <c r="H14" s="18">
         <v>3</v>
       </c>
-      <c r="I14" s="62"/>
-      <c r="J14" s="91"/>
-      <c r="L14" s="102" t="s">
+      <c r="I14" s="59"/>
+      <c r="J14" s="82"/>
+      <c r="L14" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="M14" s="104">
+      <c r="M14" s="125">
         <v>13</v>
       </c>
-      <c r="N14" s="57">
+      <c r="N14" s="108">
         <f>SUM(M14/25)</f>
         <v>0.52</v>
       </c>
-      <c r="O14" s="66"/>
+      <c r="O14" s="113"/>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1">
       <c r="A15" s="5" t="s">
@@ -2314,9 +2314,9 @@
       <c r="B15" s="4">
         <v>22</v>
       </c>
-      <c r="C15" s="82"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="79"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="145"/>
       <c r="G15" s="24" t="s">
         <v>22</v>
       </c>
@@ -2324,11 +2324,11 @@
         <v>9</v>
       </c>
       <c r="I15" s="72"/>
-      <c r="J15" s="91"/>
-      <c r="L15" s="103"/>
-      <c r="M15" s="105"/>
-      <c r="N15" s="76"/>
-      <c r="O15" s="67"/>
+      <c r="J15" s="82"/>
+      <c r="L15" s="124"/>
+      <c r="M15" s="126"/>
+      <c r="N15" s="127"/>
+      <c r="O15" s="114"/>
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1">
       <c r="A16" s="33" t="s">
@@ -2337,10 +2337,10 @@
       <c r="B16" s="3">
         <v>0</v>
       </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="79"/>
-      <c r="J16" s="91"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="145"/>
+      <c r="J16" s="82"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="7" t="s">
@@ -2349,79 +2349,79 @@
       <c r="B17" s="8">
         <v>17</v>
       </c>
-      <c r="C17" s="83"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="79"/>
-      <c r="G17" s="126" t="s">
+      <c r="C17" s="149"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="145"/>
+      <c r="G17" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="127"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="91"/>
-      <c r="L17" s="59" t="s">
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="82"/>
+      <c r="L17" s="158" t="s">
         <v>29</v>
       </c>
-      <c r="M17" s="61">
+      <c r="M17" s="71">
         <v>60</v>
       </c>
-      <c r="N17" s="57">
+      <c r="N17" s="108">
         <f>SUM(M17/25)</f>
         <v>2.4</v>
       </c>
-      <c r="O17" s="65">
+      <c r="O17" s="162">
         <f>SUM(M17:M23)</f>
         <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A18" s="70"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="78"/>
+      <c r="A18" s="138"/>
+      <c r="B18" s="138"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="144"/>
       <c r="G18" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
       </c>
-      <c r="I18" s="61">
+      <c r="I18" s="71">
         <f>SUM(H18:H22)</f>
         <v>15</v>
       </c>
-      <c r="J18" s="91"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="66"/>
+      <c r="J18" s="82"/>
+      <c r="L18" s="159"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="109"/>
+      <c r="O18" s="113"/>
     </row>
     <row r="19" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="79"/>
+      <c r="B19" s="141"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="145"/>
       <c r="G19" s="5" t="s">
         <v>17</v>
       </c>
       <c r="H19" s="4">
         <v>1</v>
       </c>
-      <c r="I19" s="62"/>
-      <c r="J19" s="91"/>
-      <c r="L19" s="106" t="s">
+      <c r="I19" s="59"/>
+      <c r="J19" s="82"/>
+      <c r="L19" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="M19" s="104">
+      <c r="M19" s="125">
         <v>107</v>
       </c>
-      <c r="N19" s="98">
+      <c r="N19" s="104">
         <f>SUM(M19/25)</f>
         <v>4.28</v>
       </c>
-      <c r="O19" s="66"/>
+      <c r="O19" s="113"/>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1">
       <c r="A20" s="15" t="s">
@@ -2430,27 +2430,27 @@
       <c r="B20" s="16">
         <v>14</v>
       </c>
-      <c r="C20" s="84">
+      <c r="C20" s="150">
         <f>SUM(B20:B24)</f>
         <v>50</v>
       </c>
-      <c r="D20" s="68">
+      <c r="D20" s="136">
         <f>SUM(C20/20)</f>
         <v>2.5</v>
       </c>
-      <c r="E20" s="78"/>
+      <c r="E20" s="144"/>
       <c r="G20" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H20" s="3">
         <v>1</v>
       </c>
-      <c r="I20" s="62"/>
-      <c r="J20" s="91"/>
-      <c r="L20" s="107"/>
-      <c r="M20" s="110"/>
-      <c r="N20" s="120"/>
-      <c r="O20" s="66"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="82"/>
+      <c r="L20" s="129"/>
+      <c r="M20" s="132"/>
+      <c r="N20" s="110"/>
+      <c r="O20" s="113"/>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1">
       <c r="A21" s="6" t="s">
@@ -2459,28 +2459,28 @@
       <c r="B21" s="3">
         <v>8</v>
       </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="78"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="144"/>
       <c r="G21" s="5" t="s">
         <v>20</v>
       </c>
       <c r="H21" s="4">
         <v>2</v>
       </c>
-      <c r="I21" s="62"/>
-      <c r="J21" s="91"/>
-      <c r="L21" s="108" t="s">
+      <c r="I21" s="59"/>
+      <c r="J21" s="82"/>
+      <c r="L21" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="111">
+      <c r="M21" s="133">
         <v>100</v>
       </c>
-      <c r="N21" s="92">
+      <c r="N21" s="115">
         <f t="shared" ref="N21" si="1">SUM(M21/25)</f>
         <v>4</v>
       </c>
-      <c r="O21" s="66"/>
+      <c r="O21" s="113"/>
     </row>
     <row r="22" spans="1:15" ht="15" customHeight="1">
       <c r="A22" s="5" t="s">
@@ -2489,9 +2489,9 @@
       <c r="B22" s="4">
         <v>10</v>
       </c>
-      <c r="C22" s="85"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="78"/>
+      <c r="C22" s="151"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="144"/>
       <c r="G22" s="12" t="s">
         <v>22</v>
       </c>
@@ -2499,11 +2499,11 @@
         <v>10</v>
       </c>
       <c r="I22" s="72"/>
-      <c r="J22" s="91"/>
-      <c r="L22" s="109"/>
-      <c r="M22" s="112"/>
-      <c r="N22" s="113"/>
-      <c r="O22" s="66"/>
+      <c r="J22" s="82"/>
+      <c r="L22" s="131"/>
+      <c r="M22" s="134"/>
+      <c r="N22" s="135"/>
+      <c r="O22" s="113"/>
     </row>
     <row r="23" spans="1:15" ht="15" customHeight="1">
       <c r="A23" s="6" t="s">
@@ -2512,19 +2512,19 @@
       <c r="B23" s="3">
         <v>4</v>
       </c>
-      <c r="C23" s="85"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="78"/>
-      <c r="J23" s="91"/>
-      <c r="L23" s="114" t="s">
+      <c r="C23" s="151"/>
+      <c r="D23" s="136"/>
+      <c r="E23" s="144"/>
+      <c r="J23" s="82"/>
+      <c r="L23" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="M23" s="118"/>
-      <c r="N23" s="98">
+      <c r="M23" s="106"/>
+      <c r="N23" s="104">
         <f t="shared" ref="N23" si="2">SUM(M23/25)</f>
         <v>0</v>
       </c>
-      <c r="O23" s="66"/>
+      <c r="O23" s="113"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1">
       <c r="A24" s="7" t="s">
@@ -2533,57 +2533,57 @@
       <c r="B24" s="8">
         <v>14</v>
       </c>
-      <c r="C24" s="86"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="80"/>
-      <c r="G24" s="128" t="s">
+      <c r="C24" s="152"/>
+      <c r="D24" s="137"/>
+      <c r="E24" s="146"/>
+      <c r="G24" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="130">
+      <c r="H24" s="77">
         <v>13</v>
       </c>
-      <c r="I24" s="132">
+      <c r="I24" s="79">
         <f>SUM(H24)</f>
         <v>13</v>
       </c>
-      <c r="J24" s="91"/>
-      <c r="L24" s="115"/>
-      <c r="M24" s="119"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="67"/>
+      <c r="J24" s="82"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="107"/>
+      <c r="N24" s="105"/>
+      <c r="O24" s="114"/>
     </row>
     <row r="25" spans="1:15" ht="15" customHeight="1">
-      <c r="G25" s="129"/>
-      <c r="H25" s="131"/>
-      <c r="I25" s="133"/>
-      <c r="J25" s="134"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="83"/>
       <c r="O25" s="44"/>
     </row>
     <row r="26" spans="1:15" ht="15" customHeight="1">
       <c r="J26" s="44"/>
-      <c r="L26" s="53" t="s">
+      <c r="L26" s="154" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="63">
+      <c r="M26" s="155"/>
+      <c r="N26" s="155"/>
+      <c r="O26" s="160">
         <f>SUM(O3+O17)</f>
         <v>346</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="26.25" customHeight="1">
-      <c r="A27" s="160" t="s">
+      <c r="A27" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="161"/>
-      <c r="C27" s="161"/>
-      <c r="D27" s="161"/>
-      <c r="E27" s="162"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="65"/>
       <c r="J27" s="44"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="64"/>
+      <c r="L27" s="156"/>
+      <c r="M27" s="157"/>
+      <c r="N27" s="157"/>
+      <c r="O27" s="161"/>
     </row>
     <row r="28" spans="1:15" ht="18" customHeight="1">
       <c r="A28" s="48" t="s">
@@ -2593,21 +2593,21 @@
         <f>SUM(B6+B13+B20)</f>
         <v>50</v>
       </c>
-      <c r="C28" s="153">
+      <c r="C28" s="55">
         <f>SUM(B28+B29)</f>
         <v>110</v>
       </c>
-      <c r="D28" s="154"/>
-      <c r="E28" s="151">
+      <c r="D28" s="56"/>
+      <c r="E28" s="53">
         <f>SUM(C28:C32)</f>
         <v>202</v>
       </c>
-      <c r="G28" s="135" t="s">
+      <c r="G28" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="H28" s="136"/>
-      <c r="I28" s="136"/>
-      <c r="J28" s="137"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="86"/>
     </row>
     <row r="29" spans="1:15" ht="18" customHeight="1">
       <c r="A29" s="30" t="s">
@@ -2617,13 +2617,13 @@
         <f>SUM(B10+B17+B24)</f>
         <v>60</v>
       </c>
-      <c r="C29" s="155"/>
-      <c r="D29" s="156"/>
-      <c r="E29" s="151"/>
-      <c r="G29" s="138"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="139"/>
-      <c r="J29" s="140"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="53"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="89"/>
     </row>
     <row r="30" spans="1:15" ht="28.5" customHeight="1">
       <c r="A30" s="27" t="s">
@@ -2633,17 +2633,17 @@
         <f>SUM(B8+B15+B22)</f>
         <v>53</v>
       </c>
-      <c r="C30" s="62">
+      <c r="C30" s="59">
         <f>SUM(B30+B31)</f>
         <v>88</v>
       </c>
-      <c r="D30" s="157"/>
-      <c r="E30" s="151"/>
-      <c r="L30" s="148" t="s">
+      <c r="D30" s="60"/>
+      <c r="E30" s="53"/>
+      <c r="L30" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="M30" s="149"/>
-      <c r="N30" s="150"/>
+      <c r="M30" s="100"/>
+      <c r="N30" s="101"/>
     </row>
     <row r="31" spans="1:15" ht="28.5" customHeight="1">
       <c r="A31" s="51" t="s">
@@ -2653,19 +2653,19 @@
         <f>SUM(B7+B14+B21)</f>
         <v>35</v>
       </c>
-      <c r="C31" s="62"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="151"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="53"/>
       <c r="L31" s="42" t="s">
         <v>40</v>
       </c>
       <c r="M31" s="25">
         <f>SUM(C3)</f>
-        <v>14</v>
-      </c>
-      <c r="N31" s="121">
+        <v>19</v>
+      </c>
+      <c r="N31" s="66">
         <f>SUM(M31:M34)</f>
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="28.5" customHeight="1">
@@ -2676,12 +2676,12 @@
         <f>SUM(B16+B23)</f>
         <v>4</v>
       </c>
-      <c r="C32" s="158">
+      <c r="C32" s="61">
         <f>SUM(B32)</f>
         <v>4</v>
       </c>
-      <c r="D32" s="159"/>
-      <c r="E32" s="152"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="54"/>
       <c r="L32" s="38" t="s">
         <v>12</v>
       </c>
@@ -2689,7 +2689,7 @@
         <f>SUM(C6+I3+I6)</f>
         <v>107</v>
       </c>
-      <c r="N32" s="122"/>
+      <c r="N32" s="67"/>
     </row>
     <row r="33" spans="12:16" ht="31.5" customHeight="1">
       <c r="L33" s="37" t="s">
@@ -2699,7 +2699,7 @@
         <f>SUM(C13+I12)</f>
         <v>86</v>
       </c>
-      <c r="N33" s="122"/>
+      <c r="N33" s="67"/>
       <c r="P33" s="26"/>
     </row>
     <row r="34" spans="12:16" ht="31.5" customHeight="1">
@@ -2710,7 +2710,7 @@
         <f>SUM(C20+I18+I24)</f>
         <v>78</v>
       </c>
-      <c r="N34" s="123"/>
+      <c r="N34" s="68"/>
     </row>
     <row r="35" spans="12:16" ht="31.5">
       <c r="L35" s="39" t="s">
@@ -2729,20 +2729,58 @@
       <c r="L36" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="M36" s="88">
+      <c r="M36" s="111">
         <f>SUM(N31:N35)</f>
-        <v>631</v>
-      </c>
-      <c r="N36" s="89"/>
+        <v>636</v>
+      </c>
+      <c r="N36" s="112"/>
     </row>
     <row r="37" spans="12:16" ht="62.1" customHeight="1"/>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="E28:E32"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="L26:N27"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="O17:O24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="E3:E24"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O3:O15"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="N19:N20"/>
     <mergeCell ref="N31:N34"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="I12:I15"/>
@@ -2759,49 +2797,11 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="L30:N30"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O3:O15"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="E3:E24"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="L26:N27"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="O17:O24"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="A27:E27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/docs/comp_student_numbers_2022.xlsx
+++ b/docs/comp_student_numbers_2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26914"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssu-my.sharepoint.com/personal/martin_reid_solent_ac_uk/Documents/solent_store/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="852" documentId="8_{2550F169-BEF9-40D9-8733-B8C7482F9540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD44DD96-A5FA-4D90-BD6C-7E4BE89BCEF2}"/>
+  <xr:revisionPtr revIDLastSave="889" documentId="8_{2550F169-BEF9-40D9-8733-B8C7482F9540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE5399F2-A4E7-44D2-A524-88BFEC9AD6A5}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="600" windowWidth="51200" windowHeight="28340" xr2:uid="{145B23FD-6B6F-4D33-A52C-2CE972592F2A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
   <si>
     <t>Under Grads</t>
   </si>
@@ -152,7 +152,7 @@
     <t>UG BSc Course Breakdown Totals</t>
   </si>
   <si>
-    <t>Updated (14-9-23)</t>
+    <t>Updated (19-9-23)</t>
   </si>
   <si>
     <t>All Level Totals</t>
@@ -399,7 +399,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -1105,13 +1105,63 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1255,26 +1305,41 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1301,7 +1366,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1402,15 +1470,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1526,15 +1585,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1563,9 +1613,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1594,6 +1641,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1912,7 +1968,7 @@
   <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2006,7 +2062,7 @@
         <f>SUM(H3)</f>
         <v>7</v>
       </c>
-      <c r="J3" s="81">
+      <c r="J3" s="87">
         <f>SUM(I3+I6+I12+I18+I24)</f>
         <v>69</v>
       </c>
@@ -2020,51 +2076,51 @@
         <f>SUM(M3/25)</f>
         <v>0.44</v>
       </c>
-      <c r="O3" s="81">
+      <c r="O3" s="87">
         <f>SUM(M3:M15)</f>
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A4" s="138"/>
-      <c r="B4" s="138"/>
-      <c r="C4" s="138"/>
-      <c r="D4" s="139"/>
+      <c r="A4" s="141"/>
+      <c r="B4" s="141"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="142"/>
       <c r="E4" s="144"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="82"/>
-      <c r="L4" s="97" t="s">
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="88"/>
+      <c r="L4" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="102">
+      <c r="M4" s="105">
         <v>9</v>
       </c>
-      <c r="N4" s="104">
+      <c r="N4" s="107">
         <f t="shared" ref="N4" si="0">SUM(M4/25)</f>
         <v>0.36</v>
       </c>
-      <c r="O4" s="113"/>
+      <c r="O4" s="116"/>
     </row>
     <row r="5" spans="1:20" ht="16.5" customHeight="1">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="141"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="142"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="163"/>
       <c r="E5" s="145"/>
-      <c r="G5" s="90" t="s">
+      <c r="G5" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="91"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="82"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="113"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="88"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="116"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1">
       <c r="A6" s="15" t="s">
@@ -2077,7 +2133,7 @@
         <f>SUM(B6:B10)</f>
         <v>79</v>
       </c>
-      <c r="D6" s="109">
+      <c r="D6" s="112">
         <f>SUM(C6/20)</f>
         <v>3.95</v>
       </c>
@@ -2088,12 +2144,12 @@
       <c r="H6" s="19">
         <v>2</v>
       </c>
-      <c r="I6" s="71">
+      <c r="I6" s="77">
         <f>SUM(H6:H10)</f>
         <v>21</v>
       </c>
-      <c r="J6" s="82"/>
-      <c r="O6" s="82"/>
+      <c r="J6" s="88"/>
+      <c r="O6" s="88"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1">
       <c r="A7" s="6" t="s">
@@ -2103,7 +2159,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="148"/>
-      <c r="D7" s="109"/>
+      <c r="D7" s="112"/>
       <c r="E7" s="145"/>
       <c r="G7" s="20" t="s">
         <v>17</v>
@@ -2111,19 +2167,19 @@
       <c r="H7" s="18">
         <v>0</v>
       </c>
-      <c r="I7" s="59"/>
-      <c r="J7" s="82"/>
-      <c r="L7" s="95" t="s">
+      <c r="I7" s="64"/>
+      <c r="J7" s="88"/>
+      <c r="L7" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="115">
+      <c r="M7" s="118">
         <v>16</v>
       </c>
-      <c r="N7" s="117">
+      <c r="N7" s="120">
         <f>SUM(M7/25)</f>
         <v>0.64</v>
       </c>
-      <c r="O7" s="82"/>
+      <c r="O7" s="88"/>
     </row>
     <row r="8" spans="1:20" ht="15" customHeight="1">
       <c r="A8" s="5" t="s">
@@ -2133,7 +2189,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="148"/>
-      <c r="D8" s="109"/>
+      <c r="D8" s="112"/>
       <c r="E8" s="145"/>
       <c r="G8" s="21" t="s">
         <v>20</v>
@@ -2141,13 +2197,13 @@
       <c r="H8" s="19">
         <v>3</v>
       </c>
-      <c r="I8" s="59"/>
-      <c r="J8" s="82"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="118"/>
-      <c r="O8" s="82"/>
-      <c r="T8" s="52"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="88"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="119"/>
+      <c r="N8" s="121"/>
+      <c r="O8" s="88"/>
+      <c r="T8" s="50"/>
     </row>
     <row r="9" spans="1:20" ht="15" customHeight="1">
       <c r="A9" s="33" t="s">
@@ -2157,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="148"/>
-      <c r="D9" s="109"/>
+      <c r="D9" s="112"/>
       <c r="E9" s="145"/>
       <c r="G9" s="22" t="s">
         <v>22</v>
@@ -2165,19 +2221,19 @@
       <c r="H9" s="23">
         <v>16</v>
       </c>
-      <c r="I9" s="72"/>
-      <c r="J9" s="82"/>
-      <c r="L9" s="119" t="s">
+      <c r="I9" s="78"/>
+      <c r="J9" s="88"/>
+      <c r="L9" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="104">
-        <v>11</v>
-      </c>
-      <c r="N9" s="121">
+      <c r="M9" s="107">
+        <v>20</v>
+      </c>
+      <c r="N9" s="124">
         <f>SUM(M9/25)</f>
-        <v>0.44</v>
-      </c>
-      <c r="O9" s="82"/>
+        <v>0.8</v>
+      </c>
+      <c r="O9" s="88"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
       <c r="A10" s="7" t="s">
@@ -2187,43 +2243,39 @@
         <v>29</v>
       </c>
       <c r="C10" s="149"/>
-      <c r="D10" s="127"/>
+      <c r="D10" s="130"/>
       <c r="E10" s="145"/>
       <c r="I10" s="47"/>
-      <c r="J10" s="82"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="105"/>
-      <c r="N10" s="122"/>
-      <c r="O10" s="82"/>
-      <c r="Q10">
-        <f>SUM(M3+M7+M12+M17)</f>
-        <v>106</v>
-      </c>
+      <c r="J10" s="88"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="125"/>
+      <c r="O10" s="88"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A11" s="138"/>
-      <c r="B11" s="138"/>
-      <c r="C11" s="138"/>
-      <c r="D11" s="139"/>
+      <c r="A11" s="141"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="142"/>
       <c r="E11" s="144"/>
-      <c r="G11" s="69" t="s">
+      <c r="G11" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="82"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="88"/>
       <c r="L11" s="43"/>
       <c r="M11" s="32"/>
       <c r="N11" s="32"/>
-      <c r="O11" s="82"/>
+      <c r="O11" s="88"/>
     </row>
     <row r="12" spans="1:20" ht="16.5" customHeight="1">
-      <c r="A12" s="140" t="s">
+      <c r="A12" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="141"/>
-      <c r="C12" s="141"/>
-      <c r="D12" s="153"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="164"/>
       <c r="E12" s="145"/>
       <c r="G12" s="21" t="s">
         <v>15</v>
@@ -2231,22 +2283,22 @@
       <c r="H12" s="19">
         <v>0</v>
       </c>
-      <c r="I12" s="71">
+      <c r="I12" s="77">
         <f>SUM(H12:H15)</f>
         <v>13</v>
       </c>
-      <c r="J12" s="82"/>
-      <c r="L12" s="93" t="s">
+      <c r="J12" s="88"/>
+      <c r="L12" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="M12" s="108">
+      <c r="M12" s="111">
         <v>19</v>
       </c>
-      <c r="N12" s="71">
+      <c r="N12" s="77">
         <f>SUM(M12/25)</f>
         <v>0.76</v>
       </c>
-      <c r="O12" s="82"/>
+      <c r="O12" s="88"/>
     </row>
     <row r="13" spans="1:20" ht="15" customHeight="1">
       <c r="A13" s="15" t="s">
@@ -2259,7 +2311,7 @@
         <f>SUM(B13:B17)</f>
         <v>73</v>
       </c>
-      <c r="D13" s="108">
+      <c r="D13" s="111">
         <f>SUM(C13/20)</f>
         <v>3.65</v>
       </c>
@@ -2270,12 +2322,12 @@
       <c r="H13" s="18">
         <v>1</v>
       </c>
-      <c r="I13" s="59"/>
-      <c r="J13" s="82"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="109"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="82"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="88"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="88"/>
     </row>
     <row r="14" spans="1:20" ht="15" customHeight="1">
       <c r="A14" s="6" t="s">
@@ -2285,7 +2337,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="148"/>
-      <c r="D14" s="109"/>
+      <c r="D14" s="112"/>
       <c r="E14" s="145"/>
       <c r="G14" s="20" t="s">
         <v>20</v>
@@ -2293,19 +2345,19 @@
       <c r="H14" s="18">
         <v>3</v>
       </c>
-      <c r="I14" s="59"/>
-      <c r="J14" s="82"/>
-      <c r="L14" s="123" t="s">
+      <c r="I14" s="64"/>
+      <c r="J14" s="88"/>
+      <c r="L14" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="M14" s="125">
+      <c r="M14" s="128">
         <v>13</v>
       </c>
-      <c r="N14" s="108">
+      <c r="N14" s="111">
         <f>SUM(M14/25)</f>
         <v>0.52</v>
       </c>
-      <c r="O14" s="113"/>
+      <c r="O14" s="116"/>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1">
       <c r="A15" s="5" t="s">
@@ -2315,7 +2367,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="148"/>
-      <c r="D15" s="109"/>
+      <c r="D15" s="112"/>
       <c r="E15" s="145"/>
       <c r="G15" s="24" t="s">
         <v>22</v>
@@ -2323,12 +2375,12 @@
       <c r="H15" s="29">
         <v>9</v>
       </c>
-      <c r="I15" s="72"/>
-      <c r="J15" s="82"/>
-      <c r="L15" s="124"/>
-      <c r="M15" s="126"/>
-      <c r="N15" s="127"/>
-      <c r="O15" s="114"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="88"/>
+      <c r="L15" s="127"/>
+      <c r="M15" s="129"/>
+      <c r="N15" s="130"/>
+      <c r="O15" s="117"/>
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1">
       <c r="A16" s="33" t="s">
@@ -2338,9 +2390,9 @@
         <v>0</v>
       </c>
       <c r="C16" s="148"/>
-      <c r="D16" s="109"/>
+      <c r="D16" s="112"/>
       <c r="E16" s="145"/>
-      <c r="J16" s="82"/>
+      <c r="J16" s="88"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="7" t="s">
@@ -2350,34 +2402,34 @@
         <v>17</v>
       </c>
       <c r="C17" s="149"/>
-      <c r="D17" s="127"/>
+      <c r="D17" s="130"/>
       <c r="E17" s="145"/>
-      <c r="G17" s="73" t="s">
+      <c r="G17" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="82"/>
-      <c r="L17" s="158" t="s">
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="88"/>
+      <c r="L17" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="M17" s="71">
+      <c r="M17" s="77">
         <v>60</v>
       </c>
-      <c r="N17" s="108">
+      <c r="N17" s="111">
         <f>SUM(M17/25)</f>
         <v>2.4</v>
       </c>
-      <c r="O17" s="162">
+      <c r="O17" s="161">
         <f>SUM(M17:M23)</f>
-        <v>267</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A18" s="138"/>
-      <c r="B18" s="138"/>
-      <c r="C18" s="138"/>
-      <c r="D18" s="139"/>
+      <c r="A18" s="141"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="142"/>
       <c r="E18" s="144"/>
       <c r="G18" s="6" t="s">
         <v>15</v>
@@ -2385,23 +2437,23 @@
       <c r="H18" s="3">
         <v>1</v>
       </c>
-      <c r="I18" s="71">
+      <c r="I18" s="77">
         <f>SUM(H18:H22)</f>
         <v>15</v>
       </c>
-      <c r="J18" s="82"/>
-      <c r="L18" s="159"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="109"/>
-      <c r="O18" s="113"/>
+      <c r="J18" s="88"/>
+      <c r="L18" s="158"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="112"/>
+      <c r="O18" s="116"/>
     </row>
     <row r="19" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A19" s="140" t="s">
+      <c r="A19" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="141"/>
-      <c r="C19" s="141"/>
-      <c r="D19" s="142"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="163"/>
       <c r="E19" s="145"/>
       <c r="G19" s="5" t="s">
         <v>17</v>
@@ -2409,19 +2461,19 @@
       <c r="H19" s="4">
         <v>1</v>
       </c>
-      <c r="I19" s="59"/>
-      <c r="J19" s="82"/>
-      <c r="L19" s="128" t="s">
+      <c r="I19" s="64"/>
+      <c r="J19" s="88"/>
+      <c r="L19" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="M19" s="125">
+      <c r="M19" s="128">
         <v>107</v>
       </c>
-      <c r="N19" s="104">
+      <c r="N19" s="107">
         <f>SUM(M19/25)</f>
         <v>4.28</v>
       </c>
-      <c r="O19" s="113"/>
+      <c r="O19" s="116"/>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1">
       <c r="A20" s="15" t="s">
@@ -2434,7 +2486,7 @@
         <f>SUM(B20:B24)</f>
         <v>50</v>
       </c>
-      <c r="D20" s="136">
+      <c r="D20" s="139">
         <f>SUM(C20/20)</f>
         <v>2.5</v>
       </c>
@@ -2445,12 +2497,12 @@
       <c r="H20" s="3">
         <v>1</v>
       </c>
-      <c r="I20" s="59"/>
-      <c r="J20" s="82"/>
-      <c r="L20" s="129"/>
-      <c r="M20" s="132"/>
-      <c r="N20" s="110"/>
-      <c r="O20" s="113"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="88"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="135"/>
+      <c r="N20" s="113"/>
+      <c r="O20" s="116"/>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1">
       <c r="A21" s="6" t="s">
@@ -2460,7 +2512,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="151"/>
-      <c r="D21" s="136"/>
+      <c r="D21" s="139"/>
       <c r="E21" s="144"/>
       <c r="G21" s="5" t="s">
         <v>20</v>
@@ -2468,19 +2520,19 @@
       <c r="H21" s="4">
         <v>2</v>
       </c>
-      <c r="I21" s="59"/>
-      <c r="J21" s="82"/>
-      <c r="L21" s="130" t="s">
+      <c r="I21" s="64"/>
+      <c r="J21" s="88"/>
+      <c r="L21" s="133" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="133">
-        <v>100</v>
-      </c>
-      <c r="N21" s="115">
+      <c r="M21" s="136">
+        <v>65</v>
+      </c>
+      <c r="N21" s="118">
         <f t="shared" ref="N21" si="1">SUM(M21/25)</f>
-        <v>4</v>
-      </c>
-      <c r="O21" s="113"/>
+        <v>2.6</v>
+      </c>
+      <c r="O21" s="116"/>
     </row>
     <row r="22" spans="1:15" ht="15" customHeight="1">
       <c r="A22" s="5" t="s">
@@ -2490,7 +2542,7 @@
         <v>10</v>
       </c>
       <c r="C22" s="151"/>
-      <c r="D22" s="136"/>
+      <c r="D22" s="139"/>
       <c r="E22" s="144"/>
       <c r="G22" s="12" t="s">
         <v>22</v>
@@ -2498,12 +2550,12 @@
       <c r="H22" s="13">
         <v>10</v>
       </c>
-      <c r="I22" s="72"/>
-      <c r="J22" s="82"/>
-      <c r="L22" s="131"/>
-      <c r="M22" s="134"/>
-      <c r="N22" s="135"/>
-      <c r="O22" s="113"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="88"/>
+      <c r="L22" s="134"/>
+      <c r="M22" s="137"/>
+      <c r="N22" s="138"/>
+      <c r="O22" s="116"/>
     </row>
     <row r="23" spans="1:15" ht="15" customHeight="1">
       <c r="A23" s="6" t="s">
@@ -2513,18 +2565,18 @@
         <v>4</v>
       </c>
       <c r="C23" s="151"/>
-      <c r="D23" s="136"/>
+      <c r="D23" s="139"/>
       <c r="E23" s="144"/>
-      <c r="J23" s="82"/>
-      <c r="L23" s="97" t="s">
+      <c r="J23" s="88"/>
+      <c r="L23" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="M23" s="106"/>
-      <c r="N23" s="104">
+      <c r="M23" s="109"/>
+      <c r="N23" s="107">
         <f t="shared" ref="N23" si="2">SUM(M23/25)</f>
         <v>0</v>
       </c>
-      <c r="O23" s="113"/>
+      <c r="O23" s="116"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1">
       <c r="A24" s="7" t="s">
@@ -2534,56 +2586,56 @@
         <v>14</v>
       </c>
       <c r="C24" s="152"/>
-      <c r="D24" s="137"/>
+      <c r="D24" s="140"/>
       <c r="E24" s="146"/>
-      <c r="G24" s="75" t="s">
+      <c r="G24" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="77">
+      <c r="H24" s="83">
         <v>13</v>
       </c>
-      <c r="I24" s="79">
+      <c r="I24" s="85">
         <f>SUM(H24)</f>
         <v>13</v>
       </c>
-      <c r="J24" s="82"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="107"/>
-      <c r="N24" s="105"/>
-      <c r="O24" s="114"/>
+      <c r="J24" s="88"/>
+      <c r="L24" s="104"/>
+      <c r="M24" s="110"/>
+      <c r="N24" s="108"/>
+      <c r="O24" s="117"/>
     </row>
     <row r="25" spans="1:15" ht="15" customHeight="1">
-      <c r="G25" s="76"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="83"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="89"/>
       <c r="O25" s="44"/>
     </row>
     <row r="26" spans="1:15" ht="15" customHeight="1">
       <c r="J26" s="44"/>
-      <c r="L26" s="154" t="s">
+      <c r="L26" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="155"/>
-      <c r="N26" s="155"/>
-      <c r="O26" s="160">
+      <c r="M26" s="154"/>
+      <c r="N26" s="154"/>
+      <c r="O26" s="159">
         <f>SUM(O3+O17)</f>
-        <v>346</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="26.25" customHeight="1">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="65"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="71"/>
       <c r="J27" s="44"/>
-      <c r="L27" s="156"/>
-      <c r="M27" s="157"/>
-      <c r="N27" s="157"/>
-      <c r="O27" s="161"/>
+      <c r="L27" s="155"/>
+      <c r="M27" s="156"/>
+      <c r="N27" s="156"/>
+      <c r="O27" s="160"/>
     </row>
     <row r="28" spans="1:15" ht="18" customHeight="1">
       <c r="A28" s="48" t="s">
@@ -2593,21 +2645,21 @@
         <f>SUM(B6+B13+B20)</f>
         <v>50</v>
       </c>
-      <c r="C28" s="55">
+      <c r="C28" s="60">
         <f>SUM(B28+B29)</f>
         <v>110</v>
       </c>
-      <c r="D28" s="56"/>
-      <c r="E28" s="53">
-        <f>SUM(C28:C32)</f>
-        <v>202</v>
-      </c>
-      <c r="G28" s="84" t="s">
+      <c r="D28" s="61"/>
+      <c r="E28" s="57">
+        <f>SUM(C28:C33)</f>
+        <v>271</v>
+      </c>
+      <c r="G28" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="86"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="92"/>
     </row>
     <row r="29" spans="1:15" ht="18" customHeight="1">
       <c r="A29" s="30" t="s">
@@ -2617,13 +2669,13 @@
         <f>SUM(B10+B17+B24)</f>
         <v>60</v>
       </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="53"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="89"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="58"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="95"/>
     </row>
     <row r="30" spans="1:15" ht="28.5" customHeight="1">
       <c r="A30" s="27" t="s">
@@ -2633,29 +2685,29 @@
         <f>SUM(B8+B15+B22)</f>
         <v>53</v>
       </c>
-      <c r="C30" s="59">
+      <c r="C30" s="64">
         <f>SUM(B30+B31)</f>
         <v>88</v>
       </c>
-      <c r="D30" s="60"/>
-      <c r="E30" s="53"/>
-      <c r="L30" s="99" t="s">
+      <c r="D30" s="65"/>
+      <c r="E30" s="58"/>
+      <c r="L30" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="M30" s="100"/>
-      <c r="N30" s="101"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="162"/>
     </row>
     <row r="31" spans="1:15" ht="28.5" customHeight="1">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="49" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="35">
         <f>SUM(B7+B14+B21)</f>
         <v>35</v>
       </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="53"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="58"/>
       <c r="L31" s="42" t="s">
         <v>40</v>
       </c>
@@ -2663,25 +2715,25 @@
         <f>SUM(C3)</f>
         <v>19</v>
       </c>
-      <c r="N31" s="66">
+      <c r="N31" s="72">
         <f>SUM(M31:M34)</f>
         <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="28.5" customHeight="1">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="50">
+      <c r="B32" s="52">
         <f>SUM(B16+B23)</f>
         <v>4</v>
       </c>
-      <c r="C32" s="61">
+      <c r="C32" s="66">
         <f>SUM(B32)</f>
         <v>4</v>
       </c>
-      <c r="D32" s="62"/>
-      <c r="E32" s="54"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="58"/>
       <c r="L32" s="38" t="s">
         <v>12</v>
       </c>
@@ -2689,9 +2741,22 @@
         <f>SUM(C6+I3+I6)</f>
         <v>107</v>
       </c>
-      <c r="N32" s="67"/>
-    </row>
-    <row r="33" spans="12:16" ht="31.5" customHeight="1">
+      <c r="N32" s="73"/>
+    </row>
+    <row r="33" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A33" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="54">
+        <f>SUM(J3)</f>
+        <v>69</v>
+      </c>
+      <c r="C33" s="55">
+        <f>SUM(B33)</f>
+        <v>69</v>
+      </c>
+      <c r="D33" s="56"/>
+      <c r="E33" s="59"/>
       <c r="L33" s="37" t="s">
         <v>26</v>
       </c>
@@ -2699,10 +2764,10 @@
         <f>SUM(C13+I12)</f>
         <v>86</v>
       </c>
-      <c r="N33" s="67"/>
+      <c r="N33" s="73"/>
       <c r="P33" s="26"/>
     </row>
-    <row r="34" spans="12:16" ht="31.5" customHeight="1">
+    <row r="34" spans="1:16" ht="31.5" customHeight="1">
       <c r="L34" s="38" t="s">
         <v>30</v>
       </c>
@@ -2710,38 +2775,35 @@
         <f>SUM(C20+I18+I24)</f>
         <v>78</v>
       </c>
-      <c r="N34" s="68"/>
-    </row>
-    <row r="35" spans="12:16" ht="31.5">
+      <c r="N34" s="74"/>
+    </row>
+    <row r="35" spans="1:16" ht="31.5">
+      <c r="F35" s="50"/>
       <c r="L35" s="39" t="s">
         <v>41</v>
       </c>
       <c r="M35" s="36">
         <f>SUM(O26)</f>
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="N35" s="40">
         <f>SUM(M35)</f>
-        <v>346</v>
-      </c>
-    </row>
-    <row r="36" spans="12:16" ht="46.5">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="46.5">
       <c r="L36" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="M36" s="111">
+      <c r="M36" s="114">
         <f>SUM(N31:N35)</f>
-        <v>636</v>
-      </c>
-      <c r="N36" s="112"/>
-    </row>
-    <row r="37" spans="12:16" ht="62.1" customHeight="1"/>
+        <v>610</v>
+      </c>
+      <c r="N36" s="115"/>
+    </row>
+    <row r="37" spans="1:16" ht="62.1" customHeight="1"/>
   </sheetData>
-  <mergeCells count="64">
-    <mergeCell ref="L26:N27"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
+  <mergeCells count="65">
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="O17:O24"/>
     <mergeCell ref="D20:D24"/>
@@ -2774,6 +2836,7 @@
     <mergeCell ref="M21:M22"/>
     <mergeCell ref="N21:N22"/>
     <mergeCell ref="L23:L24"/>
+    <mergeCell ref="L30:N30"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="M23:M24"/>
@@ -2781,6 +2844,11 @@
     <mergeCell ref="N12:N13"/>
     <mergeCell ref="N17:N18"/>
     <mergeCell ref="N19:N20"/>
+    <mergeCell ref="L26:N27"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="A27:E27"/>
     <mergeCell ref="N31:N34"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="I12:I15"/>
@@ -2796,12 +2864,11 @@
     <mergeCell ref="L12:L13"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E28:E33"/>
     <mergeCell ref="C28:D29"/>
     <mergeCell ref="C30:D31"/>
     <mergeCell ref="C32:D32"/>
-    <mergeCell ref="A27:E27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/docs/comp_student_numbers_2022.xlsx
+++ b/docs/comp_student_numbers_2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssu-my.sharepoint.com/personal/martin_reid_solent_ac_uk/Documents/solent_store/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="889" documentId="8_{2550F169-BEF9-40D9-8733-B8C7482F9540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE5399F2-A4E7-44D2-A524-88BFEC9AD6A5}"/>
+  <xr:revisionPtr revIDLastSave="1176" documentId="8_{2550F169-BEF9-40D9-8733-B8C7482F9540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{888DF5B2-5B1E-433D-916B-2CB503787E0C}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="600" windowWidth="51200" windowHeight="28340" xr2:uid="{145B23FD-6B6F-4D33-A52C-2CE972592F2A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
   <si>
     <t>Under Grads</t>
   </si>
@@ -50,6 +50,9 @@
     <t>Groups @20</t>
   </si>
   <si>
+    <t>Groups @24</t>
+  </si>
+  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -59,7 +62,7 @@
     <t>Masters</t>
   </si>
   <si>
-    <t>Groups @25</t>
+    <t>Complete</t>
   </si>
   <si>
     <t>Computing Foundation</t>
@@ -71,6 +74,9 @@
     <t>MSc Digital Design (Sept 22 - Sept 23)</t>
   </si>
   <si>
+    <t>October 2023 Board</t>
+  </si>
+  <si>
     <t>MSc Digital Design (Sept 23 - Sept 24)</t>
   </si>
   <si>
@@ -107,21 +113,24 @@
     <t>Soft Eng</t>
   </si>
   <si>
+    <t>MSc Computer Engineering (Setp 23 - Sep 24)</t>
+  </si>
+  <si>
+    <t>BSc Soft Eng</t>
+  </si>
+  <si>
+    <t>Level 5 - BDATS</t>
+  </si>
+  <si>
+    <t>Level 5</t>
+  </si>
+  <si>
+    <t>MSc Cyber Security Engineering (Sept 22 -Sept 23)</t>
+  </si>
+  <si>
     <t>MSc Cyber Security Engineering (Setp 23 - Sep 24)</t>
   </si>
   <si>
-    <t>BSc Soft Eng</t>
-  </si>
-  <si>
-    <t>Level 5 - BDATS</t>
-  </si>
-  <si>
-    <t>Level 5</t>
-  </si>
-  <si>
-    <t>MSc Cyber Security Engineering (Sept 22 -Sept 23)</t>
-  </si>
-  <si>
     <t>Level 6 - BDATS</t>
   </si>
   <si>
@@ -149,19 +158,40 @@
     <t>Total Level</t>
   </si>
   <si>
+    <t xml:space="preserve">minus Sept completes </t>
+  </si>
+  <si>
     <t>UG BSc Course Breakdown Totals</t>
   </si>
   <si>
-    <t>Updated (19-9-23)</t>
+    <t>Updated (1-10-23)</t>
   </si>
   <si>
     <t>All Level Totals</t>
   </si>
   <si>
+    <t>Totals</t>
+  </si>
+  <si>
+    <t>COM411 inc. Apps</t>
+  </si>
+  <si>
     <t>Level 3</t>
   </si>
   <si>
+    <t>COM412 inc. Apps</t>
+  </si>
+  <si>
+    <t>Level 7 - 15 Credits Sept 23 Starters</t>
+  </si>
+  <si>
+    <t>Level 7 - MAIDS Sept 23 Starters</t>
+  </si>
+  <si>
     <t>Level 7</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
   <si>
     <t>Computing Total</t>
@@ -171,7 +201,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,13 +277,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -336,8 +362,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -398,8 +459,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="61">
+  <borders count="69">
     <border>
       <left/>
       <right/>
@@ -889,53 +974,16 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -977,30 +1025,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -1132,15 +1156,151 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1148,20 +1308,63 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1257,11 +1460,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1277,12 +1477,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1293,32 +1487,263 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1327,283 +1752,103 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1615,41 +1860,143 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1965,10 +2312,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61D71A9-822A-40B0-B2DC-F9E13A183401}">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+      <selection activeCell="C28" sqref="C28:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1976,18 +2323,20 @@
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
     <col min="3" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="43.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="43.85546875" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" customWidth="1"/>
+    <col min="17" max="17" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="32.25" customHeight="1">
+    <row r="1" spans="1:21" ht="32.25" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2000,42 +2349,50 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="P1" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:20" ht="29.25" customHeight="1">
+      <c r="E2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="Q2" s="10"/>
+    </row>
+    <row r="3" spans="1:21" ht="29.25" customHeight="1">
       <c r="A3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="9">
         <v>19</v>
@@ -2044,831 +2401,988 @@
         <f>SUM(B3)</f>
         <v>19</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="58">
         <f>SUM(C3/20)</f>
         <v>0.95</v>
       </c>
-      <c r="E3" s="143">
+      <c r="E3" s="58">
+        <f>SUM(C3/24)</f>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F3" s="157">
         <f>SUM(C3+C6+C13+C20)</f>
-        <v>221</v>
-      </c>
-      <c r="G3" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="9">
+        <v>7</v>
+      </c>
+      <c r="J3" s="14">
+        <f>SUM(I3)</f>
+        <v>7</v>
+      </c>
+      <c r="K3" s="170">
+        <f>SUM(J3+J6+J12+J18+J24)</f>
+        <v>68</v>
+      </c>
+      <c r="M3" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="62">
+        <v>11</v>
+      </c>
+      <c r="O3" s="63">
+        <f>SUM(N3/24)</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="P3" s="69">
+        <f>SUM(N3:N15)</f>
+        <v>75</v>
+      </c>
+      <c r="Q3" s="55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A4" s="156"/>
+      <c r="B4" s="156"/>
+      <c r="C4" s="156"/>
+      <c r="D4" s="156"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="158"/>
+      <c r="H4" s="179"/>
+      <c r="I4" s="179"/>
+      <c r="J4" s="179"/>
+      <c r="K4" s="71"/>
+      <c r="M4" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="107">
         <v>9</v>
       </c>
-      <c r="H3" s="9">
-        <v>7</v>
-      </c>
-      <c r="I3" s="14">
-        <f>SUM(H3)</f>
-        <v>7</v>
-      </c>
-      <c r="J3" s="87">
-        <f>SUM(I3+I6+I12+I18+I24)</f>
-        <v>69</v>
-      </c>
-      <c r="L3" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="45">
-        <v>11</v>
-      </c>
-      <c r="N3" s="45">
-        <f>SUM(M3/25)</f>
-        <v>0.44</v>
-      </c>
-      <c r="O3" s="87">
-        <f>SUM(M3:M15)</f>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A4" s="141"/>
-      <c r="B4" s="141"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="144"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="88"/>
-      <c r="L4" s="103" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="105">
-        <v>9</v>
-      </c>
-      <c r="N4" s="107">
-        <f t="shared" ref="N4" si="0">SUM(M4/25)</f>
-        <v>0.36</v>
-      </c>
-      <c r="O4" s="116"/>
-    </row>
-    <row r="5" spans="1:20" ht="16.5" customHeight="1">
-      <c r="A5" s="96" t="s">
+      <c r="O4" s="109">
+        <f>SUM(N4/24)</f>
+        <v>0.375</v>
+      </c>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="105"/>
+    </row>
+    <row r="5" spans="1:21" ht="16.5" customHeight="1">
+      <c r="A5" s="167" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="168"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="159"/>
+      <c r="H5" s="167" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="168"/>
+      <c r="J5" s="178"/>
+      <c r="K5" s="71"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="110"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="106"/>
+    </row>
+    <row r="6" spans="1:21" ht="15" customHeight="1">
+      <c r="A6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="16">
+        <v>19</v>
+      </c>
+      <c r="C6" s="161">
+        <f>SUM(B6:B10)</f>
+        <v>98</v>
+      </c>
+      <c r="D6" s="84">
+        <f>SUM(C6/20)</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E6" s="84">
+        <f>SUM(C6/24)</f>
+        <v>4.083333333333333</v>
+      </c>
+      <c r="F6" s="158"/>
+      <c r="H6" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="19">
+        <v>2</v>
+      </c>
+      <c r="J6" s="91">
+        <f>SUM(I6:I10)</f>
+        <v>20</v>
+      </c>
+      <c r="K6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="10"/>
+    </row>
+    <row r="7" spans="1:21" ht="15" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3">
+        <v>13</v>
+      </c>
+      <c r="C7" s="162"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="158"/>
+      <c r="H7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="18">
+        <v>0</v>
+      </c>
+      <c r="J7" s="84"/>
+      <c r="K7" s="71"/>
+      <c r="M7" s="182" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="74">
+        <v>16</v>
+      </c>
+      <c r="O7" s="76">
+        <f>SUM(N7/24)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="145"/>
-      <c r="G5" s="96" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="97"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="88"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="116"/>
-    </row>
-    <row r="6" spans="1:20" ht="15" customHeight="1">
-      <c r="A6" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="16">
-        <v>17</v>
-      </c>
-      <c r="C6" s="147">
-        <f>SUM(B6:B10)</f>
-        <v>79</v>
-      </c>
-      <c r="D6" s="112">
-        <f>SUM(C6/20)</f>
-        <v>3.95</v>
-      </c>
-      <c r="E6" s="145"/>
-      <c r="G6" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="19">
-        <v>2</v>
-      </c>
-      <c r="I6" s="77">
-        <f>SUM(H6:H10)</f>
+    </row>
+    <row r="8" spans="1:21" ht="15" customHeight="1">
+      <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="88"/>
-      <c r="O6" s="88"/>
-    </row>
-    <row r="7" spans="1:20" ht="15" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="3">
-        <v>12</v>
-      </c>
-      <c r="C7" s="148"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="145"/>
-      <c r="G7" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="18">
-        <v>0</v>
-      </c>
-      <c r="I7" s="64"/>
-      <c r="J7" s="88"/>
-      <c r="L7" s="101" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="118">
-        <v>16</v>
-      </c>
-      <c r="N7" s="120">
-        <f>SUM(M7/25)</f>
-        <v>0.64</v>
-      </c>
-      <c r="O7" s="88"/>
-    </row>
-    <row r="8" spans="1:20" ht="15" customHeight="1">
-      <c r="A8" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="B8" s="4">
-        <v>21</v>
-      </c>
-      <c r="C8" s="148"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="145"/>
-      <c r="G8" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="19">
+        <v>27</v>
+      </c>
+      <c r="C8" s="162"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="158"/>
+      <c r="H8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="19">
         <v>3</v>
       </c>
-      <c r="I8" s="64"/>
-      <c r="J8" s="88"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="119"/>
-      <c r="N8" s="121"/>
-      <c r="O8" s="88"/>
-      <c r="T8" s="50"/>
-    </row>
-    <row r="9" spans="1:20" ht="15" customHeight="1">
+      <c r="J8" s="84"/>
+      <c r="K8" s="71"/>
+      <c r="M8" s="183"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="104"/>
+      <c r="U8" s="45"/>
+    </row>
+    <row r="9" spans="1:21" ht="15" customHeight="1">
       <c r="A9" s="33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
       </c>
-      <c r="C9" s="148"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="145"/>
-      <c r="G9" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="23">
+      <c r="C9" s="162"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="158"/>
+      <c r="H9" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="23">
+        <v>15</v>
+      </c>
+      <c r="J9" s="85"/>
+      <c r="K9" s="71"/>
+      <c r="M9" s="184" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="111">
+        <v>8</v>
+      </c>
+      <c r="O9" s="113">
+        <f>SUM(N9/24)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="105"/>
+    </row>
+    <row r="10" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="8">
+        <v>39</v>
+      </c>
+      <c r="C10" s="163"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="158"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="71"/>
+      <c r="M10" s="185"/>
+      <c r="N10" s="112"/>
+      <c r="O10" s="114"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="106"/>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A11" s="156"/>
+      <c r="B11" s="156"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="158"/>
+      <c r="H11" s="186" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="178"/>
+      <c r="J11" s="178"/>
+      <c r="K11" s="71"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="10"/>
+    </row>
+    <row r="12" spans="1:21" ht="16.5" customHeight="1">
+      <c r="A12" s="167" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="168"/>
+      <c r="C12" s="168"/>
+      <c r="D12" s="168"/>
+      <c r="E12" s="169"/>
+      <c r="F12" s="159"/>
+      <c r="H12" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="19">
+        <v>0</v>
+      </c>
+      <c r="J12" s="91">
+        <f>SUM(I12:I15)</f>
+        <v>13</v>
+      </c>
+      <c r="K12" s="71"/>
+      <c r="M12" s="180" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="123">
+        <v>19</v>
+      </c>
+      <c r="O12" s="117">
+        <f>SUM(N12/24)</f>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="103" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15" customHeight="1">
+      <c r="A13" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="I9" s="78"/>
-      <c r="J9" s="88"/>
-      <c r="L9" s="122" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="107">
-        <v>20</v>
-      </c>
-      <c r="N9" s="124">
-        <f>SUM(M9/25)</f>
-        <v>0.8</v>
-      </c>
-      <c r="O9" s="88"/>
-    </row>
-    <row r="10" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="8">
-        <v>29</v>
-      </c>
-      <c r="C10" s="149"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="145"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="88"/>
-      <c r="L10" s="123"/>
-      <c r="M10" s="108"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="88"/>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A11" s="141"/>
-      <c r="B11" s="141"/>
-      <c r="C11" s="141"/>
-      <c r="D11" s="142"/>
-      <c r="E11" s="144"/>
-      <c r="G11" s="75" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="88"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="88"/>
-    </row>
-    <row r="12" spans="1:20" ht="16.5" customHeight="1">
-      <c r="A12" s="96" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="97"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="164"/>
-      <c r="E12" s="145"/>
-      <c r="G12" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="19">
-        <v>0</v>
-      </c>
-      <c r="I12" s="77">
-        <f>SUM(H12:H15)</f>
-        <v>13</v>
-      </c>
-      <c r="J12" s="88"/>
-      <c r="L12" s="99" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="111">
-        <v>19</v>
-      </c>
-      <c r="N12" s="77">
-        <f>SUM(M12/25)</f>
-        <v>0.76</v>
-      </c>
-      <c r="O12" s="88"/>
-    </row>
-    <row r="13" spans="1:20" ht="15" customHeight="1">
-      <c r="A13" s="15" t="s">
-        <v>14</v>
       </c>
       <c r="B13" s="16">
         <v>19</v>
       </c>
-      <c r="C13" s="147">
+      <c r="C13" s="161">
         <f>SUM(B13:B17)</f>
         <v>73</v>
       </c>
-      <c r="D13" s="111">
+      <c r="D13" s="84">
         <f>SUM(C13/20)</f>
         <v>3.65</v>
       </c>
-      <c r="E13" s="145"/>
-      <c r="G13" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="18">
+      <c r="E13" s="84">
+        <f>SUM(C13/24)</f>
+        <v>3.0416666666666665</v>
+      </c>
+      <c r="F13" s="158"/>
+      <c r="H13" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="18">
         <v>1</v>
       </c>
-      <c r="I13" s="64"/>
-      <c r="J13" s="88"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="112"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="88"/>
-    </row>
-    <row r="14" spans="1:20" ht="15" customHeight="1">
+      <c r="J13" s="84"/>
+      <c r="K13" s="71"/>
+      <c r="M13" s="181"/>
+      <c r="N13" s="124"/>
+      <c r="O13" s="118"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="104"/>
+    </row>
+    <row r="14" spans="1:21" ht="15" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14" s="3">
         <v>15</v>
       </c>
-      <c r="C14" s="148"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="145"/>
-      <c r="G14" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="18">
+      <c r="C14" s="162"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="158"/>
+      <c r="H14" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="18">
         <v>3</v>
       </c>
-      <c r="I14" s="64"/>
-      <c r="J14" s="88"/>
-      <c r="L14" s="126" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" s="128">
-        <v>13</v>
-      </c>
-      <c r="N14" s="111">
-        <f>SUM(M14/25)</f>
-        <v>0.52</v>
-      </c>
-      <c r="O14" s="116"/>
-    </row>
-    <row r="15" spans="1:20" ht="15" customHeight="1">
+      <c r="J14" s="84"/>
+      <c r="K14" s="71"/>
+      <c r="M14" s="195" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" s="119">
+        <v>12</v>
+      </c>
+      <c r="O14" s="121">
+        <f>SUM(N14/24)</f>
+        <v>0.5</v>
+      </c>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="105"/>
+    </row>
+    <row r="15" spans="1:21" ht="15" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15" s="4">
         <v>22</v>
       </c>
-      <c r="C15" s="148"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="145"/>
-      <c r="G15" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="29">
+      <c r="C15" s="162"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="158"/>
+      <c r="H15" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="29">
         <v>9</v>
       </c>
-      <c r="I15" s="78"/>
-      <c r="J15" s="88"/>
-      <c r="L15" s="127"/>
-      <c r="M15" s="129"/>
-      <c r="N15" s="130"/>
-      <c r="O15" s="117"/>
-    </row>
-    <row r="16" spans="1:20" ht="15" customHeight="1">
+      <c r="J15" s="85"/>
+      <c r="K15" s="71"/>
+      <c r="M15" s="196"/>
+      <c r="N15" s="120"/>
+      <c r="O15" s="122"/>
+      <c r="P15" s="73"/>
+      <c r="Q15" s="106"/>
+    </row>
+    <row r="16" spans="1:21" ht="15" customHeight="1">
       <c r="A16" s="33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
       </c>
-      <c r="C16" s="148"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="145"/>
-      <c r="J16" s="88"/>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1">
+      <c r="C16" s="162"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="158"/>
+      <c r="K16" s="71"/>
+    </row>
+    <row r="17" spans="1:18" ht="15.75" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B17" s="8">
         <v>17</v>
       </c>
-      <c r="C17" s="149"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="145"/>
-      <c r="G17" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="88"/>
-      <c r="L17" s="157" t="s">
-        <v>29</v>
-      </c>
-      <c r="M17" s="77">
+      <c r="C17" s="163"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="158"/>
+      <c r="H17" s="187" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="188"/>
+      <c r="J17" s="188"/>
+      <c r="K17" s="71"/>
+      <c r="M17" s="135" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" s="137">
         <v>60</v>
       </c>
-      <c r="N17" s="111">
-        <f>SUM(M17/25)</f>
-        <v>2.4</v>
-      </c>
-      <c r="O17" s="161">
-        <f>SUM(M17:M23)</f>
-        <v>232</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A18" s="141"/>
-      <c r="B18" s="141"/>
-      <c r="C18" s="141"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="144"/>
-      <c r="G18" s="6" t="s">
+      <c r="O17" s="123">
+        <f>SUM(N17/24)</f>
+        <v>2.5</v>
+      </c>
+      <c r="P17" s="127">
+        <f>SUM(N17:N23)</f>
+        <v>269</v>
+      </c>
+      <c r="Q17" s="103" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A18" s="156"/>
+      <c r="B18" s="156"/>
+      <c r="C18" s="156"/>
+      <c r="D18" s="156"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="158"/>
+      <c r="H18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="91">
+        <f>SUM(I18:I22)</f>
         <v>15</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="71"/>
+      <c r="M18" s="136"/>
+      <c r="N18" s="138"/>
+      <c r="O18" s="124"/>
+      <c r="P18" s="128"/>
+      <c r="Q18" s="104"/>
+    </row>
+    <row r="19" spans="1:18" ht="16.5" customHeight="1">
+      <c r="A19" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="168"/>
+      <c r="C19" s="168"/>
+      <c r="D19" s="168"/>
+      <c r="E19" s="169"/>
+      <c r="F19" s="159"/>
+      <c r="H19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="4">
         <v>1</v>
       </c>
-      <c r="I18" s="77">
-        <f>SUM(H18:H22)</f>
-        <v>15</v>
-      </c>
-      <c r="J18" s="88"/>
-      <c r="L18" s="158"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="112"/>
-      <c r="O18" s="116"/>
-    </row>
-    <row r="19" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A19" s="96" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="97"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="163"/>
-      <c r="E19" s="145"/>
-      <c r="G19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="4">
-        <v>1</v>
-      </c>
-      <c r="I19" s="64"/>
-      <c r="J19" s="88"/>
-      <c r="L19" s="131" t="s">
-        <v>31</v>
-      </c>
-      <c r="M19" s="128">
+      <c r="J19" s="84"/>
+      <c r="K19" s="71"/>
+      <c r="M19" s="139" t="s">
+        <v>34</v>
+      </c>
+      <c r="N19" s="119">
         <v>107</v>
       </c>
-      <c r="N19" s="107">
-        <f>SUM(M19/25)</f>
-        <v>4.28</v>
-      </c>
-      <c r="O19" s="116"/>
-    </row>
-    <row r="20" spans="1:15" ht="15" customHeight="1">
+      <c r="O19" s="146">
+        <f>SUM(N19/24)</f>
+        <v>4.458333333333333</v>
+      </c>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="98"/>
+    </row>
+    <row r="20" spans="1:18" ht="15" customHeight="1">
       <c r="A20" s="15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B20" s="16">
         <v>14</v>
       </c>
-      <c r="C20" s="150">
+      <c r="C20" s="164">
         <f>SUM(B20:B24)</f>
-        <v>50</v>
-      </c>
-      <c r="D20" s="139">
+        <v>48</v>
+      </c>
+      <c r="D20" s="129">
         <f>SUM(C20/20)</f>
-        <v>2.5</v>
-      </c>
-      <c r="E20" s="144"/>
-      <c r="G20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="E20" s="84">
+        <f>SUM(C20/24)</f>
+        <v>2</v>
+      </c>
+      <c r="F20" s="158"/>
+      <c r="H20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="3">
         <v>1</v>
       </c>
-      <c r="I20" s="64"/>
-      <c r="J20" s="88"/>
-      <c r="L20" s="132"/>
-      <c r="M20" s="135"/>
-      <c r="N20" s="113"/>
-      <c r="O20" s="116"/>
-    </row>
-    <row r="21" spans="1:15" ht="15" customHeight="1">
+      <c r="J20" s="84"/>
+      <c r="K20" s="71"/>
+      <c r="M20" s="140"/>
+      <c r="N20" s="143"/>
+      <c r="O20" s="147"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="99"/>
+    </row>
+    <row r="21" spans="1:18" ht="15" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B21" s="3">
-        <v>8</v>
-      </c>
-      <c r="C21" s="151"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="144"/>
-      <c r="G21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="4">
+        <v>6</v>
+      </c>
+      <c r="C21" s="165"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="158"/>
+      <c r="H21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="4">
         <v>2</v>
       </c>
-      <c r="I21" s="64"/>
-      <c r="J21" s="88"/>
-      <c r="L21" s="133" t="s">
-        <v>33</v>
-      </c>
-      <c r="M21" s="136">
-        <v>65</v>
-      </c>
-      <c r="N21" s="118">
-        <f t="shared" ref="N21" si="1">SUM(M21/25)</f>
-        <v>2.6</v>
-      </c>
-      <c r="O21" s="116"/>
-    </row>
-    <row r="22" spans="1:15" ht="15" customHeight="1">
+      <c r="J21" s="84"/>
+      <c r="K21" s="71"/>
+      <c r="M21" s="141" t="s">
+        <v>36</v>
+      </c>
+      <c r="N21" s="148">
+        <v>102</v>
+      </c>
+      <c r="O21" s="150">
+        <f>SUM(N21/24)</f>
+        <v>4.25</v>
+      </c>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="100"/>
+    </row>
+    <row r="22" spans="1:18" ht="15" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B22" s="4">
         <v>10</v>
       </c>
-      <c r="C22" s="151"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="144"/>
-      <c r="G22" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="13">
+      <c r="C22" s="165"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="158"/>
+      <c r="H22" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="13">
         <v>10</v>
       </c>
-      <c r="I22" s="78"/>
-      <c r="J22" s="88"/>
-      <c r="L22" s="134"/>
-      <c r="M22" s="137"/>
-      <c r="N22" s="138"/>
-      <c r="O22" s="116"/>
-    </row>
-    <row r="23" spans="1:15" ht="15" customHeight="1">
+      <c r="J22" s="85"/>
+      <c r="K22" s="71"/>
+      <c r="M22" s="142"/>
+      <c r="N22" s="149"/>
+      <c r="O22" s="151"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="99"/>
+    </row>
+    <row r="23" spans="1:18" ht="15" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B23" s="3">
         <v>4</v>
       </c>
-      <c r="C23" s="151"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="144"/>
-      <c r="J23" s="88"/>
-      <c r="L23" s="103" t="s">
-        <v>34</v>
-      </c>
-      <c r="M23" s="109"/>
-      <c r="N23" s="107">
-        <f t="shared" ref="N23" si="2">SUM(M23/25)</f>
+      <c r="C23" s="165"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="158"/>
+      <c r="K23" s="71"/>
+      <c r="M23" s="115" t="s">
+        <v>37</v>
+      </c>
+      <c r="N23" s="144"/>
+      <c r="O23" s="111">
+        <f>SUM(N23/24)</f>
         <v>0</v>
       </c>
-      <c r="O23" s="116"/>
-    </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1">
+      <c r="P23" s="70"/>
+      <c r="Q23" s="101"/>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B24" s="8">
         <v>14</v>
       </c>
-      <c r="C24" s="152"/>
-      <c r="D24" s="140"/>
-      <c r="E24" s="146"/>
-      <c r="G24" s="81" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" s="83">
+      <c r="C24" s="166"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="160"/>
+      <c r="H24" s="189" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="191">
         <v>13</v>
       </c>
-      <c r="I24" s="85">
-        <f>SUM(H24)</f>
+      <c r="J24" s="193">
+        <f>SUM(I24)</f>
         <v>13</v>
       </c>
-      <c r="J24" s="88"/>
-      <c r="L24" s="104"/>
-      <c r="M24" s="110"/>
-      <c r="N24" s="108"/>
-      <c r="O24" s="117"/>
-    </row>
-    <row r="25" spans="1:15" ht="15" customHeight="1">
-      <c r="G25" s="82"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="89"/>
-      <c r="O25" s="44"/>
-    </row>
-    <row r="26" spans="1:15" ht="15" customHeight="1">
-      <c r="J26" s="44"/>
-      <c r="L26" s="153" t="s">
-        <v>36</v>
-      </c>
-      <c r="M26" s="154"/>
-      <c r="N26" s="154"/>
-      <c r="O26" s="159">
-        <f>SUM(O3+O17)</f>
-        <v>320</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="26.25" customHeight="1">
-      <c r="A27" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="71"/>
-      <c r="J27" s="44"/>
-      <c r="L27" s="155"/>
-      <c r="M27" s="156"/>
-      <c r="N27" s="156"/>
-      <c r="O27" s="160"/>
-    </row>
-    <row r="28" spans="1:15" ht="18" customHeight="1">
-      <c r="A28" s="48" t="s">
-        <v>14</v>
+      <c r="K24" s="71"/>
+      <c r="M24" s="116"/>
+      <c r="N24" s="145"/>
+      <c r="O24" s="112"/>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="102"/>
+    </row>
+    <row r="25" spans="1:18" ht="15" customHeight="1">
+      <c r="H25" s="190"/>
+      <c r="I25" s="192"/>
+      <c r="J25" s="194"/>
+      <c r="K25" s="171"/>
+      <c r="P25" s="41"/>
+    </row>
+    <row r="26" spans="1:18" ht="15" customHeight="1">
+      <c r="K26" s="41"/>
+      <c r="M26" s="131" t="s">
+        <v>39</v>
+      </c>
+      <c r="N26" s="132"/>
+      <c r="O26" s="132"/>
+      <c r="P26" s="125">
+        <f>SUM(P3+P17-R26)</f>
+        <v>238</v>
+      </c>
+      <c r="Q26" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="R26" s="80">
+        <f>SUM(N3+N7+N12+N17)</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="26.25" customHeight="1">
+      <c r="A27" s="152" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="153"/>
+      <c r="C27" s="154"/>
+      <c r="D27" s="154"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="155"/>
+      <c r="K27" s="41"/>
+      <c r="M27" s="133"/>
+      <c r="N27" s="134"/>
+      <c r="O27" s="134"/>
+      <c r="P27" s="126"/>
+      <c r="Q27" s="79"/>
+      <c r="R27" s="81"/>
+    </row>
+    <row r="28" spans="1:18" ht="18" customHeight="1">
+      <c r="A28" s="43" t="s">
+        <v>16</v>
       </c>
       <c r="B28" s="25">
         <f>SUM(B6+B13+B20)</f>
-        <v>50</v>
-      </c>
-      <c r="C28" s="60">
+        <v>52</v>
+      </c>
+      <c r="C28" s="86">
         <f>SUM(B28+B29)</f>
-        <v>110</v>
-      </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="57">
+        <v>122</v>
+      </c>
+      <c r="D28" s="87"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="200">
         <f>SUM(C28:C33)</f>
-        <v>271</v>
-      </c>
-      <c r="G28" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" s="91"/>
-      <c r="I28" s="91"/>
-      <c r="J28" s="92"/>
-    </row>
-    <row r="29" spans="1:15" ht="18" customHeight="1">
+        <v>287</v>
+      </c>
+      <c r="H28" s="172" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" s="173"/>
+      <c r="J28" s="173"/>
+      <c r="K28" s="174"/>
+    </row>
+    <row r="29" spans="1:18" ht="18" customHeight="1">
       <c r="A29" s="30" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B29" s="31">
         <f>SUM(B10+B17+B24)</f>
-        <v>60</v>
-      </c>
-      <c r="C29" s="62"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="58"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="95"/>
-    </row>
-    <row r="30" spans="1:15" ht="28.5" customHeight="1">
+        <v>70</v>
+      </c>
+      <c r="C29" s="89"/>
+      <c r="D29" s="211"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="201"/>
+      <c r="H29" s="175"/>
+      <c r="I29" s="176"/>
+      <c r="J29" s="176"/>
+      <c r="K29" s="177"/>
+    </row>
+    <row r="30" spans="1:18" ht="28.5" customHeight="1">
       <c r="A30" s="27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B30" s="28">
         <f>SUM(B8+B15+B22)</f>
-        <v>53</v>
-      </c>
-      <c r="C30" s="64">
+        <v>59</v>
+      </c>
+      <c r="C30" s="91">
         <f>SUM(B30+B31)</f>
-        <v>88</v>
-      </c>
-      <c r="D30" s="65"/>
-      <c r="E30" s="58"/>
-      <c r="L30" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="M30" s="69"/>
-      <c r="N30" s="162"/>
-    </row>
-    <row r="31" spans="1:15" ht="28.5" customHeight="1">
-      <c r="A31" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="35">
+        <v>93</v>
+      </c>
+      <c r="D30" s="92"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="201"/>
+      <c r="M30" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="N30" s="52"/>
+      <c r="O30" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="P30" s="54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="28.5" customHeight="1">
+      <c r="A31" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="34">
         <f>SUM(B7+B14+B21)</f>
-        <v>35</v>
-      </c>
-      <c r="C31" s="64"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="58"/>
-      <c r="L31" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="25">
+        <v>34</v>
+      </c>
+      <c r="C31" s="84"/>
+      <c r="D31" s="212"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="201"/>
+      <c r="H31" s="205" t="s">
+        <v>45</v>
+      </c>
+      <c r="I31" s="206"/>
+      <c r="J31" s="206"/>
+      <c r="K31" s="59">
+        <f>SUM(C6+J6-5)</f>
+        <v>113</v>
+      </c>
+      <c r="M31" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="N31" s="25">
         <f>SUM(C3)</f>
         <v>19</v>
       </c>
-      <c r="N31" s="72">
-        <f>SUM(M31:M34)</f>
-        <v>290</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="28.5" customHeight="1">
-      <c r="A32" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="52">
+      <c r="O31" s="68">
+        <f>SUM(N31/20)</f>
+        <v>0.95</v>
+      </c>
+      <c r="P31" s="203">
+        <f>SUM(N31:N34)</f>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="28.5" customHeight="1">
+      <c r="A32" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="47">
         <f>SUM(B16+B23)</f>
         <v>4</v>
       </c>
-      <c r="C32" s="66">
+      <c r="C32" s="91">
         <f>SUM(B32)</f>
         <v>4</v>
       </c>
-      <c r="D32" s="67"/>
-      <c r="E32" s="58"/>
-      <c r="L32" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="M32" s="19">
-        <f>SUM(C6+I3+I6)</f>
-        <v>107</v>
-      </c>
-      <c r="N32" s="73"/>
-    </row>
-    <row r="33" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A33" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="54">
-        <f>SUM(J3)</f>
-        <v>69</v>
-      </c>
-      <c r="C33" s="55">
+      <c r="D32" s="92"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="201"/>
+      <c r="H32" s="207" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" s="208"/>
+      <c r="J32" s="208"/>
+      <c r="K32" s="60">
+        <f>SUM(C6+J6)</f>
+        <v>118</v>
+      </c>
+      <c r="M32" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="N32" s="19">
+        <f>SUM(C6+J3+J6)</f>
+        <v>125</v>
+      </c>
+      <c r="O32" s="53">
+        <f>SUM(N32/20)</f>
+        <v>6.25</v>
+      </c>
+      <c r="P32" s="203"/>
+    </row>
+    <row r="33" spans="1:17" ht="31.5" customHeight="1">
+      <c r="A33" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="49">
+        <f>SUM(K3)</f>
+        <v>68</v>
+      </c>
+      <c r="C33" s="95">
         <f>SUM(B33)</f>
-        <v>69</v>
-      </c>
-      <c r="D33" s="56"/>
-      <c r="E33" s="59"/>
-      <c r="L33" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="M33" s="18">
-        <f>SUM(C13+I12)</f>
+        <v>68</v>
+      </c>
+      <c r="D33" s="96"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="202"/>
+      <c r="M33" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="N33" s="18">
+        <f>SUM(C13+J12)</f>
         <v>86</v>
       </c>
-      <c r="N33" s="73"/>
-      <c r="P33" s="26"/>
-    </row>
-    <row r="34" spans="1:16" ht="31.5" customHeight="1">
-      <c r="L34" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="M34" s="35">
-        <f>SUM(C20+I18+I24)</f>
-        <v>78</v>
-      </c>
-      <c r="N34" s="74"/>
-    </row>
-    <row r="35" spans="1:16" ht="31.5">
-      <c r="F35" s="50"/>
-      <c r="L35" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="M35" s="36">
-        <f>SUM(O26)</f>
-        <v>320</v>
-      </c>
-      <c r="N35" s="40">
-        <f>SUM(M35)</f>
-        <v>320</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="46.5">
-      <c r="L36" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="M36" s="114">
-        <f>SUM(N31:N35)</f>
-        <v>610</v>
-      </c>
-      <c r="N36" s="115"/>
-    </row>
-    <row r="37" spans="1:16" ht="62.1" customHeight="1"/>
+      <c r="O33" s="67">
+        <f>SUM(N33/20)</f>
+        <v>4.3</v>
+      </c>
+      <c r="P33" s="203"/>
+      <c r="Q33" s="26"/>
+    </row>
+    <row r="34" spans="1:17" ht="31.5" customHeight="1">
+      <c r="H34" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="I34" s="83"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="65">
+        <f>SUM(N4+N9+N14)</f>
+        <v>29</v>
+      </c>
+      <c r="M34" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="N34" s="34">
+        <f>SUM(C20+J18+J24)</f>
+        <v>76</v>
+      </c>
+      <c r="O34" s="53">
+        <f>SUM(N33/24)</f>
+        <v>3.5833333333333335</v>
+      </c>
+      <c r="P34" s="204"/>
+    </row>
+    <row r="35" spans="1:17" ht="31.5">
+      <c r="G35" s="45"/>
+      <c r="H35" s="209" t="s">
+        <v>49</v>
+      </c>
+      <c r="I35" s="210"/>
+      <c r="J35" s="210"/>
+      <c r="K35" s="66">
+        <f>SUM(N21)</f>
+        <v>102</v>
+      </c>
+      <c r="M35" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="N35" s="35">
+        <f>SUM(P26)</f>
+        <v>238</v>
+      </c>
+      <c r="O35" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="P35" s="51">
+        <f>SUM(N35)</f>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="46.5">
+      <c r="M36" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="N36" s="197">
+        <f>SUM(P35+P31)</f>
+        <v>544</v>
+      </c>
+      <c r="O36" s="198"/>
+      <c r="P36" s="199"/>
+    </row>
+    <row r="37" spans="1:17" ht="62.1" customHeight="1"/>
   </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="O17:O24"/>
-    <mergeCell ref="D20:D24"/>
+  <mergeCells count="82">
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="F28:F33"/>
+    <mergeCell ref="P31:P34"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K3:K25"/>
+    <mergeCell ref="H28:K29"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="J18:J22"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="M14:M15"/>
     <mergeCell ref="A4:D4"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="J6:J9"/>
     <mergeCell ref="D6:D10"/>
-    <mergeCell ref="E3:E24"/>
+    <mergeCell ref="F3:F24"/>
     <mergeCell ref="C6:C10"/>
     <mergeCell ref="C13:C17"/>
     <mergeCell ref="C20:C24"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A19:D19"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="D13:D17"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O3:O15"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="E6:E10"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="P17:P24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="M26:O27"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
     <mergeCell ref="M19:M20"/>
     <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
     <mergeCell ref="N21:N22"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="C28:E29"/>
+    <mergeCell ref="C30:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="P3:P15"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="Q14:Q15"/>
     <mergeCell ref="N4:N5"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="L26:N27"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="N31:N34"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="I18:I22"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J3:J25"/>
-    <mergeCell ref="G28:J29"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E28:E33"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
